--- a/week_4_DataIntegration/Excel_support.xlsx
+++ b/week_4_DataIntegration/Excel_support.xlsx
@@ -8,12 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hansf\Documents\GitHub\ADS\week_4_DataIntegration\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7BDED91F-14EF-4038-B5AF-1F70EA69BAEA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65385147-C489-45B1-AFBC-F99A5D11F55F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{851A08EE-D487-4A13-AE74-306108EDED72}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{851A08EE-D487-4A13-AE74-306108EDED72}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Edit_Distance" sheetId="1" r:id="rId1"/>
+    <sheet name="Matrix_2" sheetId="3" r:id="rId2"/>
+    <sheet name="Matrix" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="439" uniqueCount="52">
   <si>
     <t>Fract</t>
   </si>
@@ -100,6 +102,96 @@
   </si>
   <si>
     <t>arnab</t>
+  </si>
+  <si>
+    <t>questions 3</t>
+  </si>
+  <si>
+    <t>aa</t>
+  </si>
+  <si>
+    <t>bb</t>
+  </si>
+  <si>
+    <t>ab</t>
+  </si>
+  <si>
+    <t>ba</t>
+  </si>
+  <si>
+    <t>ac</t>
+  </si>
+  <si>
+    <t>ca</t>
+  </si>
+  <si>
+    <t>D1</t>
+  </si>
+  <si>
+    <t>D2</t>
+  </si>
+  <si>
+    <t>D3</t>
+  </si>
+  <si>
+    <t>Question 10</t>
+  </si>
+  <si>
+    <t>P1</t>
+  </si>
+  <si>
+    <t>P2</t>
+  </si>
+  <si>
+    <t>P3</t>
+  </si>
+  <si>
+    <t>Permutation Matrix</t>
+  </si>
+  <si>
+    <t>H(d1)</t>
+  </si>
+  <si>
+    <t>H(d2)</t>
+  </si>
+  <si>
+    <t>H(d3)</t>
+  </si>
+  <si>
+    <t>Signature Matrix</t>
+  </si>
+  <si>
+    <t>Original Matrix</t>
+  </si>
+  <si>
+    <t>Similarity</t>
+  </si>
+  <si>
+    <t>Ω</t>
+  </si>
+  <si>
+    <t>H(1)</t>
+  </si>
+  <si>
+    <t>H(2)</t>
+  </si>
+  <si>
+    <t>Permutation Matrix/MinHash</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> x + 1 mod 5</t>
+  </si>
+  <si>
+    <t>3x+1 mod 5</t>
+  </si>
+  <si>
+    <t>Row</t>
+  </si>
+  <si>
+    <t>H(3)</t>
+  </si>
+  <si>
+    <t>Row_shingles</t>
   </si>
 </sst>
 </file>
@@ -107,9 +199,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="166" formatCode="0.000"/>
+    <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -125,8 +217,22 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <color theme="1"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="7">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -163,11 +269,49 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="3">
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top/>
       <bottom/>
       <diagonal/>
@@ -176,10 +320,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
@@ -195,12 +339,66 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFFFFFCC"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -509,10 +707,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E768CFA-033A-47C7-9B97-372C59FFF6D8}">
-  <dimension ref="C2:X50"/>
+  <dimension ref="C2:AI50"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A26" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="D39" sqref="D39"/>
+    <sheetView showGridLines="0" topLeftCell="A10" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="L39" sqref="L39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -714,15 +912,21 @@
         <v>0.73333333333333339</v>
       </c>
     </row>
-    <row r="19" spans="3:18" x14ac:dyDescent="0.3">
+    <row r="19" spans="3:35" x14ac:dyDescent="0.3">
       <c r="E19" s="7" t="s">
         <v>17</v>
       </c>
       <c r="F19" s="7" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="20" spans="3:18" x14ac:dyDescent="0.3">
+      <c r="V19" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="W19" s="7" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20" spans="3:35" x14ac:dyDescent="0.3">
       <c r="C20" s="7" t="s">
         <v>18</v>
       </c>
@@ -733,31 +937,70 @@
         <v>8</v>
       </c>
       <c r="I20" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="J20" t="s">
+        <v>8</v>
+      </c>
+      <c r="K20" t="s">
+        <v>13</v>
+      </c>
+      <c r="L20" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="M20" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="N20" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="O20" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="P20" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q20" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="R20" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="T20" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="X20" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="Y20" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="Z20" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="J20" t="s">
+      <c r="AA20" t="s">
         <v>7</v>
       </c>
-      <c r="K20" t="s">
+      <c r="AB20" t="s">
         <v>8</v>
       </c>
-      <c r="L20" s="5" t="s">
+      <c r="AC20" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="M20" s="5" t="s">
+      <c r="AD20" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="N20" s="5" t="s">
+      <c r="AE20" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="O20" s="5" t="s">
+      <c r="AF20" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="P20" s="5" t="s">
+      <c r="AG20" s="5" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="21" spans="3:18" x14ac:dyDescent="0.3">
+    <row r="21" spans="3:35" x14ac:dyDescent="0.3">
       <c r="C21" s="9" t="s">
         <v>11</v>
       </c>
@@ -768,7 +1011,7 @@
         <v>15</v>
       </c>
       <c r="F21" s="8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G21" t="s">
         <v>7</v>
@@ -777,31 +1020,80 @@
         <v>8</v>
       </c>
       <c r="I21" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="J21" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="J21" s="6" t="s">
         <v>7</v>
       </c>
       <c r="K21" t="s">
         <v>8</v>
       </c>
-      <c r="L21" t="s">
+      <c r="L21" s="4"/>
+      <c r="M21" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="M21" t="s">
+      <c r="N21" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="O21" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="P21" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="N21" t="s">
+      <c r="Q21" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="O21" t="s">
+      <c r="R21" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="P21" t="s">
+      <c r="S21" s="5" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="22" spans="3:18" x14ac:dyDescent="0.3">
+      <c r="T21" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="U21" s="8">
+        <v>1</v>
+      </c>
+      <c r="V21" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="W21" s="8">
+        <v>1</v>
+      </c>
+      <c r="X21" t="s">
+        <v>7</v>
+      </c>
+      <c r="Y21" t="s">
+        <v>8</v>
+      </c>
+      <c r="Z21" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="AA21" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="AB21" t="s">
+        <v>8</v>
+      </c>
+      <c r="AC21" t="s">
+        <v>9</v>
+      </c>
+      <c r="AD21" t="s">
+        <v>10</v>
+      </c>
+      <c r="AE21" t="s">
+        <v>11</v>
+      </c>
+      <c r="AF21" t="s">
+        <v>12</v>
+      </c>
+      <c r="AG21" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="22" spans="3:35" x14ac:dyDescent="0.3">
       <c r="C22" s="10" t="s">
         <v>16</v>
       </c>
@@ -814,35 +1106,77 @@
       <c r="F22" s="8">
         <v>1</v>
       </c>
-      <c r="G22" t="s">
+      <c r="G22" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="H22" t="s">
+      <c r="H22" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="I22" s="3" t="s">
+      <c r="I22" t="s">
+        <v>5</v>
+      </c>
+      <c r="J22" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="K22" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="L22" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="M22" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="N22" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="O22" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="P22" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="T22" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="U22" s="8">
+        <v>1</v>
+      </c>
+      <c r="V22" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="W22" s="8">
+        <v>1</v>
+      </c>
+      <c r="X22" t="s">
+        <v>7</v>
+      </c>
+      <c r="Y22" t="s">
+        <v>8</v>
+      </c>
+      <c r="Z22" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="J22" t="s">
+      <c r="AA22" t="s">
         <v>8</v>
       </c>
-      <c r="K22" t="s">
+      <c r="AB22" t="s">
         <v>9</v>
       </c>
-      <c r="L22" t="s">
+      <c r="AC22" t="s">
         <v>10</v>
       </c>
-      <c r="M22" t="s">
+      <c r="AD22" t="s">
         <v>11</v>
       </c>
-      <c r="N22" t="s">
+      <c r="AE22" t="s">
         <v>12</v>
       </c>
-      <c r="O22" t="s">
+      <c r="AF22" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="23" spans="3:18" x14ac:dyDescent="0.3">
+    <row r="23" spans="3:35" x14ac:dyDescent="0.3">
       <c r="C23" s="11" t="s">
         <v>15</v>
       </c>
@@ -855,165 +1189,185 @@
       <c r="F23" s="8">
         <v>1</v>
       </c>
-      <c r="G23" t="s">
+      <c r="T23" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="U23" s="8">
+        <v>1</v>
+      </c>
+      <c r="V23" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="W23" s="8">
+        <v>1</v>
+      </c>
+      <c r="X23" t="s">
         <v>7</v>
       </c>
-      <c r="H23" t="s">
+      <c r="Y23" t="s">
         <v>8</v>
       </c>
-      <c r="I23" s="3" t="s">
+      <c r="Z23" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="J23" t="s">
+      <c r="AA23" t="s">
         <v>8</v>
       </c>
-      <c r="K23" s="6" t="s">
+      <c r="AB23" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="L23" t="s">
+      <c r="AC23" t="s">
         <v>9</v>
       </c>
-      <c r="M23" t="s">
+      <c r="AD23" t="s">
         <v>10</v>
       </c>
-      <c r="N23" t="s">
+      <c r="AE23" t="s">
         <v>11</v>
       </c>
-      <c r="O23" t="s">
+      <c r="AF23" t="s">
         <v>12</v>
       </c>
-      <c r="P23" t="s">
+      <c r="AG23" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="24" spans="3:18" x14ac:dyDescent="0.3">
-      <c r="E24" s="9" t="s">
+    <row r="24" spans="3:35" x14ac:dyDescent="0.3">
+      <c r="E24" s="9"/>
+      <c r="F24" s="8"/>
+      <c r="V24" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="F24" s="8">
-        <v>1</v>
-      </c>
-      <c r="G24" t="s">
+      <c r="W24" s="8">
+        <v>1</v>
+      </c>
+      <c r="X24" t="s">
         <v>7</v>
       </c>
-      <c r="H24" t="s">
+      <c r="Y24" t="s">
         <v>8</v>
       </c>
-      <c r="I24" s="3" t="s">
+      <c r="Z24" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="J24" t="s">
+      <c r="AA24" t="s">
         <v>8</v>
       </c>
-      <c r="K24" s="6" t="s">
+      <c r="AB24" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="L24" s="6" t="s">
+      <c r="AC24" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="M24" t="s">
+      <c r="AD24" t="s">
         <v>9</v>
       </c>
-      <c r="N24" t="s">
+      <c r="AE24" t="s">
         <v>10</v>
       </c>
-      <c r="O24" t="s">
+      <c r="AF24" t="s">
         <v>11</v>
       </c>
-      <c r="P24" t="s">
+      <c r="AG24" t="s">
         <v>12</v>
       </c>
-      <c r="Q24" t="s">
+      <c r="AH24" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="25" spans="3:18" x14ac:dyDescent="0.3">
-      <c r="E25" s="9" t="s">
+    <row r="25" spans="3:35" x14ac:dyDescent="0.3">
+      <c r="E25" s="9"/>
+      <c r="F25" s="8"/>
+      <c r="V25" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="F25" s="8">
-        <v>1</v>
-      </c>
-      <c r="G25" t="s">
+      <c r="W25" s="8">
+        <v>1</v>
+      </c>
+      <c r="X25" t="s">
         <v>7</v>
       </c>
-      <c r="H25" t="s">
+      <c r="Y25" t="s">
         <v>8</v>
       </c>
-      <c r="I25" s="3" t="s">
+      <c r="Z25" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="J25" t="s">
+      <c r="AA25" t="s">
         <v>8</v>
       </c>
-      <c r="K25" s="6" t="s">
+      <c r="AB25" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="L25" s="6" t="s">
+      <c r="AC25" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="M25" s="6" t="s">
+      <c r="AD25" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="N25" t="s">
+      <c r="AE25" t="s">
         <v>9</v>
       </c>
-      <c r="O25" t="s">
+      <c r="AF25" t="s">
         <v>10</v>
       </c>
-      <c r="P25" t="s">
+      <c r="AG25" t="s">
         <v>11</v>
       </c>
-      <c r="Q25" t="s">
+      <c r="AH25" t="s">
         <v>12</v>
       </c>
-      <c r="R25" t="s">
+      <c r="AI25" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="26" spans="3:18" x14ac:dyDescent="0.3">
+    <row r="26" spans="3:35" x14ac:dyDescent="0.3">
       <c r="F26" s="12">
         <f>SUM(F21:F25)</f>
+        <v>4</v>
+      </c>
+      <c r="W26" s="12">
+        <f>SUM(W21:W25)</f>
         <v>5</v>
       </c>
-      <c r="G26" s="5" t="s">
+      <c r="X26" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="H26" s="5" t="s">
+      <c r="Y26" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="I26" t="s">
+      <c r="Z26" t="s">
         <v>14</v>
       </c>
-      <c r="J26" t="s">
+      <c r="AA26" t="s">
         <v>8</v>
       </c>
-      <c r="K26" t="s">
+      <c r="AB26" t="s">
         <v>13</v>
       </c>
-      <c r="L26" t="s">
+      <c r="AC26" t="s">
         <v>8</v>
       </c>
-      <c r="M26" t="s">
+      <c r="AD26" t="s">
         <v>7</v>
       </c>
-      <c r="N26" s="5" t="s">
+      <c r="AE26" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="O26" s="5" t="s">
+      <c r="AF26" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="P26" s="5" t="s">
+      <c r="AG26" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="Q26" s="5" t="s">
+      <c r="AH26" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="R26" s="5" t="s">
+      <c r="AI26" s="5" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="29" spans="3:18" x14ac:dyDescent="0.3">
+    <row r="29" spans="3:35" x14ac:dyDescent="0.3">
       <c r="E29" s="7" t="s">
         <v>17</v>
       </c>
@@ -1021,7 +1375,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="30" spans="3:18" x14ac:dyDescent="0.3">
+    <row r="30" spans="3:35" x14ac:dyDescent="0.3">
       <c r="C30" s="7" t="s">
         <v>18</v>
       </c>
@@ -1032,31 +1386,37 @@
         <v>8</v>
       </c>
       <c r="I30" s="3" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="J30" t="s">
+        <v>8</v>
+      </c>
+      <c r="K30" t="s">
+        <v>13</v>
+      </c>
+      <c r="L30" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="M30" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="K30" t="s">
-        <v>8</v>
-      </c>
-      <c r="L30" s="5" t="s">
+      <c r="N30" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="M30" s="5" t="s">
+      <c r="O30" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="N30" s="5" t="s">
+      <c r="P30" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="O30" s="5" t="s">
+      <c r="Q30" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="P30" s="5" t="s">
+      <c r="R30" s="5" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="31" spans="3:18" x14ac:dyDescent="0.3">
+    <row r="31" spans="3:35" x14ac:dyDescent="0.3">
       <c r="C31" s="9" t="s">
         <v>11</v>
       </c>
@@ -1067,7 +1427,7 @@
         <v>15</v>
       </c>
       <c r="F31" s="8">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G31" t="s">
         <v>7</v>
@@ -1076,31 +1436,38 @@
         <v>8</v>
       </c>
       <c r="I31" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="J31" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="J31" s="6" t="s">
         <v>7</v>
       </c>
       <c r="K31" t="s">
         <v>8</v>
       </c>
-      <c r="L31" t="s">
+      <c r="L31" s="4"/>
+      <c r="M31" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="M31" t="s">
+      <c r="N31" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="O31" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="P31" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="N31" t="s">
+      <c r="Q31" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="O31" t="s">
+      <c r="R31" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="P31" t="s">
+      <c r="S31" s="5" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="32" spans="3:18" x14ac:dyDescent="0.3">
+    <row r="32" spans="3:35" x14ac:dyDescent="0.3">
       <c r="C32" s="10" t="s">
         <v>16</v>
       </c>
@@ -1113,31 +1480,34 @@
       <c r="F32" s="8">
         <v>2</v>
       </c>
-      <c r="G32" t="s">
+      <c r="G32" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="H32" t="s">
+      <c r="H32" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="I32" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="J32" t="s">
+      <c r="I32" t="s">
+        <v>5</v>
+      </c>
+      <c r="J32" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="K32" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="K32" t="s">
+      <c r="L32" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="L32" t="s">
+      <c r="M32" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="M32" t="s">
+      <c r="N32" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="N32" t="s">
+      <c r="O32" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="O32" t="s">
+      <c r="P32" s="5" t="s">
         <v>13</v>
       </c>
     </row>
@@ -1154,162 +1524,19 @@
       <c r="F33" s="8">
         <v>2</v>
       </c>
-      <c r="G33" t="s">
-        <v>7</v>
-      </c>
-      <c r="H33" t="s">
-        <v>8</v>
-      </c>
-      <c r="I33" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="J33" t="s">
-        <v>8</v>
-      </c>
-      <c r="K33" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="L33" t="s">
-        <v>9</v>
-      </c>
-      <c r="M33" t="s">
-        <v>10</v>
-      </c>
-      <c r="N33" t="s">
-        <v>11</v>
-      </c>
-      <c r="O33" t="s">
-        <v>12</v>
-      </c>
-      <c r="P33" t="s">
-        <v>13</v>
-      </c>
     </row>
     <row r="34" spans="3:18" x14ac:dyDescent="0.3">
-      <c r="E34" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="F34" s="8">
-        <v>2</v>
-      </c>
-      <c r="G34" t="s">
-        <v>7</v>
-      </c>
-      <c r="H34" t="s">
-        <v>8</v>
-      </c>
-      <c r="I34" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="J34" t="s">
-        <v>8</v>
-      </c>
-      <c r="K34" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="L34" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="M34" t="s">
-        <v>9</v>
-      </c>
-      <c r="N34" t="s">
-        <v>10</v>
-      </c>
-      <c r="O34" t="s">
-        <v>11</v>
-      </c>
-      <c r="P34" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q34" t="s">
-        <v>13</v>
-      </c>
+      <c r="E34" s="9"/>
+      <c r="F34" s="8"/>
     </row>
     <row r="35" spans="3:18" x14ac:dyDescent="0.3">
-      <c r="E35" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="F35" s="8">
-        <v>2</v>
-      </c>
-      <c r="G35" t="s">
-        <v>7</v>
-      </c>
-      <c r="H35" t="s">
-        <v>8</v>
-      </c>
-      <c r="I35" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="J35" t="s">
-        <v>8</v>
-      </c>
-      <c r="K35" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="L35" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="M35" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="N35" t="s">
-        <v>9</v>
-      </c>
-      <c r="O35" t="s">
-        <v>10</v>
-      </c>
-      <c r="P35" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q35" t="s">
-        <v>12</v>
-      </c>
-      <c r="R35" t="s">
-        <v>13</v>
-      </c>
+      <c r="E35" s="9"/>
+      <c r="F35" s="8"/>
     </row>
     <row r="36" spans="3:18" x14ac:dyDescent="0.3">
       <c r="F36" s="12">
         <f>SUM(F31:F35)</f>
-        <v>10</v>
-      </c>
-      <c r="G36" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="H36" s="5" t="s">
         <v>8</v>
-      </c>
-      <c r="I36" t="s">
-        <v>14</v>
-      </c>
-      <c r="J36" t="s">
-        <v>8</v>
-      </c>
-      <c r="K36" t="s">
-        <v>13</v>
-      </c>
-      <c r="L36" t="s">
-        <v>8</v>
-      </c>
-      <c r="M36" t="s">
-        <v>7</v>
-      </c>
-      <c r="N36" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="O36" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="P36" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q36" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="R36" s="5" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="41" spans="3:18" x14ac:dyDescent="0.3">
@@ -1521,4 +1748,1907 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B6CB495E-F0D0-4415-BE5B-C7E426A19E0B}">
+  <dimension ref="B2:AF39"/>
+  <sheetViews>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12:N29"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="12.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.21875" customWidth="1"/>
+    <col min="16" max="16" width="14.44140625" customWidth="1"/>
+    <col min="21" max="21" width="14.33203125" customWidth="1"/>
+    <col min="22" max="22" width="11.77734375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:23" ht="18" x14ac:dyDescent="0.35">
+      <c r="C2" s="15" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="4" spans="2:23" x14ac:dyDescent="0.3">
+      <c r="C4" s="17"/>
+      <c r="D4" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="E4" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="F4" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="G4" s="30"/>
+      <c r="H4" s="30"/>
+      <c r="I4" s="30"/>
+      <c r="J4" s="30"/>
+    </row>
+    <row r="5" spans="2:23" x14ac:dyDescent="0.3">
+      <c r="C5" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="D5" s="17">
+        <v>1</v>
+      </c>
+      <c r="E5" s="17">
+        <v>1</v>
+      </c>
+      <c r="F5" s="17">
+        <v>0</v>
+      </c>
+      <c r="G5" s="30"/>
+      <c r="H5" s="30"/>
+      <c r="I5" s="30"/>
+      <c r="J5" s="30"/>
+    </row>
+    <row r="6" spans="2:23" x14ac:dyDescent="0.3">
+      <c r="C6" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6" s="17">
+        <v>1</v>
+      </c>
+      <c r="E6" s="17">
+        <v>0</v>
+      </c>
+      <c r="F6" s="17">
+        <v>0</v>
+      </c>
+      <c r="G6" s="30"/>
+      <c r="H6" s="30"/>
+      <c r="I6" s="30"/>
+      <c r="J6" s="30"/>
+    </row>
+    <row r="7" spans="2:23" x14ac:dyDescent="0.3">
+      <c r="C7" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D7" s="17">
+        <v>1</v>
+      </c>
+      <c r="E7" s="17">
+        <v>0</v>
+      </c>
+      <c r="F7" s="17">
+        <v>1</v>
+      </c>
+      <c r="G7" s="30"/>
+      <c r="H7" s="30"/>
+      <c r="I7" s="30"/>
+      <c r="J7" s="30"/>
+    </row>
+    <row r="8" spans="2:23" x14ac:dyDescent="0.3">
+      <c r="C8" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="D8" s="17">
+        <v>1</v>
+      </c>
+      <c r="E8" s="17">
+        <v>1</v>
+      </c>
+      <c r="F8" s="17">
+        <v>1</v>
+      </c>
+      <c r="G8" s="30"/>
+      <c r="H8" s="30"/>
+      <c r="I8" s="30"/>
+      <c r="J8" s="30"/>
+    </row>
+    <row r="9" spans="2:23" x14ac:dyDescent="0.3">
+      <c r="C9" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="D9" s="17">
+        <v>0</v>
+      </c>
+      <c r="E9" s="17">
+        <v>1</v>
+      </c>
+      <c r="F9" s="17">
+        <v>0</v>
+      </c>
+      <c r="G9" s="30"/>
+      <c r="H9" s="30"/>
+      <c r="I9" s="30"/>
+      <c r="J9" s="30"/>
+    </row>
+    <row r="10" spans="2:23" x14ac:dyDescent="0.3">
+      <c r="C10" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="D10" s="17">
+        <v>0</v>
+      </c>
+      <c r="E10" s="17">
+        <v>1</v>
+      </c>
+      <c r="F10" s="17">
+        <v>1</v>
+      </c>
+      <c r="G10" s="30"/>
+      <c r="H10" s="30"/>
+      <c r="I10" s="30"/>
+      <c r="J10" s="30"/>
+    </row>
+    <row r="11" spans="2:23" x14ac:dyDescent="0.3">
+      <c r="U11">
+        <f>MOD(3,2)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="2:23" ht="18" x14ac:dyDescent="0.35">
+      <c r="C12" s="15" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="13" spans="2:23" x14ac:dyDescent="0.3">
+      <c r="B13" s="14"/>
+      <c r="C13" s="28" t="s">
+        <v>41</v>
+      </c>
+      <c r="D13" s="28"/>
+      <c r="E13" s="28"/>
+      <c r="F13" s="28"/>
+      <c r="G13" s="27"/>
+      <c r="H13" s="27"/>
+      <c r="I13" s="27"/>
+      <c r="J13" s="27"/>
+      <c r="K13" s="25"/>
+      <c r="L13" s="25"/>
+      <c r="M13" s="25"/>
+      <c r="N13" s="25"/>
+      <c r="O13" s="26"/>
+      <c r="Q13" s="25" t="s">
+        <v>46</v>
+      </c>
+      <c r="R13" s="25"/>
+      <c r="S13" s="25"/>
+      <c r="T13" s="25"/>
+      <c r="U13" s="25"/>
+      <c r="V13" s="25"/>
+      <c r="W13" s="25"/>
+    </row>
+    <row r="14" spans="2:23" x14ac:dyDescent="0.3">
+      <c r="K14" s="25" t="s">
+        <v>40</v>
+      </c>
+      <c r="L14" s="25"/>
+      <c r="M14" s="25"/>
+      <c r="N14" s="25"/>
+      <c r="R14">
+        <v>2</v>
+      </c>
+      <c r="S14">
+        <v>3</v>
+      </c>
+      <c r="T14">
+        <v>4</v>
+      </c>
+      <c r="U14" s="20" t="s">
+        <v>44</v>
+      </c>
+      <c r="V14" s="20" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="15" spans="2:23" x14ac:dyDescent="0.3">
+      <c r="B15" s="17" t="s">
+        <v>51</v>
+      </c>
+      <c r="C15" s="20" t="s">
+        <v>49</v>
+      </c>
+      <c r="D15" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="E15" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="F15" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="G15" s="17" t="s">
+        <v>44</v>
+      </c>
+      <c r="H15" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="I15" s="17" t="s">
+        <v>50</v>
+      </c>
+      <c r="J15" s="30"/>
+      <c r="K15" s="17"/>
+      <c r="L15" s="20" t="s">
+        <v>29</v>
+      </c>
+      <c r="M15" s="20" t="s">
+        <v>30</v>
+      </c>
+      <c r="N15" s="20" t="s">
+        <v>31</v>
+      </c>
+      <c r="P15" s="20" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q15" s="19" t="s">
+        <v>33</v>
+      </c>
+      <c r="R15" s="20" t="s">
+        <v>29</v>
+      </c>
+      <c r="S15" s="20" t="s">
+        <v>30</v>
+      </c>
+      <c r="T15" s="20" t="s">
+        <v>31</v>
+      </c>
+      <c r="U15" s="24" t="s">
+        <v>47</v>
+      </c>
+      <c r="V15" s="24" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="16" spans="2:23" x14ac:dyDescent="0.3">
+      <c r="B16" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="C16" s="20">
+        <v>0</v>
+      </c>
+      <c r="D16" s="31">
+        <v>1</v>
+      </c>
+      <c r="E16" s="31">
+        <v>1</v>
+      </c>
+      <c r="F16" s="31">
+        <v>0</v>
+      </c>
+      <c r="G16" s="32">
+        <f>VLOOKUP(G24,$B$16:$C$21,2)+1</f>
+        <v>1</v>
+      </c>
+      <c r="H16" s="32">
+        <f>VLOOKUP(H24,$B$16:$C$21,2)+1</f>
+        <v>6</v>
+      </c>
+      <c r="I16" s="32">
+        <f>VLOOKUP(I24,$B$16:$C$21,2)+1</f>
+        <v>3</v>
+      </c>
+      <c r="J16" s="30"/>
+      <c r="K16" s="20" t="s">
+        <v>44</v>
+      </c>
+      <c r="L16" s="20">
+        <v>1</v>
+      </c>
+      <c r="M16" s="20">
+        <v>1</v>
+      </c>
+      <c r="N16" s="20">
+        <v>4</v>
+      </c>
+      <c r="P16" s="20">
+        <v>0</v>
+      </c>
+      <c r="Q16" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="R16" s="20">
+        <f>VLOOKUP($Q16,$B$16:$F$21,R$14,0)</f>
+        <v>0</v>
+      </c>
+      <c r="S16" s="20">
+        <f>VLOOKUP($Q16,$B$16:$F$21,S$14,0)</f>
+        <v>1</v>
+      </c>
+      <c r="T16" s="20">
+        <f>VLOOKUP($Q16,$B$16:$F$21,T$14,0)</f>
+        <v>1</v>
+      </c>
+      <c r="U16" s="17">
+        <f>MOD((P16+1),5)</f>
+        <v>1</v>
+      </c>
+      <c r="V16" s="17">
+        <f>MOD((3*P16+1),5)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="2:22" x14ac:dyDescent="0.3">
+      <c r="B17" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="C17" s="20">
+        <v>1</v>
+      </c>
+      <c r="D17" s="31">
+        <v>1</v>
+      </c>
+      <c r="E17" s="31">
+        <v>0</v>
+      </c>
+      <c r="F17" s="31">
+        <v>1</v>
+      </c>
+      <c r="G17" s="32">
+        <f t="shared" ref="G17:H21" si="0">VLOOKUP(G25,$B$16:$C$21,2)+1</f>
+        <v>5</v>
+      </c>
+      <c r="H17" s="32">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="I17" s="32">
+        <f t="shared" ref="I17" si="1">VLOOKUP(I25,$B$16:$C$21,2)+1</f>
+        <v>6</v>
+      </c>
+      <c r="J17" s="30"/>
+      <c r="K17" s="20" t="s">
+        <v>45</v>
+      </c>
+      <c r="L17" s="17">
+        <v>2</v>
+      </c>
+      <c r="M17" s="17">
+        <v>1</v>
+      </c>
+      <c r="N17" s="17">
+        <v>1</v>
+      </c>
+      <c r="P17" s="20">
+        <v>1</v>
+      </c>
+      <c r="Q17" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="R17" s="20">
+        <f>VLOOKUP($Q17,$B$16:$F$21,R$14,0)</f>
+        <v>4</v>
+      </c>
+      <c r="S17" s="20">
+        <f>VLOOKUP($Q17,$B$16:$F$21,S$14,0)</f>
+        <v>1</v>
+      </c>
+      <c r="T17" s="20">
+        <f>VLOOKUP($Q17,$B$16:$F$21,T$14,0)</f>
+        <v>0</v>
+      </c>
+      <c r="U17" s="17">
+        <f t="shared" ref="U17:U21" si="2">MOD((P17+1),5)</f>
+        <v>2</v>
+      </c>
+      <c r="V17" s="17">
+        <f t="shared" ref="V17:V21" si="3">MOD((3*P17+1),5)</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18" spans="2:22" x14ac:dyDescent="0.3">
+      <c r="B18" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="C18" s="20">
+        <v>2</v>
+      </c>
+      <c r="D18" s="31">
+        <v>0</v>
+      </c>
+      <c r="E18" s="31">
+        <v>1</v>
+      </c>
+      <c r="F18" s="31">
+        <v>0</v>
+      </c>
+      <c r="G18" s="32">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="H18" s="32">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="I18" s="32">
+        <f t="shared" ref="I18" si="4">VLOOKUP(I26,$B$16:$C$21,2)+1</f>
+        <v>2</v>
+      </c>
+      <c r="J18" s="30"/>
+      <c r="K18" s="17" t="s">
+        <v>50</v>
+      </c>
+      <c r="L18" s="17">
+        <v>3</v>
+      </c>
+      <c r="M18" s="17">
+        <v>1</v>
+      </c>
+      <c r="N18" s="17">
+        <v>1</v>
+      </c>
+      <c r="P18" s="20">
+        <v>2</v>
+      </c>
+      <c r="Q18" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="R18" s="20">
+        <f>VLOOKUP($Q18,$B$16:$F$21,R$14,0)</f>
+        <v>1</v>
+      </c>
+      <c r="S18" s="20">
+        <f>VLOOKUP($Q18,$B$16:$F$21,S$14,0)</f>
+        <v>1</v>
+      </c>
+      <c r="T18" s="20">
+        <f>VLOOKUP($Q18,$B$16:$F$21,T$14,0)</f>
+        <v>0</v>
+      </c>
+      <c r="U18" s="17">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="V18" s="17">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="2:22" x14ac:dyDescent="0.3">
+      <c r="B19" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="C19" s="20">
+        <v>3</v>
+      </c>
+      <c r="D19" s="31">
+        <v>1</v>
+      </c>
+      <c r="E19" s="31">
+        <v>1</v>
+      </c>
+      <c r="F19" s="31">
+        <v>1</v>
+      </c>
+      <c r="G19" s="32">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="H19" s="32">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="I19" s="32">
+        <f t="shared" ref="I19" si="5">VLOOKUP(I27,$B$16:$C$21,2)+1</f>
+        <v>4</v>
+      </c>
+      <c r="J19" s="30"/>
+      <c r="K19" s="27" t="s">
+        <v>42</v>
+      </c>
+      <c r="P19" s="20">
+        <v>3</v>
+      </c>
+      <c r="Q19" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="R19" s="20">
+        <f>VLOOKUP($Q19,$B$16:$F$21,R$14,0)</f>
+        <v>3</v>
+      </c>
+      <c r="S19" s="20">
+        <f>VLOOKUP($Q19,$B$16:$F$21,S$14,0)</f>
+        <v>1</v>
+      </c>
+      <c r="T19" s="20">
+        <f>VLOOKUP($Q19,$B$16:$F$21,T$14,0)</f>
+        <v>1</v>
+      </c>
+      <c r="U19" s="17">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+      <c r="V19" s="17">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="2:22" x14ac:dyDescent="0.3">
+      <c r="B20" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C20" s="20">
+        <v>4</v>
+      </c>
+      <c r="D20" s="31">
+        <v>1</v>
+      </c>
+      <c r="E20" s="31">
+        <v>0</v>
+      </c>
+      <c r="F20" s="31">
+        <v>0</v>
+      </c>
+      <c r="G20" s="32">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="H20" s="32">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="I20" s="32">
+        <f t="shared" ref="I20" si="6">VLOOKUP(I28,$B$16:$C$21,2)+1</f>
+        <v>5</v>
+      </c>
+      <c r="J20" s="30"/>
+      <c r="K20" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="L20" s="29" t="s">
+        <v>43</v>
+      </c>
+      <c r="M20" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="N20" s="18">
+        <f>1/3</f>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="P20" s="20">
+        <v>4</v>
+      </c>
+      <c r="Q20" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="R20" s="20">
+        <f>VLOOKUP($Q20,$B$16:$F$21,R$14,0)</f>
+        <v>2</v>
+      </c>
+      <c r="S20" s="20">
+        <f>VLOOKUP($Q20,$B$16:$F$21,S$14,0)</f>
+        <v>0</v>
+      </c>
+      <c r="T20" s="20">
+        <f>VLOOKUP($Q20,$B$16:$F$21,T$14,0)</f>
+        <v>1</v>
+      </c>
+      <c r="U20" s="17">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="V20" s="17">
+        <f t="shared" si="3"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="2:22" x14ac:dyDescent="0.3">
+      <c r="B21" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="C21" s="20">
+        <v>5</v>
+      </c>
+      <c r="D21" s="31">
+        <v>0</v>
+      </c>
+      <c r="E21" s="31">
+        <v>1</v>
+      </c>
+      <c r="F21" s="31">
+        <v>1</v>
+      </c>
+      <c r="G21" s="32">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="H21" s="32">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="I21" s="32">
+        <f t="shared" ref="I21" si="7">VLOOKUP(I29,$B$16:$C$21,2)+1</f>
+        <v>1</v>
+      </c>
+      <c r="J21" s="30"/>
+      <c r="K21" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="L21" s="29" t="s">
+        <v>43</v>
+      </c>
+      <c r="M21" s="18" t="s">
+        <v>31</v>
+      </c>
+      <c r="N21" s="18">
+        <v>0</v>
+      </c>
+      <c r="P21" s="20">
+        <v>5</v>
+      </c>
+      <c r="Q21" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="R21" s="20">
+        <f>VLOOKUP($Q21,$B$16:$F$21,R$14,0)</f>
+        <v>5</v>
+      </c>
+      <c r="S21" s="20">
+        <f>VLOOKUP($Q21,$B$16:$F$21,S$14,0)</f>
+        <v>0</v>
+      </c>
+      <c r="T21" s="20">
+        <f>VLOOKUP($Q21,$B$16:$F$21,T$14,0)</f>
+        <v>1</v>
+      </c>
+      <c r="U21" s="17">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="V21" s="17">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="2:22" x14ac:dyDescent="0.3">
+      <c r="C22" s="30"/>
+      <c r="D22" s="30"/>
+      <c r="E22" s="30"/>
+      <c r="F22" s="30"/>
+      <c r="G22" s="30"/>
+      <c r="H22" s="30"/>
+      <c r="I22" s="30"/>
+      <c r="J22" s="30"/>
+      <c r="K22" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="L22" s="29" t="s">
+        <v>43</v>
+      </c>
+      <c r="M22" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="N22" s="16">
+        <f>2/3</f>
+        <v>0.66666666666666663</v>
+      </c>
+    </row>
+    <row r="23" spans="2:22" x14ac:dyDescent="0.3">
+      <c r="C23" s="27" t="s">
+        <v>42</v>
+      </c>
+      <c r="G23" s="19" t="s">
+        <v>33</v>
+      </c>
+      <c r="H23" s="19" t="s">
+        <v>34</v>
+      </c>
+      <c r="I23" s="19" t="s">
+        <v>34</v>
+      </c>
+      <c r="U23" s="20" t="s">
+        <v>44</v>
+      </c>
+      <c r="V23" s="20" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="24" spans="2:22" x14ac:dyDescent="0.3">
+      <c r="C24" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="D24" s="29" t="s">
+        <v>43</v>
+      </c>
+      <c r="E24" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="F24" s="16">
+        <f>2/6</f>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="G24" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="H24" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="I24" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="P24" s="20" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q24" s="19" t="s">
+        <v>34</v>
+      </c>
+      <c r="R24" s="20" t="s">
+        <v>29</v>
+      </c>
+      <c r="S24" s="20" t="s">
+        <v>30</v>
+      </c>
+      <c r="T24" s="20" t="s">
+        <v>31</v>
+      </c>
+      <c r="U24" s="24" t="s">
+        <v>47</v>
+      </c>
+      <c r="V24" s="24" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="25" spans="2:22" x14ac:dyDescent="0.3">
+      <c r="C25" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="D25" s="29" t="s">
+        <v>43</v>
+      </c>
+      <c r="E25" s="18" t="s">
+        <v>31</v>
+      </c>
+      <c r="F25" s="18">
+        <f>2/5</f>
+        <v>0.4</v>
+      </c>
+      <c r="G25" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="H25" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="I25" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="P25" s="20">
+        <v>0</v>
+      </c>
+      <c r="Q25" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="R25" s="20">
+        <f>VLOOKUP($Q25,$B$16:$F$21,R$14,0)</f>
+        <v>5</v>
+      </c>
+      <c r="S25" s="20">
+        <f>VLOOKUP($Q25,$B$16:$F$21,S$14,0)</f>
+        <v>0</v>
+      </c>
+      <c r="T25" s="20">
+        <f>VLOOKUP($Q25,$B$16:$F$21,T$14,0)</f>
+        <v>1</v>
+      </c>
+      <c r="U25" s="17">
+        <f>MOD((P25+1),5)</f>
+        <v>1</v>
+      </c>
+      <c r="V25" s="17">
+        <f>MOD((3*P25+1),5)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="2:22" x14ac:dyDescent="0.3">
+      <c r="C26" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="D26" s="29" t="s">
+        <v>43</v>
+      </c>
+      <c r="E26" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="F26" s="16">
+        <f>2/5</f>
+        <v>0.4</v>
+      </c>
+      <c r="G26" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="H26" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="I26" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="P26" s="20">
+        <v>1</v>
+      </c>
+      <c r="Q26" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="R26" s="20">
+        <f>VLOOKUP($Q26,$B$16:$F$21,R$14,0)</f>
+        <v>2</v>
+      </c>
+      <c r="S26" s="20">
+        <f>VLOOKUP($Q26,$B$16:$F$21,S$14,0)</f>
+        <v>0</v>
+      </c>
+      <c r="T26" s="20">
+        <f>VLOOKUP($Q26,$B$16:$F$21,T$14,0)</f>
+        <v>1</v>
+      </c>
+      <c r="U26" s="17">
+        <f t="shared" ref="U26:U30" si="8">MOD((P26+1),5)</f>
+        <v>2</v>
+      </c>
+      <c r="V26" s="17">
+        <f t="shared" ref="V26:V30" si="9">MOD((3*P26+1),5)</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="27" spans="2:22" x14ac:dyDescent="0.3">
+      <c r="G27" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="H27" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="I27" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="P27" s="20">
+        <v>2</v>
+      </c>
+      <c r="Q27" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="R27" s="20">
+        <f>VLOOKUP($Q27,$B$16:$F$21,R$14,0)</f>
+        <v>3</v>
+      </c>
+      <c r="S27" s="20">
+        <f>VLOOKUP($Q27,$B$16:$F$21,S$14,0)</f>
+        <v>1</v>
+      </c>
+      <c r="T27" s="20">
+        <f>VLOOKUP($Q27,$B$16:$F$21,T$14,0)</f>
+        <v>1</v>
+      </c>
+      <c r="U27" s="17">
+        <f t="shared" si="8"/>
+        <v>3</v>
+      </c>
+      <c r="V27" s="17">
+        <f t="shared" si="9"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28" spans="2:22" x14ac:dyDescent="0.3">
+      <c r="G28" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="H28" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="I28" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="P28" s="20">
+        <v>3</v>
+      </c>
+      <c r="Q28" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="R28" s="20">
+        <f>VLOOKUP($Q28,$B$16:$F$21,R$14,0)</f>
+        <v>1</v>
+      </c>
+      <c r="S28" s="20">
+        <f>VLOOKUP($Q28,$B$16:$F$21,S$14,0)</f>
+        <v>1</v>
+      </c>
+      <c r="T28" s="20">
+        <f>VLOOKUP($Q28,$B$16:$F$21,T$14,0)</f>
+        <v>0</v>
+      </c>
+      <c r="U28" s="17">
+        <f t="shared" si="8"/>
+        <v>4</v>
+      </c>
+      <c r="V28" s="17">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="2:22" x14ac:dyDescent="0.3">
+      <c r="G29" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="H29" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="I29" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="P29" s="20">
+        <v>4</v>
+      </c>
+      <c r="Q29" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="R29" s="20">
+        <f>VLOOKUP($Q29,$B$16:$F$21,R$14,0)</f>
+        <v>4</v>
+      </c>
+      <c r="S29" s="20">
+        <f>VLOOKUP($Q29,$B$16:$F$21,S$14,0)</f>
+        <v>1</v>
+      </c>
+      <c r="T29" s="20">
+        <f>VLOOKUP($Q29,$B$16:$F$21,T$14,0)</f>
+        <v>0</v>
+      </c>
+      <c r="U29" s="17">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="V29" s="17">
+        <f t="shared" si="9"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="30" spans="2:22" x14ac:dyDescent="0.3">
+      <c r="P30" s="20">
+        <v>5</v>
+      </c>
+      <c r="Q30" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="R30" s="20">
+        <f>VLOOKUP($Q30,$B$16:$F$21,R$14,0)</f>
+        <v>0</v>
+      </c>
+      <c r="S30" s="20">
+        <f>VLOOKUP($Q30,$B$16:$F$21,S$14,0)</f>
+        <v>1</v>
+      </c>
+      <c r="T30" s="20">
+        <f>VLOOKUP($Q30,$B$16:$F$21,T$14,0)</f>
+        <v>1</v>
+      </c>
+      <c r="U30" s="17">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="V30" s="17">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="2:22" x14ac:dyDescent="0.3">
+      <c r="U32" s="20" t="s">
+        <v>44</v>
+      </c>
+      <c r="V32" s="20" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="33" spans="11:22" x14ac:dyDescent="0.3">
+      <c r="P33" s="20" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q33" s="19" t="s">
+        <v>34</v>
+      </c>
+      <c r="R33" s="20" t="s">
+        <v>29</v>
+      </c>
+      <c r="S33" s="20" t="s">
+        <v>30</v>
+      </c>
+      <c r="T33" s="20" t="s">
+        <v>31</v>
+      </c>
+      <c r="U33" s="24" t="s">
+        <v>47</v>
+      </c>
+      <c r="V33" s="24" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="34" spans="11:22" x14ac:dyDescent="0.3">
+      <c r="P34" s="20">
+        <v>0</v>
+      </c>
+      <c r="Q34" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="R34" s="20">
+        <f>VLOOKUP($Q34,$B$16:$F$21,R$14,0)</f>
+        <v>2</v>
+      </c>
+      <c r="S34" s="20">
+        <f>VLOOKUP($Q34,$B$16:$F$21,S$14,0)</f>
+        <v>0</v>
+      </c>
+      <c r="T34" s="20">
+        <f>VLOOKUP($Q34,$B$16:$F$21,T$14,0)</f>
+        <v>1</v>
+      </c>
+      <c r="U34" s="17">
+        <f>MOD((P34+1),5)</f>
+        <v>1</v>
+      </c>
+      <c r="V34" s="17">
+        <f>MOD((3*P34+1),5)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="11:22" x14ac:dyDescent="0.3">
+      <c r="P35" s="20">
+        <v>1</v>
+      </c>
+      <c r="Q35" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="R35" s="20">
+        <f>VLOOKUP($Q35,$B$16:$F$21,R$14,0)</f>
+        <v>5</v>
+      </c>
+      <c r="S35" s="20">
+        <f>VLOOKUP($Q35,$B$16:$F$21,S$14,0)</f>
+        <v>0</v>
+      </c>
+      <c r="T35" s="20">
+        <f>VLOOKUP($Q35,$B$16:$F$21,T$14,0)</f>
+        <v>1</v>
+      </c>
+      <c r="U35" s="17">
+        <f t="shared" ref="U35:U39" si="10">MOD((P35+1),5)</f>
+        <v>2</v>
+      </c>
+      <c r="V35" s="17">
+        <f t="shared" ref="V35:V39" si="11">MOD((3*P35+1),5)</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="36" spans="11:22" x14ac:dyDescent="0.3">
+      <c r="P36" s="20">
+        <v>2</v>
+      </c>
+      <c r="Q36" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="R36" s="20">
+        <f>VLOOKUP($Q36,$B$16:$F$21,R$14,0)</f>
+        <v>1</v>
+      </c>
+      <c r="S36" s="20">
+        <f>VLOOKUP($Q36,$B$16:$F$21,S$14,0)</f>
+        <v>1</v>
+      </c>
+      <c r="T36" s="20">
+        <f>VLOOKUP($Q36,$B$16:$F$21,T$14,0)</f>
+        <v>0</v>
+      </c>
+      <c r="U36" s="17">
+        <f t="shared" si="10"/>
+        <v>3</v>
+      </c>
+      <c r="V36" s="17">
+        <f t="shared" si="11"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="37" spans="11:22" x14ac:dyDescent="0.3">
+      <c r="P37" s="20">
+        <v>3</v>
+      </c>
+      <c r="Q37" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="R37" s="20">
+        <f>VLOOKUP($Q37,$B$16:$F$21,R$14,0)</f>
+        <v>3</v>
+      </c>
+      <c r="S37" s="20">
+        <f>VLOOKUP($Q37,$B$16:$F$21,S$14,0)</f>
+        <v>1</v>
+      </c>
+      <c r="T37" s="20">
+        <f>VLOOKUP($Q37,$B$16:$F$21,T$14,0)</f>
+        <v>1</v>
+      </c>
+      <c r="U37" s="17">
+        <f t="shared" si="10"/>
+        <v>4</v>
+      </c>
+      <c r="V37" s="17">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="11:22" x14ac:dyDescent="0.3">
+      <c r="P38" s="20">
+        <v>4</v>
+      </c>
+      <c r="Q38" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="R38" s="20">
+        <f>VLOOKUP($Q38,$B$16:$F$21,R$14,0)</f>
+        <v>4</v>
+      </c>
+      <c r="S38" s="20">
+        <f>VLOOKUP($Q38,$B$16:$F$21,S$14,0)</f>
+        <v>1</v>
+      </c>
+      <c r="T38" s="20">
+        <f>VLOOKUP($Q38,$B$16:$F$21,T$14,0)</f>
+        <v>0</v>
+      </c>
+      <c r="U38" s="17">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="V38" s="17">
+        <f t="shared" si="11"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="11:22" x14ac:dyDescent="0.3">
+      <c r="K39" s="18"/>
+      <c r="L39" s="29"/>
+      <c r="M39" s="18"/>
+      <c r="N39" s="16"/>
+      <c r="P39" s="20">
+        <v>5</v>
+      </c>
+      <c r="Q39" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="R39" s="20">
+        <f>VLOOKUP($Q39,$B$16:$F$21,R$14,0)</f>
+        <v>0</v>
+      </c>
+      <c r="S39" s="20">
+        <f>VLOOKUP($Q39,$B$16:$F$21,S$14,0)</f>
+        <v>1</v>
+      </c>
+      <c r="T39" s="20">
+        <f>VLOOKUP($Q39,$B$16:$F$21,T$14,0)</f>
+        <v>1</v>
+      </c>
+      <c r="U39" s="17">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="V39" s="17">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="C16:F21">
+    <sortCondition ref="C16"/>
+  </sortState>
+  <mergeCells count="1">
+    <mergeCell ref="C13:F13"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0AB17C50-8519-4B07-B1A2-5BDFE30588A9}">
+  <dimension ref="B2:U40"/>
+  <sheetViews>
+    <sheetView showGridLines="0" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="D26" sqref="D26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="12.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.21875" customWidth="1"/>
+    <col min="15" max="15" width="2.5546875" customWidth="1"/>
+    <col min="16" max="16" width="2.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:21" ht="18" x14ac:dyDescent="0.35">
+      <c r="C2" s="15" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="4" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="C4" s="17"/>
+      <c r="D4" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="E4" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="F4" s="17" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="5" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="C5" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="D5" s="17">
+        <v>1</v>
+      </c>
+      <c r="E5" s="17">
+        <v>1</v>
+      </c>
+      <c r="F5" s="17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="C6" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6" s="17">
+        <v>1</v>
+      </c>
+      <c r="E6" s="17">
+        <v>0</v>
+      </c>
+      <c r="F6" s="17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="C7" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D7" s="17">
+        <v>1</v>
+      </c>
+      <c r="E7" s="17">
+        <v>0</v>
+      </c>
+      <c r="F7" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="C8" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="D8" s="17">
+        <v>1</v>
+      </c>
+      <c r="E8" s="17">
+        <v>0</v>
+      </c>
+      <c r="F8" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="C9" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="D9" s="17">
+        <v>0</v>
+      </c>
+      <c r="E9" s="17">
+        <v>1</v>
+      </c>
+      <c r="F9" s="17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="C10" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="D10" s="17">
+        <v>0</v>
+      </c>
+      <c r="E10" s="17">
+        <v>1</v>
+      </c>
+      <c r="F10" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="C11" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" s="17">
+        <v>0</v>
+      </c>
+      <c r="E11" s="17">
+        <v>1</v>
+      </c>
+      <c r="F11" s="17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="2:21" ht="18" x14ac:dyDescent="0.35">
+      <c r="C13" s="15" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="14" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="B14" s="14"/>
+      <c r="C14" s="28" t="s">
+        <v>41</v>
+      </c>
+      <c r="D14" s="28"/>
+      <c r="E14" s="28"/>
+      <c r="F14" s="28"/>
+      <c r="H14" s="23" t="s">
+        <v>36</v>
+      </c>
+      <c r="I14" s="23"/>
+      <c r="J14" s="23"/>
+      <c r="K14" s="23"/>
+      <c r="L14" s="23"/>
+      <c r="M14" s="23"/>
+      <c r="N14" s="23"/>
+      <c r="O14" s="26"/>
+      <c r="P14" s="26"/>
+      <c r="Q14" s="23" t="s">
+        <v>40</v>
+      </c>
+      <c r="R14" s="23"/>
+      <c r="S14" s="23"/>
+      <c r="T14" s="23"/>
+      <c r="U14" s="26"/>
+    </row>
+    <row r="16" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="B16" s="14"/>
+      <c r="C16" s="17"/>
+      <c r="D16" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="E16" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="F16" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="H16" s="19" t="s">
+        <v>33</v>
+      </c>
+      <c r="I16" s="20" t="s">
+        <v>29</v>
+      </c>
+      <c r="J16" s="20" t="s">
+        <v>30</v>
+      </c>
+      <c r="K16" s="20" t="s">
+        <v>31</v>
+      </c>
+      <c r="L16" s="20" t="s">
+        <v>37</v>
+      </c>
+      <c r="M16" s="20" t="s">
+        <v>38</v>
+      </c>
+      <c r="N16" s="20" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q16" s="17"/>
+      <c r="R16" s="20" t="s">
+        <v>37</v>
+      </c>
+      <c r="S16" s="20" t="s">
+        <v>38</v>
+      </c>
+      <c r="T16" s="20" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="17" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="C17" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="D17" s="17">
+        <v>1</v>
+      </c>
+      <c r="E17" s="17">
+        <v>1</v>
+      </c>
+      <c r="F17" s="17">
+        <v>0</v>
+      </c>
+      <c r="H17" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="I17" s="20">
+        <v>1</v>
+      </c>
+      <c r="J17" s="20">
+        <v>1</v>
+      </c>
+      <c r="K17" s="20">
+        <v>0</v>
+      </c>
+      <c r="L17" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="M17" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="N17" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q17" s="20" t="s">
+        <v>33</v>
+      </c>
+      <c r="R17" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="S17" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="T17" s="20" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="18" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="B18" s="14"/>
+      <c r="C18" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="D18" s="17">
+        <v>1</v>
+      </c>
+      <c r="E18" s="17">
+        <v>0</v>
+      </c>
+      <c r="F18" s="17">
+        <v>0</v>
+      </c>
+      <c r="H18" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="I18" s="20">
+        <v>1</v>
+      </c>
+      <c r="J18" s="20">
+        <v>0</v>
+      </c>
+      <c r="K18" s="20">
+        <v>0</v>
+      </c>
+      <c r="Q18" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="R18" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="S18" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="T18" s="17" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="19" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="C19" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D19" s="17">
+        <v>1</v>
+      </c>
+      <c r="E19" s="17">
+        <v>0</v>
+      </c>
+      <c r="F19" s="17">
+        <v>1</v>
+      </c>
+      <c r="H19" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="I19" s="20">
+        <v>1</v>
+      </c>
+      <c r="J19" s="20">
+        <v>0</v>
+      </c>
+      <c r="K19" s="20">
+        <v>1</v>
+      </c>
+      <c r="Q19" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="R19" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="S19" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="T19" s="17" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="20" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="C20" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="D20" s="17">
+        <v>1</v>
+      </c>
+      <c r="E20" s="17">
+        <v>0</v>
+      </c>
+      <c r="F20" s="17">
+        <v>1</v>
+      </c>
+      <c r="H20" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="I20" s="20">
+        <v>1</v>
+      </c>
+      <c r="J20" s="20">
+        <v>0</v>
+      </c>
+      <c r="K20" s="20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="C21" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="D21" s="17">
+        <v>0</v>
+      </c>
+      <c r="E21" s="17">
+        <v>1</v>
+      </c>
+      <c r="F21" s="17">
+        <v>0</v>
+      </c>
+      <c r="H21" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="I21" s="20">
+        <v>0</v>
+      </c>
+      <c r="J21" s="20">
+        <v>1</v>
+      </c>
+      <c r="K21" s="20">
+        <v>0</v>
+      </c>
+      <c r="Q21" s="27" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="22" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="C22" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="D22" s="17">
+        <v>0</v>
+      </c>
+      <c r="E22" s="17">
+        <v>1</v>
+      </c>
+      <c r="F22" s="17">
+        <v>1</v>
+      </c>
+      <c r="H22" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="I22" s="20">
+        <v>0</v>
+      </c>
+      <c r="J22" s="20">
+        <v>1</v>
+      </c>
+      <c r="K22" s="20">
+        <v>1</v>
+      </c>
+      <c r="Q22" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="R22" s="29" t="s">
+        <v>43</v>
+      </c>
+      <c r="S22" s="18" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="23" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="C23" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="D23" s="17">
+        <v>0</v>
+      </c>
+      <c r="E23" s="17">
+        <v>1</v>
+      </c>
+      <c r="F23" s="17">
+        <v>0</v>
+      </c>
+      <c r="Q23" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="R23" s="29" t="s">
+        <v>43</v>
+      </c>
+      <c r="S23" s="18" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="24" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="Q24" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="R24" s="29" t="s">
+        <v>43</v>
+      </c>
+      <c r="S24" s="18" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="25" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="H25" s="19" t="s">
+        <v>34</v>
+      </c>
+      <c r="I25" s="20" t="s">
+        <v>29</v>
+      </c>
+      <c r="J25" s="20" t="s">
+        <v>30</v>
+      </c>
+      <c r="K25" s="20" t="s">
+        <v>31</v>
+      </c>
+      <c r="L25" s="20" t="s">
+        <v>37</v>
+      </c>
+      <c r="M25" s="20" t="s">
+        <v>38</v>
+      </c>
+      <c r="N25" s="20" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="26" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="H26" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="I26" s="20">
+        <v>0</v>
+      </c>
+      <c r="J26" s="17">
+        <v>1</v>
+      </c>
+      <c r="K26" s="17">
+        <v>1</v>
+      </c>
+      <c r="L26" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="M26" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="N26" s="17" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="27" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="H27" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="I27" s="20">
+        <v>0</v>
+      </c>
+      <c r="J27" s="17">
+        <v>1</v>
+      </c>
+      <c r="K27" s="17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="H28" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="I28" s="20">
+        <v>1</v>
+      </c>
+      <c r="J28" s="17">
+        <v>0</v>
+      </c>
+      <c r="K28" s="17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="H29" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="I29" s="20">
+        <v>1</v>
+      </c>
+      <c r="J29" s="17">
+        <v>0</v>
+      </c>
+      <c r="K29" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="H30" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="I30" s="20">
+        <v>1</v>
+      </c>
+      <c r="J30" s="17">
+        <v>0</v>
+      </c>
+      <c r="K30" s="17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="H31" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="I31" s="20">
+        <v>1</v>
+      </c>
+      <c r="J31" s="17">
+        <v>1</v>
+      </c>
+      <c r="K31" s="17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="8:14" x14ac:dyDescent="0.3">
+      <c r="H34" s="19" t="s">
+        <v>34</v>
+      </c>
+      <c r="I34" s="20" t="s">
+        <v>29</v>
+      </c>
+      <c r="J34" s="20" t="s">
+        <v>30</v>
+      </c>
+      <c r="K34" s="20" t="s">
+        <v>31</v>
+      </c>
+      <c r="L34" s="21" t="s">
+        <v>37</v>
+      </c>
+      <c r="M34" s="21" t="s">
+        <v>38</v>
+      </c>
+      <c r="N34" s="21" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="35" spans="8:14" x14ac:dyDescent="0.3">
+      <c r="H35" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="I35" s="17">
+        <v>0</v>
+      </c>
+      <c r="J35" s="17">
+        <v>1</v>
+      </c>
+      <c r="K35" s="17">
+        <v>0</v>
+      </c>
+      <c r="L35" s="22" t="s">
+        <v>25</v>
+      </c>
+      <c r="M35" s="22" t="s">
+        <v>27</v>
+      </c>
+      <c r="N35" s="22" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="36" spans="8:14" x14ac:dyDescent="0.3">
+      <c r="H36" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="I36" s="17">
+        <v>0</v>
+      </c>
+      <c r="J36" s="17">
+        <v>1</v>
+      </c>
+      <c r="K36" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="8:14" x14ac:dyDescent="0.3">
+      <c r="H37" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="I37" s="17">
+        <v>1</v>
+      </c>
+      <c r="J37" s="17">
+        <v>0</v>
+      </c>
+      <c r="K37" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="8:14" x14ac:dyDescent="0.3">
+      <c r="H38" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="I38" s="17">
+        <v>1</v>
+      </c>
+      <c r="J38" s="17">
+        <v>0</v>
+      </c>
+      <c r="K38" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="8:14" x14ac:dyDescent="0.3">
+      <c r="H39" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="I39" s="17">
+        <v>1</v>
+      </c>
+      <c r="J39" s="17">
+        <v>0</v>
+      </c>
+      <c r="K39" s="17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="8:14" x14ac:dyDescent="0.3">
+      <c r="H40" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="I40" s="17">
+        <v>1</v>
+      </c>
+      <c r="J40" s="17">
+        <v>1</v>
+      </c>
+      <c r="K40" s="17">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="H14:N14"/>
+    <mergeCell ref="Q14:T14"/>
+    <mergeCell ref="C14:F14"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/week_4_DataIntegration/Excel_support.xlsx
+++ b/week_4_DataIntegration/Excel_support.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hansf\Documents\GitHub\ADS\week_4_DataIntegration\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65385147-C489-45B1-AFBC-F99A5D11F55F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8015A1E-BF96-4D79-B3AB-BE9F7FBBB023}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{851A08EE-D487-4A13-AE74-306108EDED72}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{851A08EE-D487-4A13-AE74-306108EDED72}"/>
   </bookViews>
   <sheets>
     <sheet name="Edit_Distance" sheetId="1" r:id="rId1"/>
-    <sheet name="Matrix_2" sheetId="3" r:id="rId2"/>
-    <sheet name="Matrix" sheetId="2" r:id="rId3"/>
+    <sheet name="S_Curve" sheetId="4" r:id="rId2"/>
+    <sheet name="Matrix" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="439" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="349" uniqueCount="63">
   <si>
     <t>Fract</t>
   </si>
@@ -143,21 +143,6 @@
     <t>P2</t>
   </si>
   <si>
-    <t>P3</t>
-  </si>
-  <si>
-    <t>Permutation Matrix</t>
-  </si>
-  <si>
-    <t>H(d1)</t>
-  </si>
-  <si>
-    <t>H(d2)</t>
-  </si>
-  <si>
-    <t>H(d3)</t>
-  </si>
-  <si>
     <t>Signature Matrix</t>
   </si>
   <si>
@@ -176,15 +161,6 @@
     <t>H(2)</t>
   </si>
   <si>
-    <t>Permutation Matrix/MinHash</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> x + 1 mod 5</t>
-  </si>
-  <si>
-    <t>3x+1 mod 5</t>
-  </si>
-  <si>
     <t>Row</t>
   </si>
   <si>
@@ -193,15 +169,73 @@
   <si>
     <t>Row_shingles</t>
   </si>
+  <si>
+    <t>Harry Potter</t>
+  </si>
+  <si>
+    <t>Potter Harry</t>
+  </si>
+  <si>
+    <t>1 - (1-sR))B</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>Formula</t>
+  </si>
+  <si>
+    <t>Question 3.3.3 (From Book)</t>
+  </si>
+  <si>
+    <t>2x + 1 mod 6</t>
+  </si>
+  <si>
+    <t>3x + 2 mod 6</t>
+  </si>
+  <si>
+    <t>5x + 2 mod 6</t>
+  </si>
+  <si>
+    <t>S3</t>
+  </si>
+  <si>
+    <t>S4</t>
+  </si>
+  <si>
+    <t>Col/Col</t>
+  </si>
+  <si>
+    <t>Sig/Sig</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1 - 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1 - 3</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1 - 4</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2 - 3</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2 - 4</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 3 - 4</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.000"/>
+    <numFmt numFmtId="168" formatCode="0.0000"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -226,6 +260,14 @@
     <font>
       <b/>
       <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -282,7 +324,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -306,9 +348,7 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
+      <left/>
       <right style="thin">
         <color indexed="64"/>
       </right>
@@ -316,11 +356,37 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -358,14 +424,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -388,6 +446,35 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -408,6 +495,2895 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.13358551261398249"/>
+          <c:y val="0.17857477730895457"/>
+          <c:w val="0.81958542228110587"/>
+          <c:h val="0.71735458173213584"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>S_Curve!$E$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Formula</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>S_Curve!$B$5:$B$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>S_Curve!$E$5:$E$14</c:f>
+              <c:numCache>
+                <c:formatCode>0.0000</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>9.9551197902516542E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7.7180588042736975E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.23944889319887064</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.48387073176773232</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.73692442383617163</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.91226747539917652</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.98501510529565495</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.99923405388089359</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.99999786354913711</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-DBB8-4FB6-824A-1A31DC97D494}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="448926847"/>
+        <c:axId val="449579343"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="448926847"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="449579343"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="449579343"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.0000" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="448926847"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.13358551261398249"/>
+          <c:y val="0.17857477730895457"/>
+          <c:w val="0.81958542228110587"/>
+          <c:h val="0.71735458173213584"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>S_Curve!$E$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Formula</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>S_Curve!$B$24:$B$33</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>S_Curve!$E$24:$E$33</c:f>
+              <c:numCache>
+                <c:formatCode>0.0000</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>1.9999810001669616E-5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.2792220587620751E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.4479466504172422E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7.8809323110562213E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.27018714400947597</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.61541463603126756</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.91818599658467392</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.99771212515468055</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.99999973981294654</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-4F57-45DC-8325-831BFE6270B1}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="448926847"/>
+        <c:axId val="449579343"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="448926847"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="449579343"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="449579343"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.0000" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="448926847"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.13358551261398249"/>
+          <c:y val="0.17857477730895457"/>
+          <c:w val="0.81958542228110587"/>
+          <c:h val="0.71735458173213584"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>S_Curve!$E$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Formula</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>S_Curve!$B$43:$B$52</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>S_Curve!$E$43:$E$52</c:f>
+              <c:numCache>
+                <c:formatCode>0.0000</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>4.9987751959512661E-4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.5875199845019949E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.11453988231042289</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.40228395220880431</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.79555063043236496</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.98253382770686093</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.99989899583615571</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.99999999760777769</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-856F-4EB6-B488-75F7E425A166}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="448926847"/>
+        <c:axId val="449579343"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="448926847"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="449579343"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="449579343"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.0000" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="448926847"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>3810</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>289560</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C519939C-CA46-4B71-8193-AF151396CF7B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>3810</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>289560</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Chart 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{01EB2E1C-0991-4E89-AC55-D745D887691D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>3810</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>289560</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="Chart 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{930B1BDF-76D1-4624-A9C2-1AF0FC1E6207}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -709,13 +3685,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E768CFA-033A-47C7-9B97-372C59FFF6D8}">
   <dimension ref="C2:AI50"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A10" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="L39" sqref="L39"/>
+    <sheetView showGridLines="0" topLeftCell="H1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="AB8" sqref="AB8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="2" spans="3:24" x14ac:dyDescent="0.3">
+    <row r="2" spans="3:30" x14ac:dyDescent="0.3">
       <c r="L2" t="s">
         <v>21</v>
       </c>
@@ -728,8 +3704,16 @@
       <c r="U2" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="4" spans="3:24" x14ac:dyDescent="0.3">
+      <c r="AA2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="3" spans="3:30" x14ac:dyDescent="0.3">
+      <c r="AA3" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="4" spans="3:30" x14ac:dyDescent="0.3">
       <c r="C4" t="s">
         <v>0</v>
       </c>
@@ -739,14 +3723,26 @@
       <c r="E4" t="s">
         <v>2</v>
       </c>
+      <c r="N4" s="7" t="s">
+        <v>10</v>
+      </c>
       <c r="O4" s="3">
         <v>3</v>
       </c>
+      <c r="V4" s="7" t="s">
+        <v>10</v>
+      </c>
       <c r="W4" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="3:24" x14ac:dyDescent="0.3">
+      <c r="AB4" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="AC4" s="3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="3:30" x14ac:dyDescent="0.3">
       <c r="C5" s="1">
         <f>1/3</f>
         <v>0.33333333333333331</v>
@@ -768,7 +3764,7 @@
         <v>0.76666666666666661</v>
       </c>
     </row>
-    <row r="6" spans="3:24" x14ac:dyDescent="0.3">
+    <row r="6" spans="3:30" x14ac:dyDescent="0.3">
       <c r="L6" t="s">
         <v>4</v>
       </c>
@@ -793,8 +3789,20 @@
       <c r="W6" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="7" spans="3:24" x14ac:dyDescent="0.3">
+      <c r="Z6" t="s">
+        <v>4</v>
+      </c>
+      <c r="AA6" t="s">
+        <v>1</v>
+      </c>
+      <c r="AB6" t="s">
+        <v>2</v>
+      </c>
+      <c r="AC6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="3:30" x14ac:dyDescent="0.3">
       <c r="D7">
         <v>4</v>
       </c>
@@ -817,7 +3825,7 @@
         <v>4</v>
       </c>
       <c r="O7">
-        <f>4-(O4/2)</f>
+        <f>M7-(O4/2)</f>
         <v>2.5</v>
       </c>
       <c r="P7" s="1">
@@ -842,8 +3850,26 @@
         <f>((U7/U8)+(V7/V8)+(W7/W8))*T7</f>
         <v>0.90476190476190477</v>
       </c>
-    </row>
-    <row r="8" spans="3:24" x14ac:dyDescent="0.3">
+      <c r="Z7">
+        <f>1/3</f>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="AA7">
+        <v>10</v>
+      </c>
+      <c r="AB7">
+        <v>10</v>
+      </c>
+      <c r="AC7">
+        <f>AA7-(AC4/2)</f>
+        <v>5</v>
+      </c>
+      <c r="AD7" s="2">
+        <f>((AA7/AA8)+(AB7/AB8)+(AC7/AC8))*Z7</f>
+        <v>0.52729044834307992</v>
+      </c>
+    </row>
+    <row r="8" spans="3:30" x14ac:dyDescent="0.3">
       <c r="G8">
         <f>G7/5</f>
         <v>0.5</v>
@@ -866,20 +3892,29 @@
       <c r="W8">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="3:24" x14ac:dyDescent="0.3">
+      <c r="AA8">
+        <v>19</v>
+      </c>
+      <c r="AB8">
+        <v>18</v>
+      </c>
+      <c r="AC8">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="3:30" x14ac:dyDescent="0.3">
       <c r="D10">
         <f>(D5+E5+G8)*C5</f>
         <v>0.93333333333333324</v>
       </c>
     </row>
-    <row r="13" spans="3:24" x14ac:dyDescent="0.3">
+    <row r="13" spans="3:30" x14ac:dyDescent="0.3">
       <c r="C13" t="e">
         <f>#REF!*B13</f>
         <v>#REF!</v>
       </c>
     </row>
-    <row r="14" spans="3:24" x14ac:dyDescent="0.3">
+    <row r="14" spans="3:30" x14ac:dyDescent="0.3">
       <c r="D14">
         <v>1</v>
       </c>
@@ -890,7 +3925,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="3:24" x14ac:dyDescent="0.3">
+    <row r="15" spans="3:30" x14ac:dyDescent="0.3">
       <c r="C15">
         <f>1/3</f>
         <v>0.33333333333333331</v>
@@ -1751,28 +4786,552 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5EC09DCD-5EB5-40DA-9B4A-478081DDE68A}">
+  <dimension ref="B2:E52"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="M55" sqref="B2:M55"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="5" max="5" width="9.5546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B2" s="32" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="4" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" t="s">
+        <v>47</v>
+      </c>
+      <c r="D4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E4" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="5" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B5" s="31">
+        <v>0.1</v>
+      </c>
+      <c r="C5" s="31">
+        <v>10</v>
+      </c>
+      <c r="D5" s="31">
+        <v>3</v>
+      </c>
+      <c r="E5" s="30">
+        <f>1-(1-B5^D5)^C5</f>
+        <v>9.9551197902516542E-3</v>
+      </c>
+    </row>
+    <row r="6" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B6" s="31">
+        <v>0.2</v>
+      </c>
+      <c r="C6" s="31">
+        <v>10</v>
+      </c>
+      <c r="D6" s="31">
+        <v>3</v>
+      </c>
+      <c r="E6" s="30">
+        <f t="shared" ref="E6:E14" si="0">1-(1-B6^D6)^C6</f>
+        <v>7.7180588042736975E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B7" s="31">
+        <v>0.3</v>
+      </c>
+      <c r="C7" s="31">
+        <v>10</v>
+      </c>
+      <c r="D7" s="31">
+        <v>3</v>
+      </c>
+      <c r="E7" s="30">
+        <f t="shared" si="0"/>
+        <v>0.23944889319887064</v>
+      </c>
+    </row>
+    <row r="8" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B8" s="31">
+        <v>0.4</v>
+      </c>
+      <c r="C8" s="31">
+        <v>10</v>
+      </c>
+      <c r="D8" s="31">
+        <v>3</v>
+      </c>
+      <c r="E8" s="30">
+        <f t="shared" si="0"/>
+        <v>0.48387073176773232</v>
+      </c>
+    </row>
+    <row r="9" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B9" s="31">
+        <v>0.5</v>
+      </c>
+      <c r="C9" s="31">
+        <v>10</v>
+      </c>
+      <c r="D9" s="31">
+        <v>3</v>
+      </c>
+      <c r="E9" s="30">
+        <f t="shared" si="0"/>
+        <v>0.73692442383617163</v>
+      </c>
+    </row>
+    <row r="10" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B10" s="31">
+        <v>0.6</v>
+      </c>
+      <c r="C10" s="31">
+        <v>10</v>
+      </c>
+      <c r="D10" s="31">
+        <v>3</v>
+      </c>
+      <c r="E10" s="30">
+        <f t="shared" si="0"/>
+        <v>0.91226747539917652</v>
+      </c>
+    </row>
+    <row r="11" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B11" s="31">
+        <v>0.7</v>
+      </c>
+      <c r="C11" s="31">
+        <v>10</v>
+      </c>
+      <c r="D11" s="31">
+        <v>3</v>
+      </c>
+      <c r="E11" s="30">
+        <f t="shared" si="0"/>
+        <v>0.98501510529565495</v>
+      </c>
+    </row>
+    <row r="12" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B12" s="31">
+        <v>0.8</v>
+      </c>
+      <c r="C12" s="31">
+        <v>10</v>
+      </c>
+      <c r="D12" s="31">
+        <v>3</v>
+      </c>
+      <c r="E12" s="30">
+        <f t="shared" si="0"/>
+        <v>0.99923405388089359</v>
+      </c>
+    </row>
+    <row r="13" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B13" s="31">
+        <v>0.9</v>
+      </c>
+      <c r="C13" s="31">
+        <v>10</v>
+      </c>
+      <c r="D13" s="31">
+        <v>3</v>
+      </c>
+      <c r="E13" s="30">
+        <f t="shared" si="0"/>
+        <v>0.99999786354913711</v>
+      </c>
+    </row>
+    <row r="14" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B14" s="31">
+        <v>1</v>
+      </c>
+      <c r="C14" s="31">
+        <v>10</v>
+      </c>
+      <c r="D14" s="31">
+        <v>3</v>
+      </c>
+      <c r="E14" s="30">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="2:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B21" s="32" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="23" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B23" t="s">
+        <v>15</v>
+      </c>
+      <c r="C23" t="s">
+        <v>47</v>
+      </c>
+      <c r="D23" t="s">
+        <v>7</v>
+      </c>
+      <c r="E23" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="24" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B24" s="31">
+        <v>0.1</v>
+      </c>
+      <c r="C24" s="31">
+        <v>20</v>
+      </c>
+      <c r="D24" s="31">
+        <v>6</v>
+      </c>
+      <c r="E24" s="30">
+        <f>1-(1-B24^D24)^C24</f>
+        <v>1.9999810001669616E-5</v>
+      </c>
+    </row>
+    <row r="25" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B25" s="31">
+        <v>0.2</v>
+      </c>
+      <c r="C25" s="31">
+        <v>20</v>
+      </c>
+      <c r="D25" s="31">
+        <v>6</v>
+      </c>
+      <c r="E25" s="30">
+        <f t="shared" ref="E25:E33" si="1">1-(1-B25^D25)^C25</f>
+        <v>1.2792220587620751E-3</v>
+      </c>
+    </row>
+    <row r="26" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B26" s="31">
+        <v>0.3</v>
+      </c>
+      <c r="C26" s="31">
+        <v>20</v>
+      </c>
+      <c r="D26" s="31">
+        <v>6</v>
+      </c>
+      <c r="E26" s="30">
+        <f t="shared" si="1"/>
+        <v>1.4479466504172422E-2</v>
+      </c>
+    </row>
+    <row r="27" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B27" s="31">
+        <v>0.4</v>
+      </c>
+      <c r="C27" s="31">
+        <v>20</v>
+      </c>
+      <c r="D27" s="31">
+        <v>6</v>
+      </c>
+      <c r="E27" s="30">
+        <f t="shared" si="1"/>
+        <v>7.8809323110562213E-2</v>
+      </c>
+    </row>
+    <row r="28" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B28" s="31">
+        <v>0.5</v>
+      </c>
+      <c r="C28" s="31">
+        <v>20</v>
+      </c>
+      <c r="D28" s="31">
+        <v>6</v>
+      </c>
+      <c r="E28" s="30">
+        <f t="shared" si="1"/>
+        <v>0.27018714400947597</v>
+      </c>
+    </row>
+    <row r="29" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B29" s="31">
+        <v>0.6</v>
+      </c>
+      <c r="C29" s="31">
+        <v>20</v>
+      </c>
+      <c r="D29" s="31">
+        <v>6</v>
+      </c>
+      <c r="E29" s="30">
+        <f t="shared" si="1"/>
+        <v>0.61541463603126756</v>
+      </c>
+    </row>
+    <row r="30" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B30" s="31">
+        <v>0.7</v>
+      </c>
+      <c r="C30" s="31">
+        <v>20</v>
+      </c>
+      <c r="D30" s="31">
+        <v>6</v>
+      </c>
+      <c r="E30" s="30">
+        <f t="shared" si="1"/>
+        <v>0.91818599658467392</v>
+      </c>
+    </row>
+    <row r="31" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B31" s="31">
+        <v>0.8</v>
+      </c>
+      <c r="C31" s="31">
+        <v>20</v>
+      </c>
+      <c r="D31" s="31">
+        <v>6</v>
+      </c>
+      <c r="E31" s="30">
+        <f t="shared" si="1"/>
+        <v>0.99771212515468055</v>
+      </c>
+    </row>
+    <row r="32" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B32" s="31">
+        <v>0.9</v>
+      </c>
+      <c r="C32" s="31">
+        <v>20</v>
+      </c>
+      <c r="D32" s="31">
+        <v>6</v>
+      </c>
+      <c r="E32" s="30">
+        <f t="shared" si="1"/>
+        <v>0.99999973981294654</v>
+      </c>
+    </row>
+    <row r="33" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B33" s="31">
+        <v>1</v>
+      </c>
+      <c r="C33" s="31">
+        <v>20</v>
+      </c>
+      <c r="D33" s="31">
+        <v>6</v>
+      </c>
+      <c r="E33" s="30">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="2:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B40" s="32" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="42" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B42" t="s">
+        <v>15</v>
+      </c>
+      <c r="C42" t="s">
+        <v>47</v>
+      </c>
+      <c r="D42" t="s">
+        <v>7</v>
+      </c>
+      <c r="E42" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="43" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B43" s="31">
+        <v>0.1</v>
+      </c>
+      <c r="C43" s="31">
+        <v>50</v>
+      </c>
+      <c r="D43" s="31">
+        <v>5</v>
+      </c>
+      <c r="E43" s="30">
+        <f>1-(1-B43^D43)^C43</f>
+        <v>4.9987751959512661E-4</v>
+      </c>
+    </row>
+    <row r="44" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B44" s="31">
+        <v>0.2</v>
+      </c>
+      <c r="C44" s="31">
+        <v>50</v>
+      </c>
+      <c r="D44" s="31">
+        <v>5</v>
+      </c>
+      <c r="E44" s="30">
+        <f t="shared" ref="E44:E52" si="2">1-(1-B44^D44)^C44</f>
+        <v>1.5875199845019949E-2</v>
+      </c>
+    </row>
+    <row r="45" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B45" s="31">
+        <v>0.3</v>
+      </c>
+      <c r="C45" s="31">
+        <v>50</v>
+      </c>
+      <c r="D45" s="31">
+        <v>5</v>
+      </c>
+      <c r="E45" s="30">
+        <f t="shared" si="2"/>
+        <v>0.11453988231042289</v>
+      </c>
+    </row>
+    <row r="46" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B46" s="31">
+        <v>0.4</v>
+      </c>
+      <c r="C46" s="31">
+        <v>50</v>
+      </c>
+      <c r="D46" s="31">
+        <v>5</v>
+      </c>
+      <c r="E46" s="30">
+        <f t="shared" si="2"/>
+        <v>0.40228395220880431</v>
+      </c>
+    </row>
+    <row r="47" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B47" s="31">
+        <v>0.5</v>
+      </c>
+      <c r="C47" s="31">
+        <v>50</v>
+      </c>
+      <c r="D47" s="31">
+        <v>5</v>
+      </c>
+      <c r="E47" s="30">
+        <f t="shared" si="2"/>
+        <v>0.79555063043236496</v>
+      </c>
+    </row>
+    <row r="48" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B48" s="31">
+        <v>0.6</v>
+      </c>
+      <c r="C48" s="31">
+        <v>50</v>
+      </c>
+      <c r="D48" s="31">
+        <v>5</v>
+      </c>
+      <c r="E48" s="30">
+        <f t="shared" si="2"/>
+        <v>0.98253382770686093</v>
+      </c>
+    </row>
+    <row r="49" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B49" s="31">
+        <v>0.7</v>
+      </c>
+      <c r="C49" s="31">
+        <v>50</v>
+      </c>
+      <c r="D49" s="31">
+        <v>5</v>
+      </c>
+      <c r="E49" s="30">
+        <f t="shared" si="2"/>
+        <v>0.99989899583615571</v>
+      </c>
+    </row>
+    <row r="50" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B50" s="31">
+        <v>0.8</v>
+      </c>
+      <c r="C50" s="31">
+        <v>50</v>
+      </c>
+      <c r="D50" s="31">
+        <v>5</v>
+      </c>
+      <c r="E50" s="30">
+        <f t="shared" si="2"/>
+        <v>0.99999999760777769</v>
+      </c>
+    </row>
+    <row r="51" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B51" s="31">
+        <v>0.9</v>
+      </c>
+      <c r="C51" s="31">
+        <v>50</v>
+      </c>
+      <c r="D51" s="31">
+        <v>5</v>
+      </c>
+      <c r="E51" s="30">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B52" s="31">
+        <v>1</v>
+      </c>
+      <c r="C52" s="31">
+        <v>50</v>
+      </c>
+      <c r="D52" s="31">
+        <v>5</v>
+      </c>
+      <c r="E52" s="30">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B6CB495E-F0D0-4415-BE5B-C7E426A19E0B}">
-  <dimension ref="B2:AF39"/>
+  <dimension ref="B2:P53"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12:N29"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="F47" sqref="F47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="12.5546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="13.21875" customWidth="1"/>
-    <col min="16" max="16" width="14.44140625" customWidth="1"/>
-    <col min="21" max="21" width="14.33203125" customWidth="1"/>
-    <col min="22" max="22" width="11.77734375" customWidth="1"/>
+    <col min="7" max="10" width="11.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:23" ht="18" x14ac:dyDescent="0.35">
+    <row r="2" spans="2:16" ht="18" x14ac:dyDescent="0.35">
       <c r="C2" s="15" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="4" spans="2:23" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:16" x14ac:dyDescent="0.3">
       <c r="C4" s="17"/>
       <c r="D4" s="17" t="s">
         <v>29</v>
@@ -1783,12 +5342,12 @@
       <c r="F4" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="G4" s="30"/>
-      <c r="H4" s="30"/>
-      <c r="I4" s="30"/>
-      <c r="J4" s="30"/>
-    </row>
-    <row r="5" spans="2:23" x14ac:dyDescent="0.3">
+      <c r="G4" s="26"/>
+      <c r="H4" s="26"/>
+      <c r="I4" s="26"/>
+      <c r="J4" s="26"/>
+    </row>
+    <row r="5" spans="2:16" x14ac:dyDescent="0.3">
       <c r="C5" s="17" t="s">
         <v>23</v>
       </c>
@@ -1801,12 +5360,12 @@
       <c r="F5" s="17">
         <v>0</v>
       </c>
-      <c r="G5" s="30"/>
-      <c r="H5" s="30"/>
-      <c r="I5" s="30"/>
-      <c r="J5" s="30"/>
-    </row>
-    <row r="6" spans="2:23" x14ac:dyDescent="0.3">
+      <c r="G5" s="26"/>
+      <c r="H5" s="26"/>
+      <c r="I5" s="26"/>
+      <c r="J5" s="26"/>
+    </row>
+    <row r="6" spans="2:16" x14ac:dyDescent="0.3">
       <c r="C6" s="17" t="s">
         <v>24</v>
       </c>
@@ -1819,12 +5378,12 @@
       <c r="F6" s="17">
         <v>0</v>
       </c>
-      <c r="G6" s="30"/>
-      <c r="H6" s="30"/>
-      <c r="I6" s="30"/>
-      <c r="J6" s="30"/>
-    </row>
-    <row r="7" spans="2:23" x14ac:dyDescent="0.3">
+      <c r="G6" s="26"/>
+      <c r="H6" s="26"/>
+      <c r="I6" s="26"/>
+      <c r="J6" s="26"/>
+    </row>
+    <row r="7" spans="2:16" x14ac:dyDescent="0.3">
       <c r="C7" s="17" t="s">
         <v>25</v>
       </c>
@@ -1837,12 +5396,12 @@
       <c r="F7" s="17">
         <v>1</v>
       </c>
-      <c r="G7" s="30"/>
-      <c r="H7" s="30"/>
-      <c r="I7" s="30"/>
-      <c r="J7" s="30"/>
-    </row>
-    <row r="8" spans="2:23" x14ac:dyDescent="0.3">
+      <c r="G7" s="26"/>
+      <c r="H7" s="26"/>
+      <c r="I7" s="26"/>
+      <c r="J7" s="26"/>
+    </row>
+    <row r="8" spans="2:16" x14ac:dyDescent="0.3">
       <c r="C8" s="17" t="s">
         <v>26</v>
       </c>
@@ -1855,12 +5414,12 @@
       <c r="F8" s="17">
         <v>1</v>
       </c>
-      <c r="G8" s="30"/>
-      <c r="H8" s="30"/>
-      <c r="I8" s="30"/>
-      <c r="J8" s="30"/>
-    </row>
-    <row r="9" spans="2:23" x14ac:dyDescent="0.3">
+      <c r="G8" s="26"/>
+      <c r="H8" s="26"/>
+      <c r="I8" s="26"/>
+      <c r="J8" s="26"/>
+    </row>
+    <row r="9" spans="2:16" x14ac:dyDescent="0.3">
       <c r="C9" s="17" t="s">
         <v>27</v>
       </c>
@@ -1873,12 +5432,12 @@
       <c r="F9" s="17">
         <v>0</v>
       </c>
-      <c r="G9" s="30"/>
-      <c r="H9" s="30"/>
-      <c r="I9" s="30"/>
-      <c r="J9" s="30"/>
-    </row>
-    <row r="10" spans="2:23" x14ac:dyDescent="0.3">
+      <c r="G9" s="26"/>
+      <c r="H9" s="26"/>
+      <c r="I9" s="26"/>
+      <c r="J9" s="26"/>
+    </row>
+    <row r="10" spans="2:16" x14ac:dyDescent="0.3">
       <c r="C10" s="17" t="s">
         <v>28</v>
       </c>
@@ -1891,78 +5450,49 @@
       <c r="F10" s="17">
         <v>1</v>
       </c>
-      <c r="G10" s="30"/>
-      <c r="H10" s="30"/>
-      <c r="I10" s="30"/>
-      <c r="J10" s="30"/>
-    </row>
-    <row r="11" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="U11">
-        <f>MOD(3,2)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="2:23" ht="18" x14ac:dyDescent="0.35">
+      <c r="G10" s="26"/>
+      <c r="H10" s="26"/>
+      <c r="I10" s="26"/>
+      <c r="J10" s="26"/>
+    </row>
+    <row r="12" spans="2:16" ht="18" x14ac:dyDescent="0.35">
       <c r="C12" s="15" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="13" spans="2:23" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B13" s="14"/>
-      <c r="C13" s="28" t="s">
+      <c r="C13" s="29" t="s">
+        <v>36</v>
+      </c>
+      <c r="D13" s="29"/>
+      <c r="E13" s="29"/>
+      <c r="F13" s="29"/>
+      <c r="G13" s="23"/>
+      <c r="H13" s="23"/>
+      <c r="I13" s="23"/>
+      <c r="J13" s="23"/>
+      <c r="K13" s="21"/>
+      <c r="L13" s="21"/>
+      <c r="M13" s="21"/>
+      <c r="N13" s="21"/>
+      <c r="O13" s="22"/>
+      <c r="P13" s="21"/>
+    </row>
+    <row r="14" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="K14" s="21" t="s">
+        <v>35</v>
+      </c>
+      <c r="L14" s="21"/>
+      <c r="M14" s="21"/>
+      <c r="N14" s="21"/>
+    </row>
+    <row r="15" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B15" s="17" t="s">
+        <v>43</v>
+      </c>
+      <c r="C15" s="20" t="s">
         <v>41</v>
-      </c>
-      <c r="D13" s="28"/>
-      <c r="E13" s="28"/>
-      <c r="F13" s="28"/>
-      <c r="G13" s="27"/>
-      <c r="H13" s="27"/>
-      <c r="I13" s="27"/>
-      <c r="J13" s="27"/>
-      <c r="K13" s="25"/>
-      <c r="L13" s="25"/>
-      <c r="M13" s="25"/>
-      <c r="N13" s="25"/>
-      <c r="O13" s="26"/>
-      <c r="Q13" s="25" t="s">
-        <v>46</v>
-      </c>
-      <c r="R13" s="25"/>
-      <c r="S13" s="25"/>
-      <c r="T13" s="25"/>
-      <c r="U13" s="25"/>
-      <c r="V13" s="25"/>
-      <c r="W13" s="25"/>
-    </row>
-    <row r="14" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="K14" s="25" t="s">
-        <v>40</v>
-      </c>
-      <c r="L14" s="25"/>
-      <c r="M14" s="25"/>
-      <c r="N14" s="25"/>
-      <c r="R14">
-        <v>2</v>
-      </c>
-      <c r="S14">
-        <v>3</v>
-      </c>
-      <c r="T14">
-        <v>4</v>
-      </c>
-      <c r="U14" s="20" t="s">
-        <v>44</v>
-      </c>
-      <c r="V14" s="20" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="15" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B15" s="17" t="s">
-        <v>51</v>
-      </c>
-      <c r="C15" s="20" t="s">
-        <v>49</v>
       </c>
       <c r="D15" s="17" t="s">
         <v>29</v>
@@ -1974,15 +5504,15 @@
         <v>31</v>
       </c>
       <c r="G15" s="17" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="H15" s="17" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="I15" s="17" t="s">
-        <v>50</v>
-      </c>
-      <c r="J15" s="30"/>
+        <v>42</v>
+      </c>
+      <c r="J15" s="26"/>
       <c r="K15" s="17"/>
       <c r="L15" s="20" t="s">
         <v>29</v>
@@ -1993,59 +5523,38 @@
       <c r="N15" s="20" t="s">
         <v>31</v>
       </c>
-      <c r="P15" s="20" t="s">
-        <v>49</v>
-      </c>
-      <c r="Q15" s="19" t="s">
-        <v>33</v>
-      </c>
-      <c r="R15" s="20" t="s">
-        <v>29</v>
-      </c>
-      <c r="S15" s="20" t="s">
-        <v>30</v>
-      </c>
-      <c r="T15" s="20" t="s">
-        <v>31</v>
-      </c>
-      <c r="U15" s="24" t="s">
-        <v>47</v>
-      </c>
-      <c r="V15" s="24" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="16" spans="2:23" x14ac:dyDescent="0.3">
+    </row>
+    <row r="16" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B16" s="17" t="s">
         <v>23</v>
       </c>
       <c r="C16" s="20">
         <v>0</v>
       </c>
-      <c r="D16" s="31">
-        <v>1</v>
-      </c>
-      <c r="E16" s="31">
-        <v>1</v>
-      </c>
-      <c r="F16" s="31">
+      <c r="D16" s="27">
+        <v>1</v>
+      </c>
+      <c r="E16" s="27">
+        <v>1</v>
+      </c>
+      <c r="F16" s="27">
         <v>0</v>
       </c>
-      <c r="G16" s="32">
+      <c r="G16" s="28">
         <f>VLOOKUP(G24,$B$16:$C$21,2)+1</f>
         <v>1</v>
       </c>
-      <c r="H16" s="32">
+      <c r="H16" s="28">
         <f>VLOOKUP(H24,$B$16:$C$21,2)+1</f>
         <v>6</v>
       </c>
-      <c r="I16" s="32">
+      <c r="I16" s="28">
         <f>VLOOKUP(I24,$B$16:$C$21,2)+1</f>
         <v>3</v>
       </c>
-      <c r="J16" s="30"/>
+      <c r="J16" s="26"/>
       <c r="K16" s="20" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="L16" s="20">
         <v>1</v>
@@ -2056,64 +5565,38 @@
       <c r="N16" s="20">
         <v>4</v>
       </c>
-      <c r="P16" s="20">
-        <v>0</v>
-      </c>
-      <c r="Q16" s="17" t="s">
-        <v>23</v>
-      </c>
-      <c r="R16" s="20">
-        <f>VLOOKUP($Q16,$B$16:$F$21,R$14,0)</f>
-        <v>0</v>
-      </c>
-      <c r="S16" s="20">
-        <f>VLOOKUP($Q16,$B$16:$F$21,S$14,0)</f>
-        <v>1</v>
-      </c>
-      <c r="T16" s="20">
-        <f>VLOOKUP($Q16,$B$16:$F$21,T$14,0)</f>
-        <v>1</v>
-      </c>
-      <c r="U16" s="17">
-        <f>MOD((P16+1),5)</f>
-        <v>1</v>
-      </c>
-      <c r="V16" s="17">
-        <f>MOD((3*P16+1),5)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="2:22" x14ac:dyDescent="0.3">
+    </row>
+    <row r="17" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B17" s="17" t="s">
         <v>25</v>
       </c>
       <c r="C17" s="20">
         <v>1</v>
       </c>
-      <c r="D17" s="31">
-        <v>1</v>
-      </c>
-      <c r="E17" s="31">
+      <c r="D17" s="27">
+        <v>1</v>
+      </c>
+      <c r="E17" s="27">
         <v>0</v>
       </c>
-      <c r="F17" s="31">
-        <v>1</v>
-      </c>
-      <c r="G17" s="32">
+      <c r="F17" s="27">
+        <v>1</v>
+      </c>
+      <c r="G17" s="28">
         <f t="shared" ref="G17:H21" si="0">VLOOKUP(G25,$B$16:$C$21,2)+1</f>
         <v>5</v>
       </c>
-      <c r="H17" s="32">
+      <c r="H17" s="28">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="I17" s="32">
+      <c r="I17" s="28">
         <f t="shared" ref="I17" si="1">VLOOKUP(I25,$B$16:$C$21,2)+1</f>
         <v>6</v>
       </c>
-      <c r="J17" s="30"/>
+      <c r="J17" s="26"/>
       <c r="K17" s="20" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="L17" s="17">
         <v>2</v>
@@ -2124,64 +5607,38 @@
       <c r="N17" s="17">
         <v>1</v>
       </c>
-      <c r="P17" s="20">
-        <v>1</v>
-      </c>
-      <c r="Q17" s="17" t="s">
-        <v>24</v>
-      </c>
-      <c r="R17" s="20">
-        <f>VLOOKUP($Q17,$B$16:$F$21,R$14,0)</f>
-        <v>4</v>
-      </c>
-      <c r="S17" s="20">
-        <f>VLOOKUP($Q17,$B$16:$F$21,S$14,0)</f>
-        <v>1</v>
-      </c>
-      <c r="T17" s="20">
-        <f>VLOOKUP($Q17,$B$16:$F$21,T$14,0)</f>
-        <v>0</v>
-      </c>
-      <c r="U17" s="17">
-        <f t="shared" ref="U17:U21" si="2">MOD((P17+1),5)</f>
-        <v>2</v>
-      </c>
-      <c r="V17" s="17">
-        <f t="shared" ref="V17:V21" si="3">MOD((3*P17+1),5)</f>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="18" spans="2:22" x14ac:dyDescent="0.3">
+    </row>
+    <row r="18" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B18" s="17" t="s">
         <v>27</v>
       </c>
       <c r="C18" s="20">
         <v>2</v>
       </c>
-      <c r="D18" s="31">
+      <c r="D18" s="27">
         <v>0</v>
       </c>
-      <c r="E18" s="31">
-        <v>1</v>
-      </c>
-      <c r="F18" s="31">
+      <c r="E18" s="27">
+        <v>1</v>
+      </c>
+      <c r="F18" s="27">
         <v>0</v>
       </c>
-      <c r="G18" s="32">
+      <c r="G18" s="28">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="H18" s="32">
+      <c r="H18" s="28">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="I18" s="32">
-        <f t="shared" ref="I18" si="4">VLOOKUP(I26,$B$16:$C$21,2)+1</f>
+      <c r="I18" s="28">
+        <f t="shared" ref="I18" si="2">VLOOKUP(I26,$B$16:$C$21,2)+1</f>
         <v>2</v>
       </c>
-      <c r="J18" s="30"/>
+      <c r="J18" s="26"/>
       <c r="K18" s="17" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="L18" s="17">
         <v>3</v>
@@ -2192,126 +5649,74 @@
       <c r="N18" s="17">
         <v>1</v>
       </c>
-      <c r="P18" s="20">
-        <v>2</v>
-      </c>
-      <c r="Q18" s="17" t="s">
-        <v>25</v>
-      </c>
-      <c r="R18" s="20">
-        <f>VLOOKUP($Q18,$B$16:$F$21,R$14,0)</f>
-        <v>1</v>
-      </c>
-      <c r="S18" s="20">
-        <f>VLOOKUP($Q18,$B$16:$F$21,S$14,0)</f>
-        <v>1</v>
-      </c>
-      <c r="T18" s="20">
-        <f>VLOOKUP($Q18,$B$16:$F$21,T$14,0)</f>
-        <v>0</v>
-      </c>
-      <c r="U18" s="17">
-        <f t="shared" si="2"/>
-        <v>3</v>
-      </c>
-      <c r="V18" s="17">
-        <f t="shared" si="3"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="19" spans="2:22" x14ac:dyDescent="0.3">
+    </row>
+    <row r="19" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B19" s="17" t="s">
         <v>26</v>
       </c>
       <c r="C19" s="20">
         <v>3</v>
       </c>
-      <c r="D19" s="31">
-        <v>1</v>
-      </c>
-      <c r="E19" s="31">
-        <v>1</v>
-      </c>
-      <c r="F19" s="31">
-        <v>1</v>
-      </c>
-      <c r="G19" s="32">
+      <c r="D19" s="27">
+        <v>1</v>
+      </c>
+      <c r="E19" s="27">
+        <v>1</v>
+      </c>
+      <c r="F19" s="27">
+        <v>1</v>
+      </c>
+      <c r="G19" s="28">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="H19" s="32">
+      <c r="H19" s="28">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="I19" s="32">
-        <f t="shared" ref="I19" si="5">VLOOKUP(I27,$B$16:$C$21,2)+1</f>
+      <c r="I19" s="28">
+        <f t="shared" ref="I19" si="3">VLOOKUP(I27,$B$16:$C$21,2)+1</f>
         <v>4</v>
       </c>
-      <c r="J19" s="30"/>
-      <c r="K19" s="27" t="s">
-        <v>42</v>
-      </c>
-      <c r="P19" s="20">
-        <v>3</v>
-      </c>
-      <c r="Q19" s="17" t="s">
-        <v>26</v>
-      </c>
-      <c r="R19" s="20">
-        <f>VLOOKUP($Q19,$B$16:$F$21,R$14,0)</f>
-        <v>3</v>
-      </c>
-      <c r="S19" s="20">
-        <f>VLOOKUP($Q19,$B$16:$F$21,S$14,0)</f>
-        <v>1</v>
-      </c>
-      <c r="T19" s="20">
-        <f>VLOOKUP($Q19,$B$16:$F$21,T$14,0)</f>
-        <v>1</v>
-      </c>
-      <c r="U19" s="17">
-        <f t="shared" si="2"/>
-        <v>4</v>
-      </c>
-      <c r="V19" s="17">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="2:22" x14ac:dyDescent="0.3">
+      <c r="J19" s="26"/>
+      <c r="K19" s="23" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="20" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B20" s="17" t="s">
         <v>24</v>
       </c>
       <c r="C20" s="20">
         <v>4</v>
       </c>
-      <c r="D20" s="31">
-        <v>1</v>
-      </c>
-      <c r="E20" s="31">
+      <c r="D20" s="27">
+        <v>1</v>
+      </c>
+      <c r="E20" s="27">
         <v>0</v>
       </c>
-      <c r="F20" s="31">
+      <c r="F20" s="27">
         <v>0</v>
       </c>
-      <c r="G20" s="32">
+      <c r="G20" s="28">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="H20" s="32">
+      <c r="H20" s="28">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="I20" s="32">
-        <f t="shared" ref="I20" si="6">VLOOKUP(I28,$B$16:$C$21,2)+1</f>
+      <c r="I20" s="28">
+        <f t="shared" ref="I20" si="4">VLOOKUP(I28,$B$16:$C$21,2)+1</f>
         <v>5</v>
       </c>
-      <c r="J20" s="30"/>
+      <c r="J20" s="26"/>
       <c r="K20" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="L20" s="29" t="s">
-        <v>43</v>
+      <c r="L20" s="25" t="s">
+        <v>38</v>
       </c>
       <c r="M20" s="18" t="s">
         <v>30</v>
@@ -2320,67 +5725,41 @@
         <f>1/3</f>
         <v>0.33333333333333331</v>
       </c>
-      <c r="P20" s="20">
-        <v>4</v>
-      </c>
-      <c r="Q20" s="17" t="s">
-        <v>27</v>
-      </c>
-      <c r="R20" s="20">
-        <f>VLOOKUP($Q20,$B$16:$F$21,R$14,0)</f>
-        <v>2</v>
-      </c>
-      <c r="S20" s="20">
-        <f>VLOOKUP($Q20,$B$16:$F$21,S$14,0)</f>
-        <v>0</v>
-      </c>
-      <c r="T20" s="20">
-        <f>VLOOKUP($Q20,$B$16:$F$21,T$14,0)</f>
-        <v>1</v>
-      </c>
-      <c r="U20" s="17">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="V20" s="17">
-        <f t="shared" si="3"/>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="21" spans="2:22" x14ac:dyDescent="0.3">
+    </row>
+    <row r="21" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B21" s="17" t="s">
         <v>28</v>
       </c>
       <c r="C21" s="20">
         <v>5</v>
       </c>
-      <c r="D21" s="31">
+      <c r="D21" s="27">
         <v>0</v>
       </c>
-      <c r="E21" s="31">
-        <v>1</v>
-      </c>
-      <c r="F21" s="31">
-        <v>1</v>
-      </c>
-      <c r="G21" s="32">
+      <c r="E21" s="27">
+        <v>1</v>
+      </c>
+      <c r="F21" s="27">
+        <v>1</v>
+      </c>
+      <c r="G21" s="28">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="H21" s="32">
+      <c r="H21" s="28">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="I21" s="32">
-        <f t="shared" ref="I21" si="7">VLOOKUP(I29,$B$16:$C$21,2)+1</f>
-        <v>1</v>
-      </c>
-      <c r="J21" s="30"/>
+      <c r="I21" s="28">
+        <f t="shared" ref="I21" si="5">VLOOKUP(I29,$B$16:$C$21,2)+1</f>
+        <v>1</v>
+      </c>
+      <c r="J21" s="26"/>
       <c r="K21" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="L21" s="29" t="s">
-        <v>43</v>
+      <c r="L21" s="25" t="s">
+        <v>38</v>
       </c>
       <c r="M21" s="18" t="s">
         <v>31</v>
@@ -2388,47 +5767,21 @@
       <c r="N21" s="18">
         <v>0</v>
       </c>
-      <c r="P21" s="20">
-        <v>5</v>
-      </c>
-      <c r="Q21" s="17" t="s">
-        <v>28</v>
-      </c>
-      <c r="R21" s="20">
-        <f>VLOOKUP($Q21,$B$16:$F$21,R$14,0)</f>
-        <v>5</v>
-      </c>
-      <c r="S21" s="20">
-        <f>VLOOKUP($Q21,$B$16:$F$21,S$14,0)</f>
-        <v>0</v>
-      </c>
-      <c r="T21" s="20">
-        <f>VLOOKUP($Q21,$B$16:$F$21,T$14,0)</f>
-        <v>1</v>
-      </c>
-      <c r="U21" s="17">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="V21" s="17">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="2:22" x14ac:dyDescent="0.3">
-      <c r="C22" s="30"/>
-      <c r="D22" s="30"/>
-      <c r="E22" s="30"/>
-      <c r="F22" s="30"/>
-      <c r="G22" s="30"/>
-      <c r="H22" s="30"/>
-      <c r="I22" s="30"/>
-      <c r="J22" s="30"/>
+    </row>
+    <row r="22" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="C22" s="26"/>
+      <c r="D22" s="26"/>
+      <c r="E22" s="26"/>
+      <c r="F22" s="26"/>
+      <c r="G22" s="26"/>
+      <c r="H22" s="26"/>
+      <c r="I22" s="26"/>
+      <c r="J22" s="26"/>
       <c r="K22" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="L22" s="29" t="s">
-        <v>43</v>
+      <c r="L22" s="25" t="s">
+        <v>38</v>
       </c>
       <c r="M22" s="18" t="s">
         <v>30</v>
@@ -2438,9 +5791,9 @@
         <v>0.66666666666666663</v>
       </c>
     </row>
-    <row r="23" spans="2:22" x14ac:dyDescent="0.3">
-      <c r="C23" s="27" t="s">
-        <v>42</v>
+    <row r="23" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="C23" s="23" t="s">
+        <v>37</v>
       </c>
       <c r="G23" s="19" t="s">
         <v>33</v>
@@ -2451,19 +5804,13 @@
       <c r="I23" s="19" t="s">
         <v>34</v>
       </c>
-      <c r="U23" s="20" t="s">
-        <v>44</v>
-      </c>
-      <c r="V23" s="20" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="24" spans="2:22" x14ac:dyDescent="0.3">
+    </row>
+    <row r="24" spans="2:14" x14ac:dyDescent="0.3">
       <c r="C24" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="D24" s="29" t="s">
-        <v>43</v>
+      <c r="D24" s="25" t="s">
+        <v>38</v>
       </c>
       <c r="E24" s="18" t="s">
         <v>30</v>
@@ -2481,34 +5828,13 @@
       <c r="I24" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="P24" s="20" t="s">
-        <v>49</v>
-      </c>
-      <c r="Q24" s="19" t="s">
-        <v>34</v>
-      </c>
-      <c r="R24" s="20" t="s">
-        <v>29</v>
-      </c>
-      <c r="S24" s="20" t="s">
-        <v>30</v>
-      </c>
-      <c r="T24" s="20" t="s">
-        <v>31</v>
-      </c>
-      <c r="U24" s="24" t="s">
-        <v>47</v>
-      </c>
-      <c r="V24" s="24" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="25" spans="2:22" x14ac:dyDescent="0.3">
+    </row>
+    <row r="25" spans="2:14" x14ac:dyDescent="0.3">
       <c r="C25" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="D25" s="29" t="s">
-        <v>43</v>
+      <c r="D25" s="25" t="s">
+        <v>38</v>
       </c>
       <c r="E25" s="18" t="s">
         <v>31</v>
@@ -2526,39 +5852,13 @@
       <c r="I25" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="P25" s="20">
-        <v>0</v>
-      </c>
-      <c r="Q25" s="17" t="s">
-        <v>28</v>
-      </c>
-      <c r="R25" s="20">
-        <f>VLOOKUP($Q25,$B$16:$F$21,R$14,0)</f>
-        <v>5</v>
-      </c>
-      <c r="S25" s="20">
-        <f>VLOOKUP($Q25,$B$16:$F$21,S$14,0)</f>
-        <v>0</v>
-      </c>
-      <c r="T25" s="20">
-        <f>VLOOKUP($Q25,$B$16:$F$21,T$14,0)</f>
-        <v>1</v>
-      </c>
-      <c r="U25" s="17">
-        <f>MOD((P25+1),5)</f>
-        <v>1</v>
-      </c>
-      <c r="V25" s="17">
-        <f>MOD((3*P25+1),5)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26" spans="2:22" x14ac:dyDescent="0.3">
+    </row>
+    <row r="26" spans="2:14" x14ac:dyDescent="0.3">
       <c r="C26" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="D26" s="29" t="s">
-        <v>43</v>
+      <c r="D26" s="25" t="s">
+        <v>38</v>
       </c>
       <c r="E26" s="18" t="s">
         <v>30</v>
@@ -2576,34 +5876,8 @@
       <c r="I26" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="P26" s="20">
-        <v>1</v>
-      </c>
-      <c r="Q26" s="17" t="s">
-        <v>27</v>
-      </c>
-      <c r="R26" s="20">
-        <f>VLOOKUP($Q26,$B$16:$F$21,R$14,0)</f>
-        <v>2</v>
-      </c>
-      <c r="S26" s="20">
-        <f>VLOOKUP($Q26,$B$16:$F$21,S$14,0)</f>
-        <v>0</v>
-      </c>
-      <c r="T26" s="20">
-        <f>VLOOKUP($Q26,$B$16:$F$21,T$14,0)</f>
-        <v>1</v>
-      </c>
-      <c r="U26" s="17">
-        <f t="shared" ref="U26:U30" si="8">MOD((P26+1),5)</f>
-        <v>2</v>
-      </c>
-      <c r="V26" s="17">
-        <f t="shared" ref="V26:V30" si="9">MOD((3*P26+1),5)</f>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="27" spans="2:22" x14ac:dyDescent="0.3">
+    </row>
+    <row r="27" spans="2:14" x14ac:dyDescent="0.3">
       <c r="G27" s="17" t="s">
         <v>26</v>
       </c>
@@ -2613,1041 +5887,484 @@
       <c r="I27" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="P27" s="20">
+    </row>
+    <row r="28" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="G28" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="H28" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="I28" s="17" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="29" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="G29" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="H29" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="I29" s="17" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="34" spans="2:16" ht="18" x14ac:dyDescent="0.35">
+      <c r="C34" s="15" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="35" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B35" s="14"/>
+      <c r="C35" s="29" t="s">
+        <v>36</v>
+      </c>
+      <c r="D35" s="29"/>
+      <c r="E35" s="29"/>
+      <c r="F35" s="29"/>
+      <c r="G35" s="24"/>
+      <c r="H35" s="24"/>
+      <c r="I35" s="24"/>
+      <c r="J35" s="24"/>
+      <c r="K35" s="21"/>
+      <c r="L35" s="21"/>
+      <c r="M35" s="21"/>
+      <c r="N35" s="21"/>
+    </row>
+    <row r="36" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B36" s="14"/>
+      <c r="H36" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="I36" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="J36" s="17" t="s">
+        <v>42</v>
+      </c>
+      <c r="L36" s="21" t="s">
+        <v>35</v>
+      </c>
+      <c r="M36" s="21"/>
+      <c r="N36" s="21"/>
+      <c r="O36" s="21"/>
+    </row>
+    <row r="37" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B37" s="14"/>
+      <c r="C37" s="20" t="s">
+        <v>41</v>
+      </c>
+      <c r="D37" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="E37" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="Q27" s="17" t="s">
-        <v>26</v>
-      </c>
-      <c r="R27" s="20">
-        <f>VLOOKUP($Q27,$B$16:$F$21,R$14,0)</f>
+      <c r="F37" s="17" t="s">
+        <v>53</v>
+      </c>
+      <c r="G37" s="17" t="s">
+        <v>54</v>
+      </c>
+      <c r="H37" s="33" t="s">
+        <v>50</v>
+      </c>
+      <c r="I37" s="33" t="s">
+        <v>51</v>
+      </c>
+      <c r="J37" s="33" t="s">
+        <v>52</v>
+      </c>
+      <c r="K37" s="26"/>
+      <c r="L37" s="17"/>
+      <c r="M37" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="N37" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="O37" s="17" t="s">
+        <v>53</v>
+      </c>
+      <c r="P37" s="36" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="38" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B38" s="14"/>
+      <c r="C38" s="20">
+        <v>0</v>
+      </c>
+      <c r="D38" s="27">
+        <v>0</v>
+      </c>
+      <c r="E38" s="27">
+        <v>1</v>
+      </c>
+      <c r="F38" s="27">
+        <v>0</v>
+      </c>
+      <c r="G38" s="27">
+        <v>1</v>
+      </c>
+      <c r="H38" s="28">
+        <f>MOD(C38*2+1,6)</f>
+        <v>1</v>
+      </c>
+      <c r="I38" s="28">
+        <f>MOD(C38*3+2,6)</f>
+        <v>2</v>
+      </c>
+      <c r="J38" s="28">
+        <f>MOD(C38*5+2,6)</f>
+        <v>2</v>
+      </c>
+      <c r="K38" s="26"/>
+      <c r="L38" s="20" t="s">
+        <v>39</v>
+      </c>
+      <c r="M38" s="20">
+        <v>5</v>
+      </c>
+      <c r="N38" s="20">
+        <v>1</v>
+      </c>
+      <c r="O38" s="34">
+        <v>1</v>
+      </c>
+      <c r="P38" s="37">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B39" s="14"/>
+      <c r="C39" s="20">
+        <v>1</v>
+      </c>
+      <c r="D39" s="27">
+        <v>0</v>
+      </c>
+      <c r="E39" s="27">
+        <v>1</v>
+      </c>
+      <c r="F39" s="27">
+        <v>0</v>
+      </c>
+      <c r="G39" s="27">
+        <v>0</v>
+      </c>
+      <c r="H39" s="28">
+        <f t="shared" ref="H39:H43" si="6">MOD(C39*2+1,6)</f>
         <v>3</v>
       </c>
-      <c r="S27" s="20">
-        <f>VLOOKUP($Q27,$B$16:$F$21,S$14,0)</f>
-        <v>1</v>
-      </c>
-      <c r="T27" s="20">
-        <f>VLOOKUP($Q27,$B$16:$F$21,T$14,0)</f>
-        <v>1</v>
-      </c>
-      <c r="U27" s="17">
+      <c r="I39" s="28">
+        <f t="shared" ref="I39:I43" si="7">MOD(C39*3+2,6)</f>
+        <v>5</v>
+      </c>
+      <c r="J39" s="28">
+        <f t="shared" ref="J39:J43" si="8">MOD(C39*5+2,6)</f>
+        <v>1</v>
+      </c>
+      <c r="K39" s="26"/>
+      <c r="L39" s="20" t="s">
+        <v>40</v>
+      </c>
+      <c r="M39" s="17">
+        <v>2</v>
+      </c>
+      <c r="N39" s="17">
+        <v>2</v>
+      </c>
+      <c r="O39" s="35">
+        <v>2</v>
+      </c>
+      <c r="P39" s="37">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="40" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B40" s="14"/>
+      <c r="C40" s="20">
+        <v>2</v>
+      </c>
+      <c r="D40" s="27">
+        <v>1</v>
+      </c>
+      <c r="E40" s="27">
+        <v>0</v>
+      </c>
+      <c r="F40" s="27">
+        <v>0</v>
+      </c>
+      <c r="G40" s="27">
+        <v>1</v>
+      </c>
+      <c r="H40" s="28">
+        <f t="shared" si="6"/>
+        <v>5</v>
+      </c>
+      <c r="I40" s="28">
+        <f t="shared" si="7"/>
+        <v>2</v>
+      </c>
+      <c r="J40" s="28">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="K40" s="26"/>
+      <c r="L40" s="17" t="s">
+        <v>42</v>
+      </c>
+      <c r="M40" s="17">
+        <v>0</v>
+      </c>
+      <c r="N40" s="17">
+        <v>1</v>
+      </c>
+      <c r="O40" s="35">
+        <v>4</v>
+      </c>
+      <c r="P40" s="37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B41" s="14"/>
+      <c r="C41" s="20">
+        <v>3</v>
+      </c>
+      <c r="D41" s="27">
+        <v>0</v>
+      </c>
+      <c r="E41" s="27">
+        <v>0</v>
+      </c>
+      <c r="F41" s="27">
+        <v>1</v>
+      </c>
+      <c r="G41" s="27">
+        <v>0</v>
+      </c>
+      <c r="H41" s="28">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="I41" s="28">
+        <f t="shared" si="7"/>
+        <v>5</v>
+      </c>
+      <c r="J41" s="28">
+        <f t="shared" si="8"/>
+        <v>5</v>
+      </c>
+      <c r="K41" s="26"/>
+      <c r="L41" s="24"/>
+    </row>
+    <row r="42" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B42" s="14"/>
+      <c r="C42" s="20">
+        <v>4</v>
+      </c>
+      <c r="D42" s="27">
+        <v>0</v>
+      </c>
+      <c r="E42" s="27">
+        <v>0</v>
+      </c>
+      <c r="F42" s="27">
+        <v>1</v>
+      </c>
+      <c r="G42" s="27">
+        <v>1</v>
+      </c>
+      <c r="H42" s="28">
+        <f t="shared" si="6"/>
+        <v>3</v>
+      </c>
+      <c r="I42" s="28">
+        <f t="shared" si="7"/>
+        <v>2</v>
+      </c>
+      <c r="J42" s="28">
+        <f t="shared" si="8"/>
+        <v>4</v>
+      </c>
+      <c r="K42" s="26"/>
+      <c r="L42" s="18"/>
+      <c r="M42" s="25"/>
+      <c r="N42" s="18"/>
+      <c r="O42" s="18"/>
+    </row>
+    <row r="43" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B43" s="14"/>
+      <c r="C43" s="20">
+        <v>5</v>
+      </c>
+      <c r="D43" s="27">
+        <v>1</v>
+      </c>
+      <c r="E43" s="27">
+        <v>0</v>
+      </c>
+      <c r="F43" s="27">
+        <v>0</v>
+      </c>
+      <c r="G43" s="27">
+        <v>0</v>
+      </c>
+      <c r="H43" s="28">
+        <f t="shared" si="6"/>
+        <v>5</v>
+      </c>
+      <c r="I43" s="28">
+        <f t="shared" si="7"/>
+        <v>5</v>
+      </c>
+      <c r="J43" s="28">
         <f t="shared" si="8"/>
         <v>3</v>
       </c>
-      <c r="V27" s="17">
-        <f t="shared" si="9"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="28" spans="2:22" x14ac:dyDescent="0.3">
-      <c r="G28" s="17" t="s">
-        <v>27</v>
-      </c>
-      <c r="H28" s="17" t="s">
-        <v>24</v>
-      </c>
-      <c r="I28" s="17" t="s">
-        <v>24</v>
-      </c>
-      <c r="P28" s="20">
-        <v>3</v>
-      </c>
-      <c r="Q28" s="17" t="s">
-        <v>25</v>
-      </c>
-      <c r="R28" s="20">
-        <f>VLOOKUP($Q28,$B$16:$F$21,R$14,0)</f>
-        <v>1</v>
-      </c>
-      <c r="S28" s="20">
-        <f>VLOOKUP($Q28,$B$16:$F$21,S$14,0)</f>
-        <v>1</v>
-      </c>
-      <c r="T28" s="20">
-        <f>VLOOKUP($Q28,$B$16:$F$21,T$14,0)</f>
+      <c r="K43" s="26"/>
+      <c r="L43" s="18"/>
+      <c r="M43" s="25"/>
+      <c r="N43" s="18"/>
+      <c r="O43" s="18"/>
+    </row>
+    <row r="44" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="C44" s="26"/>
+      <c r="D44" s="26"/>
+      <c r="E44" s="26"/>
+      <c r="F44" s="26"/>
+      <c r="H44" s="26"/>
+      <c r="I44" s="26"/>
+      <c r="J44" s="26"/>
+      <c r="K44" s="26"/>
+      <c r="L44" s="18"/>
+      <c r="M44" s="25"/>
+      <c r="N44" s="18"/>
+      <c r="O44" s="16"/>
+    </row>
+    <row r="45" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="C45" s="39" t="s">
+        <v>37</v>
+      </c>
+      <c r="D45" s="40" t="s">
+        <v>57</v>
+      </c>
+      <c r="E45" s="40" t="s">
+        <v>58</v>
+      </c>
+      <c r="F45" s="40" t="s">
+        <v>59</v>
+      </c>
+      <c r="G45" s="40" t="s">
+        <v>60</v>
+      </c>
+      <c r="H45" s="40" t="s">
+        <v>61</v>
+      </c>
+      <c r="I45" s="40" t="s">
+        <v>62</v>
+      </c>
+      <c r="J45" s="26"/>
+    </row>
+    <row r="46" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="C46" s="17" t="s">
+        <v>55</v>
+      </c>
+      <c r="D46" s="38">
         <v>0</v>
       </c>
-      <c r="U28" s="17">
-        <f t="shared" si="8"/>
-        <v>4</v>
-      </c>
-      <c r="V28" s="17">
-        <f t="shared" si="9"/>
+      <c r="E46" s="20">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="2:22" x14ac:dyDescent="0.3">
-      <c r="G29" s="17" t="s">
-        <v>28</v>
-      </c>
-      <c r="H29" s="17" t="s">
-        <v>23</v>
-      </c>
-      <c r="I29" s="17" t="s">
-        <v>23</v>
-      </c>
-      <c r="P29" s="20">
-        <v>4</v>
-      </c>
-      <c r="Q29" s="17" t="s">
-        <v>24</v>
-      </c>
-      <c r="R29" s="20">
-        <f>VLOOKUP($Q29,$B$16:$F$21,R$14,0)</f>
-        <v>4</v>
-      </c>
-      <c r="S29" s="20">
-        <f>VLOOKUP($Q29,$B$16:$F$21,S$14,0)</f>
-        <v>1</v>
-      </c>
-      <c r="T29" s="20">
-        <f>VLOOKUP($Q29,$B$16:$F$21,T$14,0)</f>
+      <c r="F46" s="41">
+        <v>0.25</v>
+      </c>
+      <c r="G46" s="17">
         <v>0</v>
       </c>
-      <c r="U29" s="17">
-        <f t="shared" si="8"/>
+      <c r="H46" s="41">
+        <v>0.25</v>
+      </c>
+      <c r="I46" s="41">
+        <v>0.25</v>
+      </c>
+      <c r="J46" s="26"/>
+    </row>
+    <row r="47" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="C47" s="17" t="s">
+        <v>56</v>
+      </c>
+      <c r="D47" s="38">
         <v>0</v>
       </c>
-      <c r="V29" s="17">
-        <f t="shared" si="9"/>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="30" spans="2:22" x14ac:dyDescent="0.3">
-      <c r="P30" s="20">
-        <v>5</v>
-      </c>
-      <c r="Q30" s="17" t="s">
-        <v>23</v>
-      </c>
-      <c r="R30" s="20">
-        <f>VLOOKUP($Q30,$B$16:$F$21,R$14,0)</f>
-        <v>0</v>
-      </c>
-      <c r="S30" s="20">
-        <f>VLOOKUP($Q30,$B$16:$F$21,S$14,0)</f>
-        <v>1</v>
-      </c>
-      <c r="T30" s="20">
-        <f>VLOOKUP($Q30,$B$16:$F$21,T$14,0)</f>
-        <v>1</v>
-      </c>
-      <c r="U30" s="17">
-        <f t="shared" si="8"/>
-        <v>1</v>
-      </c>
-      <c r="V30" s="17">
-        <f t="shared" si="9"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="32" spans="2:22" x14ac:dyDescent="0.3">
-      <c r="U32" s="20" t="s">
-        <v>44</v>
-      </c>
-      <c r="V32" s="20" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="33" spans="11:22" x14ac:dyDescent="0.3">
-      <c r="P33" s="20" t="s">
-        <v>49</v>
-      </c>
-      <c r="Q33" s="19" t="s">
-        <v>34</v>
-      </c>
-      <c r="R33" s="20" t="s">
-        <v>29</v>
-      </c>
-      <c r="S33" s="20" t="s">
-        <v>30</v>
-      </c>
-      <c r="T33" s="20" t="s">
-        <v>31</v>
-      </c>
-      <c r="U33" s="24" t="s">
-        <v>47</v>
-      </c>
-      <c r="V33" s="24" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="34" spans="11:22" x14ac:dyDescent="0.3">
-      <c r="P34" s="20">
-        <v>0</v>
-      </c>
-      <c r="Q34" s="17" t="s">
-        <v>27</v>
-      </c>
-      <c r="R34" s="20">
-        <f>VLOOKUP($Q34,$B$16:$F$21,R$14,0)</f>
-        <v>2</v>
-      </c>
-      <c r="S34" s="20">
-        <f>VLOOKUP($Q34,$B$16:$F$21,S$14,0)</f>
-        <v>0</v>
-      </c>
-      <c r="T34" s="20">
-        <f>VLOOKUP($Q34,$B$16:$F$21,T$14,0)</f>
-        <v>1</v>
-      </c>
-      <c r="U34" s="17">
-        <f>MOD((P34+1),5)</f>
-        <v>1</v>
-      </c>
-      <c r="V34" s="17">
-        <f>MOD((3*P34+1),5)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="35" spans="11:22" x14ac:dyDescent="0.3">
-      <c r="P35" s="20">
-        <v>1</v>
-      </c>
-      <c r="Q35" s="17" t="s">
-        <v>28</v>
-      </c>
-      <c r="R35" s="20">
-        <f>VLOOKUP($Q35,$B$16:$F$21,R$14,0)</f>
-        <v>5</v>
-      </c>
-      <c r="S35" s="20">
-        <f>VLOOKUP($Q35,$B$16:$F$21,S$14,0)</f>
-        <v>0</v>
-      </c>
-      <c r="T35" s="20">
-        <f>VLOOKUP($Q35,$B$16:$F$21,T$14,0)</f>
-        <v>1</v>
-      </c>
-      <c r="U35" s="17">
-        <f t="shared" ref="U35:U39" si="10">MOD((P35+1),5)</f>
-        <v>2</v>
-      </c>
-      <c r="V35" s="17">
-        <f t="shared" ref="V35:V39" si="11">MOD((3*P35+1),5)</f>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="36" spans="11:22" x14ac:dyDescent="0.3">
-      <c r="P36" s="20">
-        <v>2</v>
-      </c>
-      <c r="Q36" s="17" t="s">
-        <v>25</v>
-      </c>
-      <c r="R36" s="20">
-        <f>VLOOKUP($Q36,$B$16:$F$21,R$14,0)</f>
-        <v>1</v>
-      </c>
-      <c r="S36" s="20">
-        <f>VLOOKUP($Q36,$B$16:$F$21,S$14,0)</f>
-        <v>1</v>
-      </c>
-      <c r="T36" s="20">
-        <f>VLOOKUP($Q36,$B$16:$F$21,T$14,0)</f>
-        <v>0</v>
-      </c>
-      <c r="U36" s="17">
-        <f t="shared" si="10"/>
-        <v>3</v>
-      </c>
-      <c r="V36" s="17">
-        <f t="shared" si="11"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="37" spans="11:22" x14ac:dyDescent="0.3">
-      <c r="P37" s="20">
-        <v>3</v>
-      </c>
-      <c r="Q37" s="17" t="s">
-        <v>26</v>
-      </c>
-      <c r="R37" s="20">
-        <f>VLOOKUP($Q37,$B$16:$F$21,R$14,0)</f>
-        <v>3</v>
-      </c>
-      <c r="S37" s="20">
-        <f>VLOOKUP($Q37,$B$16:$F$21,S$14,0)</f>
-        <v>1</v>
-      </c>
-      <c r="T37" s="20">
-        <f>VLOOKUP($Q37,$B$16:$F$21,T$14,0)</f>
-        <v>1</v>
-      </c>
-      <c r="U37" s="17">
-        <f t="shared" si="10"/>
-        <v>4</v>
-      </c>
-      <c r="V37" s="17">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="11:22" x14ac:dyDescent="0.3">
-      <c r="P38" s="20">
-        <v>4</v>
-      </c>
-      <c r="Q38" s="17" t="s">
-        <v>24</v>
-      </c>
-      <c r="R38" s="20">
-        <f>VLOOKUP($Q38,$B$16:$F$21,R$14,0)</f>
-        <v>4</v>
-      </c>
-      <c r="S38" s="20">
-        <f>VLOOKUP($Q38,$B$16:$F$21,S$14,0)</f>
-        <v>1</v>
-      </c>
-      <c r="T38" s="20">
-        <f>VLOOKUP($Q38,$B$16:$F$21,T$14,0)</f>
-        <v>0</v>
-      </c>
-      <c r="U38" s="17">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="V38" s="17">
-        <f t="shared" si="11"/>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="39" spans="11:22" x14ac:dyDescent="0.3">
-      <c r="K39" s="18"/>
-      <c r="L39" s="29"/>
-      <c r="M39" s="18"/>
-      <c r="N39" s="16"/>
-      <c r="P39" s="20">
-        <v>5</v>
-      </c>
-      <c r="Q39" s="17" t="s">
-        <v>23</v>
-      </c>
-      <c r="R39" s="20">
-        <f>VLOOKUP($Q39,$B$16:$F$21,R$14,0)</f>
-        <v>0</v>
-      </c>
-      <c r="S39" s="20">
-        <f>VLOOKUP($Q39,$B$16:$F$21,S$14,0)</f>
-        <v>1</v>
-      </c>
-      <c r="T39" s="20">
-        <f>VLOOKUP($Q39,$B$16:$F$21,T$14,0)</f>
-        <v>1</v>
-      </c>
-      <c r="U39" s="17">
-        <f t="shared" si="10"/>
-        <v>1</v>
-      </c>
-      <c r="V39" s="17">
-        <f t="shared" si="11"/>
-        <v>1</v>
-      </c>
+      <c r="E47" s="20">
+        <f>1/3</f>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="F47" s="20">
+        <v>0.67</v>
+      </c>
+      <c r="G47" s="20">
+        <v>0.67</v>
+      </c>
+      <c r="H47" s="20">
+        <v>0.67</v>
+      </c>
+      <c r="I47" s="20">
+        <v>0.67</v>
+      </c>
+      <c r="J47" s="26"/>
+    </row>
+    <row r="48" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="C48" s="18"/>
+      <c r="D48" s="25"/>
+      <c r="E48" s="18"/>
+      <c r="F48" s="16"/>
+      <c r="G48" s="26"/>
+      <c r="H48" s="26"/>
+      <c r="I48" s="26"/>
+      <c r="J48" s="26"/>
+    </row>
+    <row r="49" spans="7:10" x14ac:dyDescent="0.3">
+      <c r="G49" s="26"/>
+      <c r="H49" s="26"/>
+      <c r="I49" s="26"/>
+      <c r="J49" s="26"/>
+    </row>
+    <row r="50" spans="7:10" x14ac:dyDescent="0.3">
+      <c r="G50" s="26"/>
+      <c r="H50" s="26"/>
+      <c r="I50" s="26"/>
+      <c r="J50" s="26"/>
+    </row>
+    <row r="51" spans="7:10" x14ac:dyDescent="0.3">
+      <c r="G51" s="26"/>
+      <c r="H51" s="26"/>
+      <c r="I51" s="26"/>
+      <c r="J51" s="26"/>
+    </row>
+    <row r="52" spans="7:10" x14ac:dyDescent="0.3">
+      <c r="G52" s="26"/>
+      <c r="H52" s="26"/>
+      <c r="I52" s="26"/>
+      <c r="J52" s="26"/>
+    </row>
+    <row r="53" spans="7:10" x14ac:dyDescent="0.3">
+      <c r="G53" s="26"/>
+      <c r="H53" s="26"/>
+      <c r="I53" s="26"/>
+      <c r="J53" s="26"/>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="C16:F21">
     <sortCondition ref="C16"/>
   </sortState>
-  <mergeCells count="1">
+  <mergeCells count="2">
     <mergeCell ref="C13:F13"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0AB17C50-8519-4B07-B1A2-5BDFE30588A9}">
-  <dimension ref="B2:U40"/>
-  <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="D26" sqref="D26"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="2" max="2" width="12.5546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.21875" customWidth="1"/>
-    <col min="15" max="15" width="2.5546875" customWidth="1"/>
-    <col min="16" max="16" width="2.6640625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="2:21" ht="18" x14ac:dyDescent="0.35">
-      <c r="C2" s="15" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="4" spans="2:21" x14ac:dyDescent="0.3">
-      <c r="C4" s="17"/>
-      <c r="D4" s="17" t="s">
-        <v>29</v>
-      </c>
-      <c r="E4" s="17" t="s">
-        <v>30</v>
-      </c>
-      <c r="F4" s="17" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="5" spans="2:21" x14ac:dyDescent="0.3">
-      <c r="C5" s="17" t="s">
-        <v>23</v>
-      </c>
-      <c r="D5" s="17">
-        <v>1</v>
-      </c>
-      <c r="E5" s="17">
-        <v>1</v>
-      </c>
-      <c r="F5" s="17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="2:21" x14ac:dyDescent="0.3">
-      <c r="C6" s="17" t="s">
-        <v>24</v>
-      </c>
-      <c r="D6" s="17">
-        <v>1</v>
-      </c>
-      <c r="E6" s="17">
-        <v>0</v>
-      </c>
-      <c r="F6" s="17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="2:21" x14ac:dyDescent="0.3">
-      <c r="C7" s="17" t="s">
-        <v>25</v>
-      </c>
-      <c r="D7" s="17">
-        <v>1</v>
-      </c>
-      <c r="E7" s="17">
-        <v>0</v>
-      </c>
-      <c r="F7" s="17">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="2:21" x14ac:dyDescent="0.3">
-      <c r="C8" s="17" t="s">
-        <v>26</v>
-      </c>
-      <c r="D8" s="17">
-        <v>1</v>
-      </c>
-      <c r="E8" s="17">
-        <v>0</v>
-      </c>
-      <c r="F8" s="17">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="2:21" x14ac:dyDescent="0.3">
-      <c r="C9" s="17" t="s">
-        <v>27</v>
-      </c>
-      <c r="D9" s="17">
-        <v>0</v>
-      </c>
-      <c r="E9" s="17">
-        <v>1</v>
-      </c>
-      <c r="F9" s="17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="2:21" x14ac:dyDescent="0.3">
-      <c r="C10" s="17" t="s">
-        <v>28</v>
-      </c>
-      <c r="D10" s="17">
-        <v>0</v>
-      </c>
-      <c r="E10" s="17">
-        <v>1</v>
-      </c>
-      <c r="F10" s="17">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="2:21" x14ac:dyDescent="0.3">
-      <c r="C11" s="17" t="s">
-        <v>26</v>
-      </c>
-      <c r="D11" s="17">
-        <v>0</v>
-      </c>
-      <c r="E11" s="17">
-        <v>1</v>
-      </c>
-      <c r="F11" s="17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="2:21" ht="18" x14ac:dyDescent="0.35">
-      <c r="C13" s="15" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="14" spans="2:21" x14ac:dyDescent="0.3">
-      <c r="B14" s="14"/>
-      <c r="C14" s="28" t="s">
-        <v>41</v>
-      </c>
-      <c r="D14" s="28"/>
-      <c r="E14" s="28"/>
-      <c r="F14" s="28"/>
-      <c r="H14" s="23" t="s">
-        <v>36</v>
-      </c>
-      <c r="I14" s="23"/>
-      <c r="J14" s="23"/>
-      <c r="K14" s="23"/>
-      <c r="L14" s="23"/>
-      <c r="M14" s="23"/>
-      <c r="N14" s="23"/>
-      <c r="O14" s="26"/>
-      <c r="P14" s="26"/>
-      <c r="Q14" s="23" t="s">
-        <v>40</v>
-      </c>
-      <c r="R14" s="23"/>
-      <c r="S14" s="23"/>
-      <c r="T14" s="23"/>
-      <c r="U14" s="26"/>
-    </row>
-    <row r="16" spans="2:21" x14ac:dyDescent="0.3">
-      <c r="B16" s="14"/>
-      <c r="C16" s="17"/>
-      <c r="D16" s="17" t="s">
-        <v>29</v>
-      </c>
-      <c r="E16" s="17" t="s">
-        <v>30</v>
-      </c>
-      <c r="F16" s="17" t="s">
-        <v>31</v>
-      </c>
-      <c r="H16" s="19" t="s">
-        <v>33</v>
-      </c>
-      <c r="I16" s="20" t="s">
-        <v>29</v>
-      </c>
-      <c r="J16" s="20" t="s">
-        <v>30</v>
-      </c>
-      <c r="K16" s="20" t="s">
-        <v>31</v>
-      </c>
-      <c r="L16" s="20" t="s">
-        <v>37</v>
-      </c>
-      <c r="M16" s="20" t="s">
-        <v>38</v>
-      </c>
-      <c r="N16" s="20" t="s">
-        <v>39</v>
-      </c>
-      <c r="Q16" s="17"/>
-      <c r="R16" s="20" t="s">
-        <v>37</v>
-      </c>
-      <c r="S16" s="20" t="s">
-        <v>38</v>
-      </c>
-      <c r="T16" s="20" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="17" spans="2:20" x14ac:dyDescent="0.3">
-      <c r="C17" s="17" t="s">
-        <v>23</v>
-      </c>
-      <c r="D17" s="17">
-        <v>1</v>
-      </c>
-      <c r="E17" s="17">
-        <v>1</v>
-      </c>
-      <c r="F17" s="17">
-        <v>0</v>
-      </c>
-      <c r="H17" s="17" t="s">
-        <v>23</v>
-      </c>
-      <c r="I17" s="20">
-        <v>1</v>
-      </c>
-      <c r="J17" s="20">
-        <v>1</v>
-      </c>
-      <c r="K17" s="20">
-        <v>0</v>
-      </c>
-      <c r="L17" s="17" t="s">
-        <v>23</v>
-      </c>
-      <c r="M17" s="17" t="s">
-        <v>23</v>
-      </c>
-      <c r="N17" s="17" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q17" s="20" t="s">
-        <v>33</v>
-      </c>
-      <c r="R17" s="20" t="s">
-        <v>23</v>
-      </c>
-      <c r="S17" s="20" t="s">
-        <v>23</v>
-      </c>
-      <c r="T17" s="20" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="18" spans="2:20" x14ac:dyDescent="0.3">
-      <c r="B18" s="14"/>
-      <c r="C18" s="17" t="s">
-        <v>24</v>
-      </c>
-      <c r="D18" s="17">
-        <v>1</v>
-      </c>
-      <c r="E18" s="17">
-        <v>0</v>
-      </c>
-      <c r="F18" s="17">
-        <v>0</v>
-      </c>
-      <c r="H18" s="17" t="s">
-        <v>24</v>
-      </c>
-      <c r="I18" s="20">
-        <v>1</v>
-      </c>
-      <c r="J18" s="20">
-        <v>0</v>
-      </c>
-      <c r="K18" s="20">
-        <v>0</v>
-      </c>
-      <c r="Q18" s="17" t="s">
-        <v>34</v>
-      </c>
-      <c r="R18" s="17" t="s">
-        <v>26</v>
-      </c>
-      <c r="S18" s="17" t="s">
-        <v>28</v>
-      </c>
-      <c r="T18" s="17" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="19" spans="2:20" x14ac:dyDescent="0.3">
-      <c r="C19" s="17" t="s">
-        <v>25</v>
-      </c>
-      <c r="D19" s="17">
-        <v>1</v>
-      </c>
-      <c r="E19" s="17">
-        <v>0</v>
-      </c>
-      <c r="F19" s="17">
-        <v>1</v>
-      </c>
-      <c r="H19" s="17" t="s">
-        <v>25</v>
-      </c>
-      <c r="I19" s="20">
-        <v>1</v>
-      </c>
-      <c r="J19" s="20">
-        <v>0</v>
-      </c>
-      <c r="K19" s="20">
-        <v>1</v>
-      </c>
-      <c r="Q19" s="17" t="s">
-        <v>35</v>
-      </c>
-      <c r="R19" s="17" t="s">
-        <v>25</v>
-      </c>
-      <c r="S19" s="17" t="s">
-        <v>27</v>
-      </c>
-      <c r="T19" s="17" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="20" spans="2:20" x14ac:dyDescent="0.3">
-      <c r="C20" s="17" t="s">
-        <v>26</v>
-      </c>
-      <c r="D20" s="17">
-        <v>1</v>
-      </c>
-      <c r="E20" s="17">
-        <v>0</v>
-      </c>
-      <c r="F20" s="17">
-        <v>1</v>
-      </c>
-      <c r="H20" s="17" t="s">
-        <v>26</v>
-      </c>
-      <c r="I20" s="20">
-        <v>1</v>
-      </c>
-      <c r="J20" s="20">
-        <v>0</v>
-      </c>
-      <c r="K20" s="20">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="2:20" x14ac:dyDescent="0.3">
-      <c r="C21" s="17" t="s">
-        <v>27</v>
-      </c>
-      <c r="D21" s="17">
-        <v>0</v>
-      </c>
-      <c r="E21" s="17">
-        <v>1</v>
-      </c>
-      <c r="F21" s="17">
-        <v>0</v>
-      </c>
-      <c r="H21" s="17" t="s">
-        <v>27</v>
-      </c>
-      <c r="I21" s="20">
-        <v>0</v>
-      </c>
-      <c r="J21" s="20">
-        <v>1</v>
-      </c>
-      <c r="K21" s="20">
-        <v>0</v>
-      </c>
-      <c r="Q21" s="27" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="22" spans="2:20" x14ac:dyDescent="0.3">
-      <c r="C22" s="17" t="s">
-        <v>28</v>
-      </c>
-      <c r="D22" s="17">
-        <v>0</v>
-      </c>
-      <c r="E22" s="17">
-        <v>1</v>
-      </c>
-      <c r="F22" s="17">
-        <v>1</v>
-      </c>
-      <c r="H22" s="17" t="s">
-        <v>28</v>
-      </c>
-      <c r="I22" s="20">
-        <v>0</v>
-      </c>
-      <c r="J22" s="20">
-        <v>1</v>
-      </c>
-      <c r="K22" s="20">
-        <v>1</v>
-      </c>
-      <c r="Q22" s="18" t="s">
-        <v>29</v>
-      </c>
-      <c r="R22" s="29" t="s">
-        <v>43</v>
-      </c>
-      <c r="S22" s="18" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="23" spans="2:20" x14ac:dyDescent="0.3">
-      <c r="C23" s="17" t="s">
-        <v>26</v>
-      </c>
-      <c r="D23" s="17">
-        <v>0</v>
-      </c>
-      <c r="E23" s="17">
-        <v>1</v>
-      </c>
-      <c r="F23" s="17">
-        <v>0</v>
-      </c>
-      <c r="Q23" s="18" t="s">
-        <v>29</v>
-      </c>
-      <c r="R23" s="29" t="s">
-        <v>43</v>
-      </c>
-      <c r="S23" s="18" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="24" spans="2:20" x14ac:dyDescent="0.3">
-      <c r="Q24" s="18" t="s">
-        <v>30</v>
-      </c>
-      <c r="R24" s="29" t="s">
-        <v>43</v>
-      </c>
-      <c r="S24" s="18" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="25" spans="2:20" x14ac:dyDescent="0.3">
-      <c r="H25" s="19" t="s">
-        <v>34</v>
-      </c>
-      <c r="I25" s="20" t="s">
-        <v>29</v>
-      </c>
-      <c r="J25" s="20" t="s">
-        <v>30</v>
-      </c>
-      <c r="K25" s="20" t="s">
-        <v>31</v>
-      </c>
-      <c r="L25" s="20" t="s">
-        <v>37</v>
-      </c>
-      <c r="M25" s="20" t="s">
-        <v>38</v>
-      </c>
-      <c r="N25" s="20" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="26" spans="2:20" x14ac:dyDescent="0.3">
-      <c r="H26" s="17" t="s">
-        <v>28</v>
-      </c>
-      <c r="I26" s="20">
-        <v>0</v>
-      </c>
-      <c r="J26" s="17">
-        <v>1</v>
-      </c>
-      <c r="K26" s="17">
-        <v>1</v>
-      </c>
-      <c r="L26" s="17" t="s">
-        <v>26</v>
-      </c>
-      <c r="M26" s="17" t="s">
-        <v>28</v>
-      </c>
-      <c r="N26" s="17" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="27" spans="2:20" x14ac:dyDescent="0.3">
-      <c r="H27" s="17" t="s">
-        <v>27</v>
-      </c>
-      <c r="I27" s="20">
-        <v>0</v>
-      </c>
-      <c r="J27" s="17">
-        <v>1</v>
-      </c>
-      <c r="K27" s="17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="2:20" x14ac:dyDescent="0.3">
-      <c r="H28" s="17" t="s">
-        <v>26</v>
-      </c>
-      <c r="I28" s="20">
-        <v>1</v>
-      </c>
-      <c r="J28" s="17">
-        <v>0</v>
-      </c>
-      <c r="K28" s="17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="2:20" x14ac:dyDescent="0.3">
-      <c r="H29" s="17" t="s">
-        <v>25</v>
-      </c>
-      <c r="I29" s="20">
-        <v>1</v>
-      </c>
-      <c r="J29" s="17">
-        <v>0</v>
-      </c>
-      <c r="K29" s="17">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="30" spans="2:20" x14ac:dyDescent="0.3">
-      <c r="H30" s="17" t="s">
-        <v>24</v>
-      </c>
-      <c r="I30" s="20">
-        <v>1</v>
-      </c>
-      <c r="J30" s="17">
-        <v>0</v>
-      </c>
-      <c r="K30" s="17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="2:20" x14ac:dyDescent="0.3">
-      <c r="H31" s="17" t="s">
-        <v>23</v>
-      </c>
-      <c r="I31" s="20">
-        <v>1</v>
-      </c>
-      <c r="J31" s="17">
-        <v>1</v>
-      </c>
-      <c r="K31" s="17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="8:14" x14ac:dyDescent="0.3">
-      <c r="H34" s="19" t="s">
-        <v>34</v>
-      </c>
-      <c r="I34" s="20" t="s">
-        <v>29</v>
-      </c>
-      <c r="J34" s="20" t="s">
-        <v>30</v>
-      </c>
-      <c r="K34" s="20" t="s">
-        <v>31</v>
-      </c>
-      <c r="L34" s="21" t="s">
-        <v>37</v>
-      </c>
-      <c r="M34" s="21" t="s">
-        <v>38</v>
-      </c>
-      <c r="N34" s="21" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="35" spans="8:14" x14ac:dyDescent="0.3">
-      <c r="H35" s="17" t="s">
-        <v>27</v>
-      </c>
-      <c r="I35" s="17">
-        <v>0</v>
-      </c>
-      <c r="J35" s="17">
-        <v>1</v>
-      </c>
-      <c r="K35" s="17">
-        <v>0</v>
-      </c>
-      <c r="L35" s="22" t="s">
-        <v>25</v>
-      </c>
-      <c r="M35" s="22" t="s">
-        <v>27</v>
-      </c>
-      <c r="N35" s="22" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="36" spans="8:14" x14ac:dyDescent="0.3">
-      <c r="H36" s="17" t="s">
-        <v>28</v>
-      </c>
-      <c r="I36" s="17">
-        <v>0</v>
-      </c>
-      <c r="J36" s="17">
-        <v>1</v>
-      </c>
-      <c r="K36" s="17">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="37" spans="8:14" x14ac:dyDescent="0.3">
-      <c r="H37" s="17" t="s">
-        <v>25</v>
-      </c>
-      <c r="I37" s="17">
-        <v>1</v>
-      </c>
-      <c r="J37" s="17">
-        <v>0</v>
-      </c>
-      <c r="K37" s="17">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="38" spans="8:14" x14ac:dyDescent="0.3">
-      <c r="H38" s="17" t="s">
-        <v>26</v>
-      </c>
-      <c r="I38" s="17">
-        <v>1</v>
-      </c>
-      <c r="J38" s="17">
-        <v>0</v>
-      </c>
-      <c r="K38" s="17">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="39" spans="8:14" x14ac:dyDescent="0.3">
-      <c r="H39" s="17" t="s">
-        <v>24</v>
-      </c>
-      <c r="I39" s="17">
-        <v>1</v>
-      </c>
-      <c r="J39" s="17">
-        <v>0</v>
-      </c>
-      <c r="K39" s="17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="8:14" x14ac:dyDescent="0.3">
-      <c r="H40" s="17" t="s">
-        <v>23</v>
-      </c>
-      <c r="I40" s="17">
-        <v>1</v>
-      </c>
-      <c r="J40" s="17">
-        <v>1</v>
-      </c>
-      <c r="K40" s="17">
-        <v>0</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="3">
-    <mergeCell ref="H14:N14"/>
-    <mergeCell ref="Q14:T14"/>
-    <mergeCell ref="C14:F14"/>
+    <mergeCell ref="C35:F35"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/week_4_DataIntegration/Excel_support.xlsx
+++ b/week_4_DataIntegration/Excel_support.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hansf\Documents\GitHub\ADS\week_4_DataIntegration\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8015A1E-BF96-4D79-B3AB-BE9F7FBBB023}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0986B557-9F75-4FA9-BB73-344BFE30C7EF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{851A08EE-D487-4A13-AE74-306108EDED72}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{851A08EE-D487-4A13-AE74-306108EDED72}"/>
   </bookViews>
   <sheets>
     <sheet name="Edit_Distance" sheetId="1" r:id="rId1"/>
@@ -36,10 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="349" uniqueCount="63">
-  <si>
-    <t>Fract</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="363" uniqueCount="71">
   <si>
     <t>S1</t>
   </si>
@@ -47,9 +44,6 @@
     <t>S2</t>
   </si>
   <si>
-    <t>1&amp;2</t>
-  </si>
-  <si>
     <t>Factor</t>
   </si>
   <si>
@@ -225,6 +219,36 @@
   </si>
   <si>
     <t xml:space="preserve"> 3 - 4</t>
+  </si>
+  <si>
+    <t>JARO Similarity</t>
+  </si>
+  <si>
+    <t>Jaro Wrinkler</t>
+  </si>
+  <si>
+    <t>Jwsim</t>
+  </si>
+  <si>
+    <t>P</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Jsim + P  * L  * ( 1 - Jsim)</t>
+  </si>
+  <si>
+    <t>L</t>
+  </si>
+  <si>
+    <t>Scalling, default 0.1</t>
+  </si>
+  <si>
+    <t>Lenth of common chars</t>
+  </si>
+  <si>
+    <t>Result</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> A N B</t>
   </si>
 </sst>
 </file>
@@ -233,7 +257,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.000"/>
-    <numFmt numFmtId="168" formatCode="0.0000"/>
+    <numFmt numFmtId="165" formatCode="0.0000"/>
   </numFmts>
   <fonts count="5" x14ac:knownFonts="1">
     <font>
@@ -274,7 +298,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -320,6 +344,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -386,7 +416,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -446,10 +476,7 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -475,6 +502,11 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3683,153 +3715,165 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E768CFA-033A-47C7-9B97-372C59FFF6D8}">
-  <dimension ref="C2:AI50"/>
+  <dimension ref="B2:AI50"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="H1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="AB8" sqref="AB8"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A9" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="C19" sqref="C19:S36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="2" spans="3:30" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:30" x14ac:dyDescent="0.3">
+      <c r="B2" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="E2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F2" t="s">
+        <v>18</v>
+      </c>
       <c r="L2" t="s">
-        <v>21</v>
-      </c>
-      <c r="M2" t="s">
-        <v>20</v>
+        <v>62</v>
+      </c>
+      <c r="N2" t="s">
+        <v>19</v>
+      </c>
+      <c r="O2" t="s">
+        <v>18</v>
       </c>
       <c r="T2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="U2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="AA2" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="3" spans="3:30" x14ac:dyDescent="0.3">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="3" spans="2:30" x14ac:dyDescent="0.3">
+      <c r="E3" t="s">
+        <v>70</v>
+      </c>
       <c r="AA3" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="4" spans="3:30" x14ac:dyDescent="0.3">
-      <c r="C4" t="s">
-        <v>0</v>
-      </c>
-      <c r="D4" t="s">
-        <v>1</v>
-      </c>
-      <c r="E4" t="s">
-        <v>2</v>
-      </c>
-      <c r="N4" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="O4" s="3">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="4" spans="2:30" x14ac:dyDescent="0.3">
+      <c r="G4" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="H4" s="3">
         <v>3</v>
       </c>
+      <c r="P4" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q4" s="3">
+        <v>3</v>
+      </c>
       <c r="V4" s="7" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="W4" s="3">
         <v>0</v>
       </c>
       <c r="AB4" s="7" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="AC4" s="3">
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="3:30" x14ac:dyDescent="0.3">
-      <c r="C5" s="1">
+    <row r="6" spans="2:30" x14ac:dyDescent="0.3">
+      <c r="E6" t="s">
+        <v>2</v>
+      </c>
+      <c r="F6" t="s">
+        <v>0</v>
+      </c>
+      <c r="G6" t="s">
+        <v>1</v>
+      </c>
+      <c r="H6" t="s">
+        <v>4</v>
+      </c>
+      <c r="N6" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="O6" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="P6" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q6" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="R6" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="T6" t="s">
+        <v>2</v>
+      </c>
+      <c r="U6" t="s">
+        <v>0</v>
+      </c>
+      <c r="V6" t="s">
+        <v>1</v>
+      </c>
+      <c r="W6" t="s">
+        <v>4</v>
+      </c>
+      <c r="Z6" t="s">
+        <v>2</v>
+      </c>
+      <c r="AA6" t="s">
+        <v>0</v>
+      </c>
+      <c r="AB6" t="s">
+        <v>1</v>
+      </c>
+      <c r="AC6" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="2:30" x14ac:dyDescent="0.3">
+      <c r="E7">
         <f>1/3</f>
         <v>0.33333333333333331</v>
       </c>
-      <c r="D5">
-        <f>4/5+4/5</f>
-        <v>1.6</v>
-      </c>
-      <c r="E5">
-        <f>3.5/5</f>
-        <v>0.7</v>
-      </c>
-      <c r="G5" s="1">
-        <f>SUM(D5:E5)</f>
-        <v>2.2999999999999998</v>
-      </c>
-      <c r="H5">
-        <f>C5*G5</f>
-        <v>0.76666666666666661</v>
-      </c>
-    </row>
-    <row r="6" spans="3:30" x14ac:dyDescent="0.3">
-      <c r="L6" t="s">
+      <c r="F7">
         <v>4</v>
       </c>
-      <c r="M6" t="s">
-        <v>1</v>
-      </c>
-      <c r="N6" t="s">
-        <v>2</v>
-      </c>
-      <c r="O6" t="s">
-        <v>6</v>
-      </c>
-      <c r="T6" t="s">
+      <c r="G7">
         <v>4</v>
       </c>
-      <c r="U6" t="s">
-        <v>1</v>
-      </c>
-      <c r="V6" t="s">
-        <v>2</v>
-      </c>
-      <c r="W6" t="s">
-        <v>6</v>
-      </c>
-      <c r="Z6" t="s">
-        <v>4</v>
-      </c>
-      <c r="AA6" t="s">
-        <v>1</v>
-      </c>
-      <c r="AB6" t="s">
-        <v>2</v>
-      </c>
-      <c r="AC6" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="7" spans="3:30" x14ac:dyDescent="0.3">
-      <c r="D7">
-        <v>4</v>
-      </c>
-      <c r="E7">
-        <f>3/2</f>
-        <v>1.5</v>
-      </c>
-      <c r="G7">
-        <f>+D7-E7</f>
+      <c r="H7">
+        <f>F7-(H4/2)</f>
         <v>2.5</v>
       </c>
-      <c r="L7">
+      <c r="I7" s="1">
+        <f>((F7/F8)+(G7/G8)+(H7/H8))*E7</f>
+        <v>0.7416666666666667</v>
+      </c>
+      <c r="N7">
         <f>1/3</f>
         <v>0.33333333333333331</v>
       </c>
-      <c r="M7">
+      <c r="O7">
         <v>4</v>
       </c>
-      <c r="N7">
+      <c r="P7">
         <v>4</v>
       </c>
-      <c r="O7">
-        <f>M7-(O4/2)</f>
+      <c r="Q7">
+        <f>O7-(Q4/2)</f>
         <v>2.5</v>
       </c>
-      <c r="P7" s="1">
-        <f>((M7/M8)+(N7/N8)+(O7/O8))*L7</f>
+      <c r="R7" s="43">
+        <f>((O7/O8)+(P7/P8)+(Q7/Q8))*N7</f>
         <v>0.7416666666666667</v>
       </c>
       <c r="T7">
@@ -3869,18 +3913,23 @@
         <v>0.52729044834307992</v>
       </c>
     </row>
-    <row r="8" spans="3:30" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:30" x14ac:dyDescent="0.3">
+      <c r="F8">
+        <v>5</v>
+      </c>
       <c r="G8">
-        <f>G7/5</f>
-        <v>0.5</v>
-      </c>
-      <c r="M8">
-        <v>5</v>
-      </c>
-      <c r="N8">
-        <v>5</v>
+        <v>5</v>
+      </c>
+      <c r="H8">
+        <v>4</v>
       </c>
       <c r="O8">
+        <v>5</v>
+      </c>
+      <c r="P8">
+        <v>5</v>
+      </c>
+      <c r="Q8">
         <v>4</v>
       </c>
       <c r="U8">
@@ -3902,458 +3951,453 @@
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="3:30" x14ac:dyDescent="0.3">
-      <c r="D10">
-        <f>(D5+E5+G8)*C5</f>
-        <v>0.93333333333333324</v>
-      </c>
-    </row>
-    <row r="13" spans="3:30" x14ac:dyDescent="0.3">
-      <c r="C13" t="e">
-        <f>#REF!*B13</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="14" spans="3:30" x14ac:dyDescent="0.3">
-      <c r="D14">
-        <v>1</v>
-      </c>
-      <c r="E14">
-        <v>2</v>
-      </c>
-      <c r="G14" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="15" spans="3:30" x14ac:dyDescent="0.3">
-      <c r="C15">
-        <f>1/3</f>
-        <v>0.33333333333333331</v>
-      </c>
-      <c r="D15">
-        <f>4/5</f>
-        <v>0.8</v>
-      </c>
-      <c r="E15">
-        <f>4/5</f>
-        <v>0.8</v>
-      </c>
-      <c r="G15">
-        <f>3/5</f>
-        <v>0.6</v>
-      </c>
-      <c r="H15" s="1">
-        <f>SUM(D15:G15)*C15</f>
-        <v>0.73333333333333339</v>
+    <row r="10" spans="2:30" x14ac:dyDescent="0.3">
+      <c r="L10" t="s">
+        <v>63</v>
+      </c>
+      <c r="M10" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="12" spans="2:30" x14ac:dyDescent="0.3">
+      <c r="M12" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="N12" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="O12" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="13" spans="2:30" x14ac:dyDescent="0.3">
+      <c r="M13" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="N13" s="3">
+        <v>0</v>
+      </c>
+      <c r="O13" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="15" spans="2:30" x14ac:dyDescent="0.3">
+      <c r="H15" s="1"/>
+      <c r="M15" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="N15" s="42">
+        <f>R7+(N12*N13*(1-R7))</f>
+        <v>0.7416666666666667</v>
       </c>
     </row>
     <row r="19" spans="3:35" x14ac:dyDescent="0.3">
       <c r="E19" s="7" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="V19" s="7" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="W19" s="7" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="20" spans="3:35" x14ac:dyDescent="0.3">
       <c r="C20" s="7" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="G20" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="H20" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="I20" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="J20" t="s">
+        <v>6</v>
+      </c>
+      <c r="K20" t="s">
+        <v>11</v>
+      </c>
+      <c r="L20" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="M20" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="N20" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="H20" s="5" t="s">
+      <c r="O20" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="I20" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="J20" t="s">
+      <c r="P20" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q20" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="R20" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="T20" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="X20" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y20" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="Z20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="AA20" t="s">
+        <v>5</v>
+      </c>
+      <c r="AB20" t="s">
+        <v>6</v>
+      </c>
+      <c r="AC20" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="AD20" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="K20" t="s">
-        <v>13</v>
-      </c>
-      <c r="L20" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="M20" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="N20" s="5" t="s">
+      <c r="AE20" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="O20" s="5" t="s">
+      <c r="AF20" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="P20" s="5" t="s">
+      <c r="AG20" s="5" t="s">
         <v>11</v>
-      </c>
-      <c r="Q20" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="R20" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="T20" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="X20" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="Y20" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="Z20" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AA20" t="s">
-        <v>7</v>
-      </c>
-      <c r="AB20" t="s">
-        <v>8</v>
-      </c>
-      <c r="AC20" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="AD20" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="AE20" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="AF20" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="AG20" s="5" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="21" spans="3:35" x14ac:dyDescent="0.3">
       <c r="C21" s="9" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D21" s="8">
         <v>1</v>
       </c>
       <c r="E21" s="11" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F21" s="8">
         <v>2</v>
       </c>
       <c r="G21" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="H21" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="I21" s="3" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="J21" s="6" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="K21" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="L21" s="4"/>
       <c r="M21" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="N21" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="O21" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="P21" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q21" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="N21" s="5" t="s">
+      <c r="R21" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="S21" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="T21" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="U21" s="8">
+        <v>1</v>
+      </c>
+      <c r="V21" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="W21" s="8">
+        <v>1</v>
+      </c>
+      <c r="X21" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y21" t="s">
+        <v>6</v>
+      </c>
+      <c r="Z21" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="AA21" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="AB21" t="s">
+        <v>6</v>
+      </c>
+      <c r="AC21" t="s">
         <v>7</v>
       </c>
-      <c r="O21" s="5" t="s">
+      <c r="AD21" t="s">
+        <v>8</v>
+      </c>
+      <c r="AE21" t="s">
         <v>9</v>
       </c>
-      <c r="P21" s="5" t="s">
+      <c r="AF21" t="s">
         <v>10</v>
       </c>
-      <c r="Q21" s="5" t="s">
+      <c r="AG21" t="s">
         <v>11</v>
-      </c>
-      <c r="R21" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="S21" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="T21" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="U21" s="8">
-        <v>1</v>
-      </c>
-      <c r="V21" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="W21" s="8">
-        <v>1</v>
-      </c>
-      <c r="X21" t="s">
-        <v>7</v>
-      </c>
-      <c r="Y21" t="s">
-        <v>8</v>
-      </c>
-      <c r="Z21" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="AA21" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="AB21" t="s">
-        <v>8</v>
-      </c>
-      <c r="AC21" t="s">
-        <v>9</v>
-      </c>
-      <c r="AD21" t="s">
-        <v>10</v>
-      </c>
-      <c r="AE21" t="s">
-        <v>11</v>
-      </c>
-      <c r="AF21" t="s">
-        <v>12</v>
-      </c>
-      <c r="AG21" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="22" spans="3:35" x14ac:dyDescent="0.3">
       <c r="C22" s="10" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D22" s="8">
         <v>1</v>
       </c>
       <c r="E22" s="10" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F22" s="8">
         <v>1</v>
       </c>
       <c r="G22" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="H22" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="I22" t="s">
+        <v>3</v>
+      </c>
+      <c r="J22" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="K22" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="L22" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="H22" s="5" t="s">
+      <c r="M22" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="I22" t="s">
-        <v>5</v>
-      </c>
-      <c r="J22" s="5" t="s">
+      <c r="N22" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="O22" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="P22" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="T22" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="U22" s="8">
+        <v>1</v>
+      </c>
+      <c r="V22" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="W22" s="8">
+        <v>1</v>
+      </c>
+      <c r="X22" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y22" t="s">
+        <v>6</v>
+      </c>
+      <c r="Z22" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="AA22" t="s">
+        <v>6</v>
+      </c>
+      <c r="AB22" t="s">
         <v>7</v>
       </c>
-      <c r="K22" s="5" t="s">
+      <c r="AC22" t="s">
         <v>8</v>
       </c>
-      <c r="L22" s="5" t="s">
+      <c r="AD22" t="s">
         <v>9</v>
       </c>
-      <c r="M22" s="5" t="s">
+      <c r="AE22" t="s">
         <v>10</v>
       </c>
-      <c r="N22" s="5" t="s">
+      <c r="AF22" t="s">
         <v>11</v>
-      </c>
-      <c r="O22" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="P22" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="T22" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="U22" s="8">
-        <v>1</v>
-      </c>
-      <c r="V22" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="W22" s="8">
-        <v>1</v>
-      </c>
-      <c r="X22" t="s">
-        <v>7</v>
-      </c>
-      <c r="Y22" t="s">
-        <v>8</v>
-      </c>
-      <c r="Z22" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="AA22" t="s">
-        <v>8</v>
-      </c>
-      <c r="AB22" t="s">
-        <v>9</v>
-      </c>
-      <c r="AC22" t="s">
-        <v>10</v>
-      </c>
-      <c r="AD22" t="s">
-        <v>11</v>
-      </c>
-      <c r="AE22" t="s">
-        <v>12</v>
-      </c>
-      <c r="AF22" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="23" spans="3:35" x14ac:dyDescent="0.3">
       <c r="C23" s="11" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D23" s="8">
         <v>1</v>
       </c>
       <c r="E23" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="F23" s="8">
+        <v>1</v>
+      </c>
+      <c r="T23" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="U23" s="8">
+        <v>1</v>
+      </c>
+      <c r="V23" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="W23" s="8">
+        <v>1</v>
+      </c>
+      <c r="X23" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y23" t="s">
+        <v>6</v>
+      </c>
+      <c r="Z23" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="AA23" t="s">
+        <v>6</v>
+      </c>
+      <c r="AB23" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="F23" s="8">
-        <v>1</v>
-      </c>
-      <c r="T23" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="U23" s="8">
-        <v>1</v>
-      </c>
-      <c r="V23" s="9" t="s">
+      <c r="AC23" t="s">
+        <v>7</v>
+      </c>
+      <c r="AD23" t="s">
+        <v>8</v>
+      </c>
+      <c r="AE23" t="s">
+        <v>9</v>
+      </c>
+      <c r="AF23" t="s">
+        <v>10</v>
+      </c>
+      <c r="AG23" t="s">
         <v>11</v>
-      </c>
-      <c r="W23" s="8">
-        <v>1</v>
-      </c>
-      <c r="X23" t="s">
-        <v>7</v>
-      </c>
-      <c r="Y23" t="s">
-        <v>8</v>
-      </c>
-      <c r="Z23" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="AA23" t="s">
-        <v>8</v>
-      </c>
-      <c r="AB23" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="AC23" t="s">
-        <v>9</v>
-      </c>
-      <c r="AD23" t="s">
-        <v>10</v>
-      </c>
-      <c r="AE23" t="s">
-        <v>11</v>
-      </c>
-      <c r="AF23" t="s">
-        <v>12</v>
-      </c>
-      <c r="AG23" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="24" spans="3:35" x14ac:dyDescent="0.3">
       <c r="E24" s="9"/>
       <c r="F24" s="8"/>
       <c r="V24" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="W24" s="8">
+        <v>1</v>
+      </c>
+      <c r="X24" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y24" t="s">
+        <v>6</v>
+      </c>
+      <c r="Z24" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="AA24" t="s">
+        <v>6</v>
+      </c>
+      <c r="AB24" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="W24" s="8">
-        <v>1</v>
-      </c>
-      <c r="X24" t="s">
+      <c r="AC24" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="AD24" t="s">
         <v>7</v>
       </c>
-      <c r="Y24" t="s">
+      <c r="AE24" t="s">
         <v>8</v>
       </c>
-      <c r="Z24" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="AA24" t="s">
-        <v>8</v>
-      </c>
-      <c r="AB24" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="AC24" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="AD24" t="s">
+      <c r="AF24" t="s">
         <v>9</v>
       </c>
-      <c r="AE24" t="s">
+      <c r="AG24" t="s">
         <v>10</v>
       </c>
-      <c r="AF24" t="s">
+      <c r="AH24" t="s">
         <v>11</v>
-      </c>
-      <c r="AG24" t="s">
-        <v>12</v>
-      </c>
-      <c r="AH24" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="25" spans="3:35" x14ac:dyDescent="0.3">
       <c r="E25" s="9"/>
       <c r="F25" s="8"/>
       <c r="V25" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="W25" s="8">
+        <v>1</v>
+      </c>
+      <c r="X25" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y25" t="s">
+        <v>6</v>
+      </c>
+      <c r="Z25" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="AA25" t="s">
+        <v>6</v>
+      </c>
+      <c r="AB25" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="W25" s="8">
-        <v>1</v>
-      </c>
-      <c r="X25" t="s">
+      <c r="AC25" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="AD25" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="AE25" t="s">
         <v>7</v>
       </c>
-      <c r="Y25" t="s">
+      <c r="AF25" t="s">
         <v>8</v>
       </c>
-      <c r="Z25" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="AA25" t="s">
-        <v>8</v>
-      </c>
-      <c r="AB25" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="AC25" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="AD25" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="AE25" t="s">
+      <c r="AG25" t="s">
         <v>9</v>
       </c>
-      <c r="AF25" t="s">
+      <c r="AH25" t="s">
         <v>10</v>
       </c>
-      <c r="AG25" t="s">
+      <c r="AI25" t="s">
         <v>11</v>
-      </c>
-      <c r="AH25" t="s">
-        <v>12</v>
-      </c>
-      <c r="AI25" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="26" spans="3:35" x14ac:dyDescent="0.3">
@@ -4366,198 +4410,198 @@
         <v>5</v>
       </c>
       <c r="X26" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y26" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="Z26" t="s">
+        <v>12</v>
+      </c>
+      <c r="AA26" t="s">
+        <v>6</v>
+      </c>
+      <c r="AB26" t="s">
+        <v>11</v>
+      </c>
+      <c r="AC26" t="s">
+        <v>6</v>
+      </c>
+      <c r="AD26" t="s">
+        <v>5</v>
+      </c>
+      <c r="AE26" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="Y26" s="5" t="s">
+      <c r="AF26" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="Z26" t="s">
-        <v>14</v>
-      </c>
-      <c r="AA26" t="s">
-        <v>8</v>
-      </c>
-      <c r="AB26" t="s">
-        <v>13</v>
-      </c>
-      <c r="AC26" t="s">
-        <v>8</v>
-      </c>
-      <c r="AD26" t="s">
-        <v>7</v>
-      </c>
-      <c r="AE26" s="5" t="s">
+      <c r="AG26" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="AF26" s="5" t="s">
+      <c r="AH26" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="AG26" s="5" t="s">
+      <c r="AI26" s="5" t="s">
         <v>11</v>
-      </c>
-      <c r="AH26" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="AI26" s="5" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="29" spans="3:35" x14ac:dyDescent="0.3">
       <c r="E29" s="7" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="30" spans="3:35" x14ac:dyDescent="0.3">
       <c r="C30" s="7" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="G30" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="H30" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="I30" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="J30" t="s">
+        <v>6</v>
+      </c>
+      <c r="K30" t="s">
+        <v>11</v>
+      </c>
+      <c r="L30" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="M30" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="N30" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="H30" s="5" t="s">
+      <c r="O30" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="I30" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="J30" t="s">
-        <v>8</v>
-      </c>
-      <c r="K30" t="s">
-        <v>13</v>
-      </c>
-      <c r="L30" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="M30" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="N30" s="5" t="s">
+      <c r="P30" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="O30" s="5" t="s">
+      <c r="Q30" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="P30" s="5" t="s">
+      <c r="R30" s="5" t="s">
         <v>11</v>
-      </c>
-      <c r="Q30" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="R30" s="5" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="31" spans="3:35" x14ac:dyDescent="0.3">
       <c r="C31" s="9" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D31" s="8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E31" s="11" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F31" s="8">
         <v>4</v>
       </c>
       <c r="G31" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="H31" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="I31" s="3" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="J31" s="6" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="K31" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="L31" s="4"/>
       <c r="M31" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="N31" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="O31" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="P31" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q31" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="N31" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="O31" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="P31" s="5" t="s">
+      <c r="R31" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="Q31" s="5" t="s">
+      <c r="S31" s="5" t="s">
         <v>11</v>
-      </c>
-      <c r="R31" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="S31" s="5" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="32" spans="3:35" x14ac:dyDescent="0.3">
       <c r="C32" s="10" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D32" s="8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E32" s="10" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F32" s="8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G32" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="H32" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="I32" t="s">
+        <v>3</v>
+      </c>
+      <c r="J32" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="K32" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="L32" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="H32" s="5" t="s">
+      <c r="M32" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="I32" t="s">
-        <v>5</v>
-      </c>
-      <c r="J32" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="K32" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="L32" s="5" t="s">
+      <c r="N32" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="M32" s="5" t="s">
+      <c r="O32" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="N32" s="5" t="s">
+      <c r="P32" s="5" t="s">
         <v>11</v>
-      </c>
-      <c r="O32" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="P32" s="5" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="33" spans="3:18" x14ac:dyDescent="0.3">
       <c r="C33" s="11" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D33" s="8">
         <v>2</v>
       </c>
       <c r="E33" s="9" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="F33" s="8">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="34" spans="3:18" x14ac:dyDescent="0.3">
@@ -4571,61 +4615,61 @@
     <row r="36" spans="3:18" x14ac:dyDescent="0.3">
       <c r="F36" s="12">
         <f>SUM(F31:F35)</f>
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="41" spans="3:18" x14ac:dyDescent="0.3">
       <c r="E41" s="7" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="F41" s="7" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="42" spans="3:18" x14ac:dyDescent="0.3">
       <c r="C42" s="7" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I42" s="13" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="J42" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="K42" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="L42" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="K42" s="13" t="s">
+      <c r="M42" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="L42" s="5" t="s">
+      <c r="N42" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="M42" s="5" t="s">
+      <c r="O42" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="N42" s="5" t="s">
+      <c r="P42" s="5" t="s">
         <v>11</v>
-      </c>
-      <c r="O42" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="P42" s="5" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="43" spans="3:18" x14ac:dyDescent="0.3">
       <c r="C43" s="9" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D43" s="8">
         <v>1</v>
       </c>
       <c r="E43" s="9" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="F43" s="8">
         <v>1</v>
       </c>
       <c r="G43" s="9" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="I43" s="13"/>
       <c r="J43" s="13"/>
@@ -4640,19 +4684,19 @@
     </row>
     <row r="44" spans="3:18" x14ac:dyDescent="0.3">
       <c r="C44" s="10" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D44" s="8">
         <v>1</v>
       </c>
       <c r="E44" s="9" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="F44" s="8">
         <v>1</v>
       </c>
       <c r="H44" s="9" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="I44" s="13"/>
       <c r="J44" s="13"/>
@@ -4667,13 +4711,13 @@
     </row>
     <row r="45" spans="3:18" x14ac:dyDescent="0.3">
       <c r="C45" s="11" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D45" s="8">
         <v>1</v>
       </c>
       <c r="E45" s="11" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F45" s="8">
         <v>1</v>
@@ -4681,7 +4725,7 @@
       <c r="G45" s="13"/>
       <c r="H45" s="13"/>
       <c r="I45" s="3" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="J45" s="13"/>
       <c r="K45" s="13"/>
@@ -4695,7 +4739,7 @@
     </row>
     <row r="46" spans="3:18" x14ac:dyDescent="0.3">
       <c r="E46" s="11" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F46" s="8">
         <v>1</v>
@@ -4704,7 +4748,7 @@
       <c r="H46" s="13"/>
       <c r="I46" s="13"/>
       <c r="J46" s="3" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="K46" s="13"/>
       <c r="L46" s="13"/>
@@ -4717,7 +4761,7 @@
     </row>
     <row r="47" spans="3:18" x14ac:dyDescent="0.3">
       <c r="E47" s="11" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F47" s="8">
         <v>1</v>
@@ -4727,7 +4771,7 @@
       <c r="I47" s="13"/>
       <c r="J47" s="13"/>
       <c r="K47" s="3" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="L47" s="13"/>
       <c r="M47" s="13"/>
@@ -4749,34 +4793,34 @@
         <v>5</v>
       </c>
       <c r="I50" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="J50" t="s">
+        <v>6</v>
+      </c>
+      <c r="K50" t="s">
+        <v>11</v>
+      </c>
+      <c r="L50" t="s">
+        <v>6</v>
+      </c>
+      <c r="M50" t="s">
+        <v>5</v>
+      </c>
+      <c r="N50" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="O50" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="K50" t="s">
-        <v>13</v>
-      </c>
-      <c r="L50" t="s">
-        <v>8</v>
-      </c>
-      <c r="M50" t="s">
-        <v>7</v>
-      </c>
-      <c r="N50" s="5" t="s">
+      <c r="P50" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="O50" s="5" t="s">
+      <c r="Q50" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="P50" s="5" t="s">
+      <c r="R50" s="5" t="s">
         <v>11</v>
-      </c>
-      <c r="Q50" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="R50" s="5" t="s">
-        <v>13</v>
       </c>
     </row>
   </sheetData>
@@ -4799,508 +4843,508 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B2" s="32" t="s">
-        <v>46</v>
+      <c r="B2" s="31" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="4" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C4" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D4" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E4" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="5" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B5" s="31">
+      <c r="B5" s="30">
         <v>0.1</v>
       </c>
-      <c r="C5" s="31">
+      <c r="C5" s="30">
         <v>10</v>
       </c>
-      <c r="D5" s="31">
+      <c r="D5" s="30">
         <v>3</v>
       </c>
-      <c r="E5" s="30">
+      <c r="E5" s="29">
         <f>1-(1-B5^D5)^C5</f>
         <v>9.9551197902516542E-3</v>
       </c>
     </row>
     <row r="6" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B6" s="31">
+      <c r="B6" s="30">
         <v>0.2</v>
       </c>
-      <c r="C6" s="31">
+      <c r="C6" s="30">
         <v>10</v>
       </c>
-      <c r="D6" s="31">
+      <c r="D6" s="30">
         <v>3</v>
       </c>
-      <c r="E6" s="30">
+      <c r="E6" s="29">
         <f t="shared" ref="E6:E14" si="0">1-(1-B6^D6)^C6</f>
         <v>7.7180588042736975E-2</v>
       </c>
     </row>
     <row r="7" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B7" s="31">
+      <c r="B7" s="30">
         <v>0.3</v>
       </c>
-      <c r="C7" s="31">
+      <c r="C7" s="30">
         <v>10</v>
       </c>
-      <c r="D7" s="31">
+      <c r="D7" s="30">
         <v>3</v>
       </c>
-      <c r="E7" s="30">
+      <c r="E7" s="29">
         <f t="shared" si="0"/>
         <v>0.23944889319887064</v>
       </c>
     </row>
     <row r="8" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B8" s="31">
+      <c r="B8" s="30">
         <v>0.4</v>
       </c>
-      <c r="C8" s="31">
+      <c r="C8" s="30">
         <v>10</v>
       </c>
-      <c r="D8" s="31">
+      <c r="D8" s="30">
         <v>3</v>
       </c>
-      <c r="E8" s="30">
+      <c r="E8" s="29">
         <f t="shared" si="0"/>
         <v>0.48387073176773232</v>
       </c>
     </row>
     <row r="9" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B9" s="31">
+      <c r="B9" s="30">
         <v>0.5</v>
       </c>
-      <c r="C9" s="31">
+      <c r="C9" s="30">
         <v>10</v>
       </c>
-      <c r="D9" s="31">
+      <c r="D9" s="30">
         <v>3</v>
       </c>
-      <c r="E9" s="30">
+      <c r="E9" s="29">
         <f t="shared" si="0"/>
         <v>0.73692442383617163</v>
       </c>
     </row>
     <row r="10" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B10" s="31">
+      <c r="B10" s="30">
         <v>0.6</v>
       </c>
-      <c r="C10" s="31">
+      <c r="C10" s="30">
         <v>10</v>
       </c>
-      <c r="D10" s="31">
+      <c r="D10" s="30">
         <v>3</v>
       </c>
-      <c r="E10" s="30">
+      <c r="E10" s="29">
         <f t="shared" si="0"/>
         <v>0.91226747539917652</v>
       </c>
     </row>
     <row r="11" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B11" s="31">
+      <c r="B11" s="30">
         <v>0.7</v>
       </c>
-      <c r="C11" s="31">
+      <c r="C11" s="30">
         <v>10</v>
       </c>
-      <c r="D11" s="31">
+      <c r="D11" s="30">
         <v>3</v>
       </c>
-      <c r="E11" s="30">
+      <c r="E11" s="29">
         <f t="shared" si="0"/>
         <v>0.98501510529565495</v>
       </c>
     </row>
     <row r="12" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B12" s="31">
+      <c r="B12" s="30">
         <v>0.8</v>
       </c>
-      <c r="C12" s="31">
+      <c r="C12" s="30">
         <v>10</v>
       </c>
-      <c r="D12" s="31">
+      <c r="D12" s="30">
         <v>3</v>
       </c>
-      <c r="E12" s="30">
+      <c r="E12" s="29">
         <f t="shared" si="0"/>
         <v>0.99923405388089359</v>
       </c>
     </row>
     <row r="13" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B13" s="31">
+      <c r="B13" s="30">
         <v>0.9</v>
       </c>
-      <c r="C13" s="31">
+      <c r="C13" s="30">
         <v>10</v>
       </c>
-      <c r="D13" s="31">
+      <c r="D13" s="30">
         <v>3</v>
       </c>
-      <c r="E13" s="30">
+      <c r="E13" s="29">
         <f t="shared" si="0"/>
         <v>0.99999786354913711</v>
       </c>
     </row>
     <row r="14" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B14" s="31">
-        <v>1</v>
-      </c>
-      <c r="C14" s="31">
+      <c r="B14" s="30">
+        <v>1</v>
+      </c>
+      <c r="C14" s="30">
         <v>10</v>
       </c>
-      <c r="D14" s="31">
+      <c r="D14" s="30">
         <v>3</v>
       </c>
-      <c r="E14" s="30">
+      <c r="E14" s="29">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
     <row r="21" spans="2:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B21" s="32" t="s">
-        <v>46</v>
+      <c r="B21" s="31" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="23" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B23" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C23" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D23" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E23" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="24" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B24" s="31">
+      <c r="B24" s="30">
         <v>0.1</v>
       </c>
-      <c r="C24" s="31">
+      <c r="C24" s="30">
         <v>20</v>
       </c>
-      <c r="D24" s="31">
+      <c r="D24" s="30">
         <v>6</v>
       </c>
-      <c r="E24" s="30">
+      <c r="E24" s="29">
         <f>1-(1-B24^D24)^C24</f>
         <v>1.9999810001669616E-5</v>
       </c>
     </row>
     <row r="25" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B25" s="31">
+      <c r="B25" s="30">
         <v>0.2</v>
       </c>
-      <c r="C25" s="31">
+      <c r="C25" s="30">
         <v>20</v>
       </c>
-      <c r="D25" s="31">
+      <c r="D25" s="30">
         <v>6</v>
       </c>
-      <c r="E25" s="30">
+      <c r="E25" s="29">
         <f t="shared" ref="E25:E33" si="1">1-(1-B25^D25)^C25</f>
         <v>1.2792220587620751E-3</v>
       </c>
     </row>
     <row r="26" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B26" s="31">
+      <c r="B26" s="30">
         <v>0.3</v>
       </c>
-      <c r="C26" s="31">
+      <c r="C26" s="30">
         <v>20</v>
       </c>
-      <c r="D26" s="31">
+      <c r="D26" s="30">
         <v>6</v>
       </c>
-      <c r="E26" s="30">
+      <c r="E26" s="29">
         <f t="shared" si="1"/>
         <v>1.4479466504172422E-2</v>
       </c>
     </row>
     <row r="27" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B27" s="31">
+      <c r="B27" s="30">
         <v>0.4</v>
       </c>
-      <c r="C27" s="31">
+      <c r="C27" s="30">
         <v>20</v>
       </c>
-      <c r="D27" s="31">
+      <c r="D27" s="30">
         <v>6</v>
       </c>
-      <c r="E27" s="30">
+      <c r="E27" s="29">
         <f t="shared" si="1"/>
         <v>7.8809323110562213E-2</v>
       </c>
     </row>
     <row r="28" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B28" s="31">
+      <c r="B28" s="30">
         <v>0.5</v>
       </c>
-      <c r="C28" s="31">
+      <c r="C28" s="30">
         <v>20</v>
       </c>
-      <c r="D28" s="31">
+      <c r="D28" s="30">
         <v>6</v>
       </c>
-      <c r="E28" s="30">
+      <c r="E28" s="29">
         <f t="shared" si="1"/>
         <v>0.27018714400947597</v>
       </c>
     </row>
     <row r="29" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B29" s="31">
+      <c r="B29" s="30">
         <v>0.6</v>
       </c>
-      <c r="C29" s="31">
+      <c r="C29" s="30">
         <v>20</v>
       </c>
-      <c r="D29" s="31">
+      <c r="D29" s="30">
         <v>6</v>
       </c>
-      <c r="E29" s="30">
+      <c r="E29" s="29">
         <f t="shared" si="1"/>
         <v>0.61541463603126756</v>
       </c>
     </row>
     <row r="30" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B30" s="31">
+      <c r="B30" s="30">
         <v>0.7</v>
       </c>
-      <c r="C30" s="31">
+      <c r="C30" s="30">
         <v>20</v>
       </c>
-      <c r="D30" s="31">
+      <c r="D30" s="30">
         <v>6</v>
       </c>
-      <c r="E30" s="30">
+      <c r="E30" s="29">
         <f t="shared" si="1"/>
         <v>0.91818599658467392</v>
       </c>
     </row>
     <row r="31" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B31" s="31">
+      <c r="B31" s="30">
         <v>0.8</v>
       </c>
-      <c r="C31" s="31">
+      <c r="C31" s="30">
         <v>20</v>
       </c>
-      <c r="D31" s="31">
+      <c r="D31" s="30">
         <v>6</v>
       </c>
-      <c r="E31" s="30">
+      <c r="E31" s="29">
         <f t="shared" si="1"/>
         <v>0.99771212515468055</v>
       </c>
     </row>
     <row r="32" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B32" s="31">
+      <c r="B32" s="30">
         <v>0.9</v>
       </c>
-      <c r="C32" s="31">
+      <c r="C32" s="30">
         <v>20</v>
       </c>
-      <c r="D32" s="31">
+      <c r="D32" s="30">
         <v>6</v>
       </c>
-      <c r="E32" s="30">
+      <c r="E32" s="29">
         <f t="shared" si="1"/>
         <v>0.99999973981294654</v>
       </c>
     </row>
     <row r="33" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B33" s="31">
-        <v>1</v>
-      </c>
-      <c r="C33" s="31">
+      <c r="B33" s="30">
+        <v>1</v>
+      </c>
+      <c r="C33" s="30">
         <v>20</v>
       </c>
-      <c r="D33" s="31">
+      <c r="D33" s="30">
         <v>6</v>
       </c>
-      <c r="E33" s="30">
+      <c r="E33" s="29">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
     <row r="40" spans="2:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B40" s="32" t="s">
-        <v>46</v>
+      <c r="B40" s="31" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="42" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B42" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C42" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D42" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E42" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="43" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B43" s="31">
+      <c r="B43" s="30">
         <v>0.1</v>
       </c>
-      <c r="C43" s="31">
+      <c r="C43" s="30">
         <v>50</v>
       </c>
-      <c r="D43" s="31">
-        <v>5</v>
-      </c>
-      <c r="E43" s="30">
+      <c r="D43" s="30">
+        <v>5</v>
+      </c>
+      <c r="E43" s="29">
         <f>1-(1-B43^D43)^C43</f>
         <v>4.9987751959512661E-4</v>
       </c>
     </row>
     <row r="44" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B44" s="31">
+      <c r="B44" s="30">
         <v>0.2</v>
       </c>
-      <c r="C44" s="31">
+      <c r="C44" s="30">
         <v>50</v>
       </c>
-      <c r="D44" s="31">
-        <v>5</v>
-      </c>
-      <c r="E44" s="30">
+      <c r="D44" s="30">
+        <v>5</v>
+      </c>
+      <c r="E44" s="29">
         <f t="shared" ref="E44:E52" si="2">1-(1-B44^D44)^C44</f>
         <v>1.5875199845019949E-2</v>
       </c>
     </row>
     <row r="45" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B45" s="31">
+      <c r="B45" s="30">
         <v>0.3</v>
       </c>
-      <c r="C45" s="31">
+      <c r="C45" s="30">
         <v>50</v>
       </c>
-      <c r="D45" s="31">
-        <v>5</v>
-      </c>
-      <c r="E45" s="30">
+      <c r="D45" s="30">
+        <v>5</v>
+      </c>
+      <c r="E45" s="29">
         <f t="shared" si="2"/>
         <v>0.11453988231042289</v>
       </c>
     </row>
     <row r="46" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B46" s="31">
+      <c r="B46" s="30">
         <v>0.4</v>
       </c>
-      <c r="C46" s="31">
+      <c r="C46" s="30">
         <v>50</v>
       </c>
-      <c r="D46" s="31">
-        <v>5</v>
-      </c>
-      <c r="E46" s="30">
+      <c r="D46" s="30">
+        <v>5</v>
+      </c>
+      <c r="E46" s="29">
         <f t="shared" si="2"/>
         <v>0.40228395220880431</v>
       </c>
     </row>
     <row r="47" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B47" s="31">
+      <c r="B47" s="30">
         <v>0.5</v>
       </c>
-      <c r="C47" s="31">
+      <c r="C47" s="30">
         <v>50</v>
       </c>
-      <c r="D47" s="31">
-        <v>5</v>
-      </c>
-      <c r="E47" s="30">
+      <c r="D47" s="30">
+        <v>5</v>
+      </c>
+      <c r="E47" s="29">
         <f t="shared" si="2"/>
         <v>0.79555063043236496</v>
       </c>
     </row>
     <row r="48" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B48" s="31">
+      <c r="B48" s="30">
         <v>0.6</v>
       </c>
-      <c r="C48" s="31">
+      <c r="C48" s="30">
         <v>50</v>
       </c>
-      <c r="D48" s="31">
-        <v>5</v>
-      </c>
-      <c r="E48" s="30">
+      <c r="D48" s="30">
+        <v>5</v>
+      </c>
+      <c r="E48" s="29">
         <f t="shared" si="2"/>
         <v>0.98253382770686093</v>
       </c>
     </row>
     <row r="49" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B49" s="31">
+      <c r="B49" s="30">
         <v>0.7</v>
       </c>
-      <c r="C49" s="31">
+      <c r="C49" s="30">
         <v>50</v>
       </c>
-      <c r="D49" s="31">
-        <v>5</v>
-      </c>
-      <c r="E49" s="30">
+      <c r="D49" s="30">
+        <v>5</v>
+      </c>
+      <c r="E49" s="29">
         <f t="shared" si="2"/>
         <v>0.99989899583615571</v>
       </c>
     </row>
     <row r="50" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B50" s="31">
+      <c r="B50" s="30">
         <v>0.8</v>
       </c>
-      <c r="C50" s="31">
+      <c r="C50" s="30">
         <v>50</v>
       </c>
-      <c r="D50" s="31">
-        <v>5</v>
-      </c>
-      <c r="E50" s="30">
+      <c r="D50" s="30">
+        <v>5</v>
+      </c>
+      <c r="E50" s="29">
         <f t="shared" si="2"/>
         <v>0.99999999760777769</v>
       </c>
     </row>
     <row r="51" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B51" s="31">
+      <c r="B51" s="30">
         <v>0.9</v>
       </c>
-      <c r="C51" s="31">
+      <c r="C51" s="30">
         <v>50</v>
       </c>
-      <c r="D51" s="31">
-        <v>5</v>
-      </c>
-      <c r="E51" s="30">
+      <c r="D51" s="30">
+        <v>5</v>
+      </c>
+      <c r="E51" s="29">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
     <row r="52" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B52" s="31">
-        <v>1</v>
-      </c>
-      <c r="C52" s="31">
+      <c r="B52" s="30">
+        <v>1</v>
+      </c>
+      <c r="C52" s="30">
         <v>50</v>
       </c>
-      <c r="D52" s="31">
-        <v>5</v>
-      </c>
-      <c r="E52" s="30">
+      <c r="D52" s="30">
+        <v>5</v>
+      </c>
+      <c r="E52" s="29">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
@@ -5315,8 +5359,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B6CB495E-F0D0-4415-BE5B-C7E426A19E0B}">
   <dimension ref="B2:P53"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="F47" sqref="F47"/>
+    <sheetView showGridLines="0" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="G51" sqref="F51:G52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5328,19 +5372,19 @@
   <sheetData>
     <row r="2" spans="2:16" ht="18" x14ac:dyDescent="0.35">
       <c r="C2" s="15" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="4" spans="2:16" x14ac:dyDescent="0.3">
       <c r="C4" s="17"/>
       <c r="D4" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="E4" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="F4" s="17" t="s">
         <v>29</v>
-      </c>
-      <c r="E4" s="17" t="s">
-        <v>30</v>
-      </c>
-      <c r="F4" s="17" t="s">
-        <v>31</v>
       </c>
       <c r="G4" s="26"/>
       <c r="H4" s="26"/>
@@ -5349,7 +5393,7 @@
     </row>
     <row r="5" spans="2:16" x14ac:dyDescent="0.3">
       <c r="C5" s="17" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D5" s="17">
         <v>1</v>
@@ -5367,7 +5411,7 @@
     </row>
     <row r="6" spans="2:16" x14ac:dyDescent="0.3">
       <c r="C6" s="17" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D6" s="17">
         <v>1</v>
@@ -5385,7 +5429,7 @@
     </row>
     <row r="7" spans="2:16" x14ac:dyDescent="0.3">
       <c r="C7" s="17" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D7" s="17">
         <v>1</v>
@@ -5403,7 +5447,7 @@
     </row>
     <row r="8" spans="2:16" x14ac:dyDescent="0.3">
       <c r="C8" s="17" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D8" s="17">
         <v>1</v>
@@ -5421,7 +5465,7 @@
     </row>
     <row r="9" spans="2:16" x14ac:dyDescent="0.3">
       <c r="C9" s="17" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D9" s="17">
         <v>0</v>
@@ -5439,7 +5483,7 @@
     </row>
     <row r="10" spans="2:16" x14ac:dyDescent="0.3">
       <c r="C10" s="17" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D10" s="17">
         <v>0</v>
@@ -5457,17 +5501,17 @@
     </row>
     <row r="12" spans="2:16" ht="18" x14ac:dyDescent="0.35">
       <c r="C12" s="15" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="13" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B13" s="14"/>
-      <c r="C13" s="29" t="s">
-        <v>36</v>
-      </c>
-      <c r="D13" s="29"/>
-      <c r="E13" s="29"/>
-      <c r="F13" s="29"/>
+      <c r="C13" s="41" t="s">
+        <v>34</v>
+      </c>
+      <c r="D13" s="41"/>
+      <c r="E13" s="41"/>
+      <c r="F13" s="41"/>
       <c r="G13" s="23"/>
       <c r="H13" s="23"/>
       <c r="I13" s="23"/>
@@ -5481,7 +5525,7 @@
     </row>
     <row r="14" spans="2:16" x14ac:dyDescent="0.3">
       <c r="K14" s="21" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="L14" s="21"/>
       <c r="M14" s="21"/>
@@ -5489,44 +5533,44 @@
     </row>
     <row r="15" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B15" s="17" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C15" s="20" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D15" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="E15" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="F15" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="E15" s="17" t="s">
-        <v>30</v>
-      </c>
-      <c r="F15" s="17" t="s">
-        <v>31</v>
-      </c>
       <c r="G15" s="17" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="H15" s="17" t="s">
+        <v>38</v>
+      </c>
+      <c r="I15" s="17" t="s">
         <v>40</v>
-      </c>
-      <c r="I15" s="17" t="s">
-        <v>42</v>
       </c>
       <c r="J15" s="26"/>
       <c r="K15" s="17"/>
       <c r="L15" s="20" t="s">
+        <v>27</v>
+      </c>
+      <c r="M15" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="N15" s="20" t="s">
         <v>29</v>
-      </c>
-      <c r="M15" s="20" t="s">
-        <v>30</v>
-      </c>
-      <c r="N15" s="20" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="16" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B16" s="17" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C16" s="20">
         <v>0</v>
@@ -5554,7 +5598,7 @@
       </c>
       <c r="J16" s="26"/>
       <c r="K16" s="20" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="L16" s="20">
         <v>1</v>
@@ -5568,7 +5612,7 @@
     </row>
     <row r="17" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B17" s="17" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C17" s="20">
         <v>1</v>
@@ -5596,7 +5640,7 @@
       </c>
       <c r="J17" s="26"/>
       <c r="K17" s="20" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="L17" s="17">
         <v>2</v>
@@ -5610,7 +5654,7 @@
     </row>
     <row r="18" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B18" s="17" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C18" s="20">
         <v>2</v>
@@ -5638,7 +5682,7 @@
       </c>
       <c r="J18" s="26"/>
       <c r="K18" s="17" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="L18" s="17">
         <v>3</v>
@@ -5652,7 +5696,7 @@
     </row>
     <row r="19" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B19" s="17" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C19" s="20">
         <v>3</v>
@@ -5680,12 +5724,12 @@
       </c>
       <c r="J19" s="26"/>
       <c r="K19" s="23" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="20" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B20" s="17" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C20" s="20">
         <v>4</v>
@@ -5713,13 +5757,13 @@
       </c>
       <c r="J20" s="26"/>
       <c r="K20" s="18" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="L20" s="25" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="M20" s="18" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="N20" s="18">
         <f>1/3</f>
@@ -5728,7 +5772,7 @@
     </row>
     <row r="21" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B21" s="17" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C21" s="20">
         <v>5</v>
@@ -5756,13 +5800,13 @@
       </c>
       <c r="J21" s="26"/>
       <c r="K21" s="18" t="s">
+        <v>27</v>
+      </c>
+      <c r="L21" s="25" t="s">
+        <v>36</v>
+      </c>
+      <c r="M21" s="18" t="s">
         <v>29</v>
-      </c>
-      <c r="L21" s="25" t="s">
-        <v>38</v>
-      </c>
-      <c r="M21" s="18" t="s">
-        <v>31</v>
       </c>
       <c r="N21" s="18">
         <v>0</v>
@@ -5778,13 +5822,13 @@
       <c r="I22" s="26"/>
       <c r="J22" s="26"/>
       <c r="K22" s="18" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="L22" s="25" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="M22" s="18" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="N22" s="16">
         <f>2/3</f>
@@ -5793,136 +5837,136 @@
     </row>
     <row r="23" spans="2:14" x14ac:dyDescent="0.3">
       <c r="C23" s="23" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G23" s="19" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="H23" s="19" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="I23" s="19" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="24" spans="2:14" x14ac:dyDescent="0.3">
       <c r="C24" s="18" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D24" s="25" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="E24" s="18" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F24" s="16">
         <f>2/6</f>
         <v>0.33333333333333331</v>
       </c>
       <c r="G24" s="17" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="H24" s="17" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="I24" s="17" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="25" spans="2:14" x14ac:dyDescent="0.3">
       <c r="C25" s="18" t="s">
+        <v>27</v>
+      </c>
+      <c r="D25" s="25" t="s">
+        <v>36</v>
+      </c>
+      <c r="E25" s="18" t="s">
         <v>29</v>
-      </c>
-      <c r="D25" s="25" t="s">
-        <v>38</v>
-      </c>
-      <c r="E25" s="18" t="s">
-        <v>31</v>
       </c>
       <c r="F25" s="18">
         <f>2/5</f>
         <v>0.4</v>
       </c>
       <c r="G25" s="17" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="H25" s="17" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="I25" s="17" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="26" spans="2:14" x14ac:dyDescent="0.3">
       <c r="C26" s="18" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D26" s="25" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="E26" s="18" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F26" s="16">
         <f>2/5</f>
         <v>0.4</v>
       </c>
       <c r="G26" s="17" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="H26" s="17" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="I26" s="17" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="27" spans="2:14" x14ac:dyDescent="0.3">
       <c r="G27" s="17" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="H27" s="17" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="I27" s="17" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="28" spans="2:14" x14ac:dyDescent="0.3">
       <c r="G28" s="17" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="H28" s="17" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="I28" s="17" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="29" spans="2:14" x14ac:dyDescent="0.3">
       <c r="G29" s="17" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="H29" s="17" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="I29" s="17" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="34" spans="2:16" ht="18" x14ac:dyDescent="0.35">
       <c r="C34" s="15" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="35" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B35" s="14"/>
-      <c r="C35" s="29" t="s">
-        <v>36</v>
-      </c>
-      <c r="D35" s="29"/>
-      <c r="E35" s="29"/>
-      <c r="F35" s="29"/>
+      <c r="C35" s="41" t="s">
+        <v>34</v>
+      </c>
+      <c r="D35" s="41"/>
+      <c r="E35" s="41"/>
+      <c r="F35" s="41"/>
       <c r="G35" s="24"/>
       <c r="H35" s="24"/>
       <c r="I35" s="24"/>
@@ -5935,16 +5979,16 @@
     <row r="36" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B36" s="14"/>
       <c r="H36" s="17" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="I36" s="17" t="s">
+        <v>38</v>
+      </c>
+      <c r="J36" s="17" t="s">
         <v>40</v>
       </c>
-      <c r="J36" s="17" t="s">
-        <v>42</v>
-      </c>
       <c r="L36" s="21" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="M36" s="21"/>
       <c r="N36" s="21"/>
@@ -5953,42 +5997,42 @@
     <row r="37" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B37" s="14"/>
       <c r="C37" s="20" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D37" s="17" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E37" s="17" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F37" s="17" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="G37" s="17" t="s">
-        <v>54</v>
-      </c>
-      <c r="H37" s="33" t="s">
+        <v>52</v>
+      </c>
+      <c r="H37" s="32" t="s">
+        <v>48</v>
+      </c>
+      <c r="I37" s="32" t="s">
+        <v>49</v>
+      </c>
+      <c r="J37" s="32" t="s">
         <v>50</v>
-      </c>
-      <c r="I37" s="33" t="s">
-        <v>51</v>
-      </c>
-      <c r="J37" s="33" t="s">
-        <v>52</v>
       </c>
       <c r="K37" s="26"/>
       <c r="L37" s="17"/>
       <c r="M37" s="17" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N37" s="17" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O37" s="17" t="s">
-        <v>53</v>
-      </c>
-      <c r="P37" s="36" t="s">
-        <v>54</v>
+        <v>51</v>
+      </c>
+      <c r="P37" s="35" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="38" spans="2:16" x14ac:dyDescent="0.3">
@@ -6022,7 +6066,7 @@
       </c>
       <c r="K38" s="26"/>
       <c r="L38" s="20" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="M38" s="20">
         <v>5</v>
@@ -6030,10 +6074,10 @@
       <c r="N38" s="20">
         <v>1</v>
       </c>
-      <c r="O38" s="34">
-        <v>1</v>
-      </c>
-      <c r="P38" s="37">
+      <c r="O38" s="33">
+        <v>1</v>
+      </c>
+      <c r="P38" s="36">
         <v>1</v>
       </c>
     </row>
@@ -6068,7 +6112,7 @@
       </c>
       <c r="K39" s="26"/>
       <c r="L39" s="20" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="M39" s="17">
         <v>2</v>
@@ -6076,10 +6120,10 @@
       <c r="N39" s="17">
         <v>2</v>
       </c>
-      <c r="O39" s="35">
+      <c r="O39" s="34">
         <v>2</v>
       </c>
-      <c r="P39" s="37">
+      <c r="P39" s="36">
         <v>2</v>
       </c>
     </row>
@@ -6114,7 +6158,7 @@
       </c>
       <c r="K40" s="26"/>
       <c r="L40" s="17" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="M40" s="17">
         <v>0</v>
@@ -6122,10 +6166,10 @@
       <c r="N40" s="17">
         <v>1</v>
       </c>
-      <c r="O40" s="35">
+      <c r="O40" s="34">
         <v>4</v>
       </c>
-      <c r="P40" s="37">
+      <c r="P40" s="36">
         <v>0</v>
       </c>
     </row>
@@ -6246,58 +6290,58 @@
       <c r="O44" s="16"/>
     </row>
     <row r="45" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="C45" s="39" t="s">
-        <v>37</v>
-      </c>
-      <c r="D45" s="40" t="s">
+      <c r="C45" s="38" t="s">
+        <v>35</v>
+      </c>
+      <c r="D45" s="39" t="s">
+        <v>55</v>
+      </c>
+      <c r="E45" s="39" t="s">
+        <v>56</v>
+      </c>
+      <c r="F45" s="39" t="s">
         <v>57</v>
       </c>
-      <c r="E45" s="40" t="s">
+      <c r="G45" s="39" t="s">
         <v>58</v>
       </c>
-      <c r="F45" s="40" t="s">
+      <c r="H45" s="39" t="s">
         <v>59</v>
       </c>
-      <c r="G45" s="40" t="s">
+      <c r="I45" s="39" t="s">
         <v>60</v>
-      </c>
-      <c r="H45" s="40" t="s">
-        <v>61</v>
-      </c>
-      <c r="I45" s="40" t="s">
-        <v>62</v>
       </c>
       <c r="J45" s="26"/>
     </row>
     <row r="46" spans="2:16" x14ac:dyDescent="0.3">
       <c r="C46" s="17" t="s">
-        <v>55</v>
-      </c>
-      <c r="D46" s="38">
+        <v>53</v>
+      </c>
+      <c r="D46" s="37">
         <v>0</v>
       </c>
       <c r="E46" s="20">
         <v>0</v>
       </c>
-      <c r="F46" s="41">
+      <c r="F46" s="40">
         <v>0.25</v>
       </c>
       <c r="G46" s="17">
         <v>0</v>
       </c>
-      <c r="H46" s="41">
+      <c r="H46" s="40">
         <v>0.25</v>
       </c>
-      <c r="I46" s="41">
+      <c r="I46" s="40">
         <v>0.25</v>
       </c>
       <c r="J46" s="26"/>
     </row>
     <row r="47" spans="2:16" x14ac:dyDescent="0.3">
       <c r="C47" s="17" t="s">
-        <v>56</v>
-      </c>
-      <c r="D47" s="38">
+        <v>54</v>
+      </c>
+      <c r="D47" s="37">
         <v>0</v>
       </c>
       <c r="E47" s="20">
@@ -6328,31 +6372,41 @@
       <c r="I48" s="26"/>
       <c r="J48" s="26"/>
     </row>
-    <row r="49" spans="7:10" x14ac:dyDescent="0.3">
+    <row r="49" spans="6:10" x14ac:dyDescent="0.3">
       <c r="G49" s="26"/>
       <c r="H49" s="26"/>
       <c r="I49" s="26"/>
       <c r="J49" s="26"/>
     </row>
-    <row r="50" spans="7:10" x14ac:dyDescent="0.3">
+    <row r="50" spans="6:10" x14ac:dyDescent="0.3">
       <c r="G50" s="26"/>
       <c r="H50" s="26"/>
       <c r="I50" s="26"/>
       <c r="J50" s="26"/>
     </row>
-    <row r="51" spans="7:10" x14ac:dyDescent="0.3">
-      <c r="G51" s="26"/>
+    <row r="51" spans="6:10" x14ac:dyDescent="0.3">
+      <c r="F51">
+        <v>4</v>
+      </c>
+      <c r="G51" s="26">
+        <v>2</v>
+      </c>
       <c r="H51" s="26"/>
       <c r="I51" s="26"/>
       <c r="J51" s="26"/>
     </row>
-    <row r="52" spans="7:10" x14ac:dyDescent="0.3">
-      <c r="G52" s="26"/>
+    <row r="52" spans="6:10" x14ac:dyDescent="0.3">
+      <c r="F52">
+        <v>10</v>
+      </c>
+      <c r="G52" s="26">
+        <v>5</v>
+      </c>
       <c r="H52" s="26"/>
       <c r="I52" s="26"/>
       <c r="J52" s="26"/>
     </row>
-    <row r="53" spans="7:10" x14ac:dyDescent="0.3">
+    <row r="53" spans="6:10" x14ac:dyDescent="0.3">
       <c r="G53" s="26"/>
       <c r="H53" s="26"/>
       <c r="I53" s="26"/>
